--- a/st1.xlsm.xlsx
+++ b/st1.xlsm.xlsx
@@ -1,32 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ri-ueno\Desktop\pair programming\SQL\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7815" activeTab="1"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="問題" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="確認" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="参考-区分マスタ（MS_KBN）" sheetId="3" r:id="rId5"/>
-    <sheet state="visible" name="参考-ERD" sheetId="4" r:id="rId6"/>
-    <sheet state="visible" name="Sheet1" sheetId="5" r:id="rId7"/>
-    <sheet state="visible" name="Personal" sheetId="6" r:id="rId8"/>
-    <sheet state="visible" name="設定" sheetId="7" r:id="rId9"/>
+    <sheet name="問題" sheetId="1" r:id="rId1"/>
+    <sheet name="確認" sheetId="2" r:id="rId2"/>
+    <sheet name="参考-区分マスタ（MS_KBN）" sheetId="3" r:id="rId3"/>
+    <sheet name="参考-ERD" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="Personal" sheetId="6" r:id="rId6"/>
+    <sheet name="設定" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="4" name="_xlnm._FilterDatabase">Sheet1!$A$1:$A$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet1!$A$1:$A$78</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A1">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">管理用項目。処理では利用しないのでテーブル定義からは省略</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="MS PGothic"/>
+          </rPr>
+          <t>管理用項目。処理では利用しないのでテーブル定義からは省略</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -34,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="464">
   <si>
     <t>NO</t>
   </si>
@@ -1431,17 +1447,25 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="MS PGothic"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="MS PGothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1449,7 +1473,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1489,7 +1513,13 @@
     </fill>
   </fills>
   <borders count="5">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -1503,6 +1533,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1514,6 +1545,8 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1522,9 +1555,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1533,80 +1568,88 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -1617,11 +1660,11 @@
     <xdr:ext cx="1743075" cy="485775"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPr id="2" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1638,12 +1681,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1654,11 +1693,11 @@
     <xdr:ext cx="12592050" cy="8801100"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPr id="2" name="image1.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1675,36 +1714,285 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="3.13"/>
-    <col customWidth="1" min="2" max="2" width="2.5"/>
-    <col customWidth="1" min="3" max="3" width="149.13"/>
-    <col customWidth="1" min="4" max="6" width="7.63"/>
+    <col min="1" max="1" width="3.125" customWidth="1"/>
+    <col min="2" max="2" width="2.5" customWidth="1"/>
+    <col min="3" max="3" width="149.125" customWidth="1"/>
+    <col min="4" max="6" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:3" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1713,111 +2001,111 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
+    <row r="2" spans="1:3" ht="12.75" customHeight="1">
       <c r="A2" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="12.75" customHeight="1">
+    <row r="3" spans="1:3" ht="12.75" customHeight="1">
       <c r="A3" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" ht="12.75" customHeight="1">
+    <row r="4" spans="1:3" ht="12.75" customHeight="1">
       <c r="A4" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" ht="12.75" customHeight="1">
+    <row r="5" spans="1:3" ht="12.75" customHeight="1">
       <c r="A5" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" ht="12.75" customHeight="1">
+    <row r="6" spans="1:3" ht="12.75" customHeight="1">
       <c r="A6" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B6" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" ht="12.75" customHeight="1">
+    <row r="7" spans="1:3" ht="12.75" customHeight="1">
       <c r="A7" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B7" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" ht="12.75" customHeight="1">
+    <row r="8" spans="1:3" ht="12.75" customHeight="1">
       <c r="A8" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B8" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" ht="12.75" customHeight="1">
+    <row r="9" spans="1:3" ht="12.75" customHeight="1">
       <c r="A9" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B9" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" ht="12.75" customHeight="1">
+    <row r="10" spans="1:3" ht="12.75" customHeight="1">
       <c r="A10" s="4">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B10" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" ht="12.75" customHeight="1"/>
-    <row r="12" ht="12.75" customHeight="1"/>
-    <row r="13" ht="12.75" customHeight="1"/>
-    <row r="14" ht="12.75" customHeight="1"/>
-    <row r="15" ht="12.75" customHeight="1"/>
-    <row r="16" ht="12.75" customHeight="1"/>
+    <row r="11" spans="1:3" ht="12.75" customHeight="1"/>
+    <row r="12" spans="1:3" ht="12.75" customHeight="1"/>
+    <row r="13" spans="1:3" ht="12.75" customHeight="1"/>
+    <row r="14" spans="1:3" ht="12.75" customHeight="1"/>
+    <row r="15" spans="1:3" ht="12.75" customHeight="1"/>
+    <row r="16" spans="1:3" ht="12.75" customHeight="1"/>
     <row r="17" ht="12.75" customHeight="1"/>
     <row r="18" ht="12.75" customHeight="1"/>
     <row r="19" ht="12.75" customHeight="1"/>
@@ -2803,30 +3091,31 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:AI1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="7.88"/>
-    <col customWidth="1" min="3" max="3" width="10.13"/>
-    <col customWidth="1" min="4" max="35" width="7.88"/>
+    <col min="1" max="2" width="7.875" customWidth="1"/>
+    <col min="3" max="3" width="10.125" customWidth="1"/>
+    <col min="4" max="35" width="7.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:35" ht="12.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -2865,7 +3154,7 @@
       <c r="AH1" s="3"/>
       <c r="AI1" s="3"/>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
+    <row r="2" spans="1:35" ht="12.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -2906,7 +3195,7 @@
       <c r="AH2" s="3"/>
       <c r="AI2" s="3"/>
     </row>
-    <row r="3" ht="12.75" customHeight="1">
+    <row r="3" spans="1:35" ht="12.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -2957,7 +3246,7 @@
       <c r="AH3" s="3"/>
       <c r="AI3" s="3"/>
     </row>
-    <row r="4" ht="12.75" customHeight="1">
+    <row r="4" spans="1:35" ht="12.75" customHeight="1">
       <c r="A4" s="12" t="s">
         <v>28</v>
       </c>
@@ -2968,9 +3257,15 @@
         <v>32</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="E4" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>32</v>
+      </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -3000,7 +3295,7 @@
       <c r="AH4" s="3"/>
       <c r="AI4" s="3"/>
     </row>
-    <row r="5" ht="12.75" customHeight="1">
+    <row r="5" spans="1:35" ht="12.75" customHeight="1">
       <c r="A5" s="12" t="s">
         <v>52</v>
       </c>
@@ -3011,9 +3306,15 @@
         <v>54</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="E5" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -3043,7 +3344,7 @@
       <c r="AH5" s="3"/>
       <c r="AI5" s="3"/>
     </row>
-    <row r="6" ht="12.75" customHeight="1">
+    <row r="6" spans="1:35" ht="12.75" customHeight="1">
       <c r="A6" s="12" t="s">
         <v>60</v>
       </c>
@@ -3054,9 +3355,15 @@
         <v>62</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="E6" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -3086,7 +3393,7 @@
       <c r="AH6" s="3"/>
       <c r="AI6" s="3"/>
     </row>
-    <row r="7" ht="12.75" customHeight="1">
+    <row r="7" spans="1:35" ht="12.75" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -3123,7 +3430,7 @@
       <c r="AH7" s="3"/>
       <c r="AI7" s="3"/>
     </row>
-    <row r="8" ht="12.75" customHeight="1">
+    <row r="8" spans="1:35" ht="12.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>63</v>
       </c>
@@ -3164,7 +3471,7 @@
       <c r="AH8" s="3"/>
       <c r="AI8" s="3"/>
     </row>
-    <row r="9" ht="12.75" customHeight="1">
+    <row r="9" spans="1:35" ht="12.75" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>64</v>
       </c>
@@ -3223,7 +3530,7 @@
       <c r="AH9" s="3"/>
       <c r="AI9" s="3"/>
     </row>
-    <row r="10" ht="12.75" customHeight="1">
+    <row r="10" spans="1:35" ht="12.75" customHeight="1">
       <c r="A10" s="12" t="s">
         <v>66</v>
       </c>
@@ -3240,11 +3547,21 @@
         <v>32</v>
       </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
+      <c r="G10" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>32</v>
+      </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
@@ -3270,7 +3587,7 @@
       <c r="AH10" s="3"/>
       <c r="AI10" s="3"/>
     </row>
-    <row r="11" ht="12.75" customHeight="1">
+    <row r="11" spans="1:35" ht="12.75" customHeight="1">
       <c r="A11" s="12" t="s">
         <v>66</v>
       </c>
@@ -3287,11 +3604,21 @@
         <v>54</v>
       </c>
       <c r="F11" s="3"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
+      <c r="G11" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
@@ -3317,7 +3644,7 @@
       <c r="AH11" s="3"/>
       <c r="AI11" s="3"/>
     </row>
-    <row r="12" ht="12.75" customHeight="1">
+    <row r="12" spans="1:35" ht="12.75" customHeight="1">
       <c r="A12" s="12" t="s">
         <v>68</v>
       </c>
@@ -3334,11 +3661,21 @@
         <v>62</v>
       </c>
       <c r="F12" s="3"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
+      <c r="G12" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
@@ -3364,7 +3701,7 @@
       <c r="AH12" s="3"/>
       <c r="AI12" s="3"/>
     </row>
-    <row r="13" ht="12.75" customHeight="1">
+    <row r="13" spans="1:35" ht="12.75" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -3401,7 +3738,7 @@
       <c r="AH13" s="3"/>
       <c r="AI13" s="3"/>
     </row>
-    <row r="14" ht="12.75" customHeight="1">
+    <row r="14" spans="1:35" ht="12.75" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>70</v>
       </c>
@@ -3442,7 +3779,7 @@
       <c r="AH14" s="3"/>
       <c r="AI14" s="3"/>
     </row>
-    <row r="15" ht="12.75" customHeight="1">
+    <row r="15" spans="1:35" ht="12.75" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>71</v>
       </c>
@@ -3501,7 +3838,7 @@
       <c r="AH15" s="3"/>
       <c r="AI15" s="3"/>
     </row>
-    <row r="16" ht="12.75" customHeight="1">
+    <row r="16" spans="1:35" ht="12.75" customHeight="1">
       <c r="A16" s="12" t="s">
         <v>76</v>
       </c>
@@ -3518,11 +3855,21 @@
         <v>80</v>
       </c>
       <c r="F16" s="3"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
+      <c r="G16" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>80</v>
+      </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
@@ -3548,7 +3895,7 @@
       <c r="AH16" s="3"/>
       <c r="AI16" s="3"/>
     </row>
-    <row r="17" ht="12.75" customHeight="1">
+    <row r="17" spans="1:35" ht="12.75" customHeight="1">
       <c r="A17" s="12" t="s">
         <v>81</v>
       </c>
@@ -3565,11 +3912,21 @@
         <v>85</v>
       </c>
       <c r="F17" s="3"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
+      <c r="G17" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>85</v>
+      </c>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
@@ -3595,7 +3952,7 @@
       <c r="AH17" s="3"/>
       <c r="AI17" s="3"/>
     </row>
-    <row r="18" ht="12.75" customHeight="1">
+    <row r="18" spans="1:35" ht="12.75" customHeight="1">
       <c r="A18" s="12" t="s">
         <v>86</v>
       </c>
@@ -3612,11 +3969,21 @@
         <v>85</v>
       </c>
       <c r="F18" s="3"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
+      <c r="G18" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>85</v>
+      </c>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
@@ -3642,7 +4009,7 @@
       <c r="AH18" s="3"/>
       <c r="AI18" s="3"/>
     </row>
-    <row r="19" ht="12.75" customHeight="1">
+    <row r="19" spans="1:35" ht="12.75" customHeight="1">
       <c r="A19" s="12" t="s">
         <v>88</v>
       </c>
@@ -3659,11 +4026,21 @@
         <v>91</v>
       </c>
       <c r="F19" s="3"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
+      <c r="G19" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
@@ -3689,7 +4066,7 @@
       <c r="AH19" s="3"/>
       <c r="AI19" s="3"/>
     </row>
-    <row r="20" ht="12.75" customHeight="1">
+    <row r="20" spans="1:35" ht="12.75" customHeight="1">
       <c r="A20" s="12" t="s">
         <v>92</v>
       </c>
@@ -3706,11 +4083,21 @@
         <v>95</v>
       </c>
       <c r="F20" s="3"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
+      <c r="G20" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>95</v>
+      </c>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
@@ -3736,7 +4123,7 @@
       <c r="AH20" s="3"/>
       <c r="AI20" s="3"/>
     </row>
-    <row r="21" ht="12.75" customHeight="1">
+    <row r="21" spans="1:35" ht="12.75" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3773,7 +4160,7 @@
       <c r="AH21" s="3"/>
       <c r="AI21" s="3"/>
     </row>
-    <row r="22" ht="12.75" customHeight="1">
+    <row r="22" spans="1:35" ht="12.75" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>96</v>
       </c>
@@ -3814,7 +4201,7 @@
       <c r="AH22" s="3"/>
       <c r="AI22" s="3"/>
     </row>
-    <row r="23" ht="12.75" customHeight="1">
+    <row r="23" spans="1:35" ht="12.75" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>97</v>
       </c>
@@ -3921,7 +4308,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="24" ht="12.75" customHeight="1">
+    <row r="24" spans="1:35" ht="12.75" customHeight="1">
       <c r="A24" s="12" t="s">
         <v>114</v>
       </c>
@@ -3992,7 +4379,7 @@
       <c r="AH24" s="13"/>
       <c r="AI24" s="13"/>
     </row>
-    <row r="25" ht="12.75" customHeight="1">
+    <row r="25" spans="1:35" ht="12.75" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -4029,7 +4416,7 @@
       <c r="AH25" s="3"/>
       <c r="AI25" s="3"/>
     </row>
-    <row r="26" ht="12.75" customHeight="1">
+    <row r="26" spans="1:35" ht="12.75" customHeight="1">
       <c r="A26" s="3" t="s">
         <v>130</v>
       </c>
@@ -4070,7 +4457,7 @@
       <c r="AH26" s="3"/>
       <c r="AI26" s="3"/>
     </row>
-    <row r="27" ht="12.75" customHeight="1">
+    <row r="27" spans="1:35" ht="12.75" customHeight="1">
       <c r="A27" s="5" t="s">
         <v>97</v>
       </c>
@@ -4141,7 +4528,7 @@
       <c r="AH27" s="3"/>
       <c r="AI27" s="3"/>
     </row>
-    <row r="28" ht="12.75" customHeight="1">
+    <row r="28" spans="1:35" ht="12.75" customHeight="1">
       <c r="A28" s="12" t="s">
         <v>114</v>
       </c>
@@ -4188,7 +4575,7 @@
       <c r="AH28" s="3"/>
       <c r="AI28" s="3"/>
     </row>
-    <row r="29" ht="12.75" customHeight="1">
+    <row r="29" spans="1:35" ht="12.75" customHeight="1">
       <c r="A29" s="12" t="s">
         <v>114</v>
       </c>
@@ -4235,7 +4622,7 @@
       <c r="AH29" s="3"/>
       <c r="AI29" s="3"/>
     </row>
-    <row r="30" ht="12.75" customHeight="1">
+    <row r="30" spans="1:35" ht="12.75" customHeight="1">
       <c r="A30" s="12" t="s">
         <v>114</v>
       </c>
@@ -4286,7 +4673,7 @@
       <c r="AH30" s="3"/>
       <c r="AI30" s="3"/>
     </row>
-    <row r="31" ht="12.75" customHeight="1">
+    <row r="31" spans="1:35" ht="12.75" customHeight="1">
       <c r="A31" s="12" t="s">
         <v>114</v>
       </c>
@@ -4337,7 +4724,7 @@
       <c r="AH31" s="3"/>
       <c r="AI31" s="3"/>
     </row>
-    <row r="32" ht="12.75" customHeight="1">
+    <row r="32" spans="1:35" ht="12.75" customHeight="1">
       <c r="A32" s="12" t="s">
         <v>114</v>
       </c>
@@ -4384,7 +4771,7 @@
       <c r="AH32" s="3"/>
       <c r="AI32" s="3"/>
     </row>
-    <row r="33" ht="12.75" customHeight="1">
+    <row r="33" spans="1:35" ht="12.75" customHeight="1">
       <c r="A33" s="12" t="s">
         <v>114</v>
       </c>
@@ -4435,7 +4822,7 @@
       <c r="AH33" s="3"/>
       <c r="AI33" s="3"/>
     </row>
-    <row r="34" ht="12.75" customHeight="1">
+    <row r="34" spans="1:35" ht="12.75" customHeight="1">
       <c r="A34" s="12" t="s">
         <v>114</v>
       </c>
@@ -4482,7 +4869,7 @@
       <c r="AH34" s="3"/>
       <c r="AI34" s="3"/>
     </row>
-    <row r="35" ht="12.75" customHeight="1">
+    <row r="35" spans="1:35" ht="12.75" customHeight="1">
       <c r="A35" s="12" t="s">
         <v>114</v>
       </c>
@@ -4531,7 +4918,7 @@
       <c r="AH35" s="3"/>
       <c r="AI35" s="3"/>
     </row>
-    <row r="36" ht="12.75" customHeight="1">
+    <row r="36" spans="1:35" ht="12.75" customHeight="1">
       <c r="A36" s="12" t="s">
         <v>114</v>
       </c>
@@ -4580,7 +4967,7 @@
       <c r="AH36" s="3"/>
       <c r="AI36" s="3"/>
     </row>
-    <row r="37" ht="12.75" customHeight="1">
+    <row r="37" spans="1:35" ht="12.75" customHeight="1">
       <c r="A37" s="12" t="s">
         <v>114</v>
       </c>
@@ -4629,7 +5016,7 @@
       <c r="AH37" s="3"/>
       <c r="AI37" s="3"/>
     </row>
-    <row r="38" ht="12.75" customHeight="1">
+    <row r="38" spans="1:35" ht="12.75" customHeight="1">
       <c r="A38" s="12" t="s">
         <v>114</v>
       </c>
@@ -4676,7 +5063,7 @@
       <c r="AH38" s="3"/>
       <c r="AI38" s="3"/>
     </row>
-    <row r="39" ht="12.75" customHeight="1">
+    <row r="39" spans="1:35" ht="12.75" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -4713,7 +5100,7 @@
       <c r="AH39" s="3"/>
       <c r="AI39" s="3"/>
     </row>
-    <row r="40" ht="12.75" customHeight="1">
+    <row r="40" spans="1:35" ht="12.75" customHeight="1">
       <c r="A40" s="3" t="s">
         <v>166</v>
       </c>
@@ -4754,7 +5141,7 @@
       <c r="AH40" s="3"/>
       <c r="AI40" s="3"/>
     </row>
-    <row r="41" ht="12.75" customHeight="1">
+    <row r="41" spans="1:35" ht="12.75" customHeight="1">
       <c r="A41" s="5" t="s">
         <v>98</v>
       </c>
@@ -4801,7 +5188,7 @@
       <c r="AH41" s="3"/>
       <c r="AI41" s="3"/>
     </row>
-    <row r="42" ht="12.75" customHeight="1">
+    <row r="42" spans="1:35" ht="12.75" customHeight="1">
       <c r="A42" s="12" t="s">
         <v>83</v>
       </c>
@@ -4842,7 +5229,7 @@
       <c r="AH42" s="3"/>
       <c r="AI42" s="3"/>
     </row>
-    <row r="43" ht="12.75" customHeight="1">
+    <row r="43" spans="1:35" ht="12.75" customHeight="1">
       <c r="A43" s="12" t="s">
         <v>169</v>
       </c>
@@ -4883,7 +5270,7 @@
       <c r="AH43" s="3"/>
       <c r="AI43" s="3"/>
     </row>
-    <row r="44" ht="12.75" customHeight="1">
+    <row r="44" spans="1:35" ht="12.75" customHeight="1">
       <c r="A44" s="12" t="s">
         <v>170</v>
       </c>
@@ -4924,7 +5311,7 @@
       <c r="AH44" s="3"/>
       <c r="AI44" s="3"/>
     </row>
-    <row r="45" ht="12.75" customHeight="1">
+    <row r="45" spans="1:35" ht="12.75" customHeight="1">
       <c r="A45" s="12" t="s">
         <v>171</v>
       </c>
@@ -4965,7 +5352,7 @@
       <c r="AH45" s="3"/>
       <c r="AI45" s="3"/>
     </row>
-    <row r="46" ht="12.75" customHeight="1">
+    <row r="46" spans="1:35" ht="12.75" customHeight="1">
       <c r="A46" s="12" t="s">
         <v>172</v>
       </c>
@@ -5006,7 +5393,7 @@
       <c r="AH46" s="3"/>
       <c r="AI46" s="3"/>
     </row>
-    <row r="47" ht="12.75" customHeight="1">
+    <row r="47" spans="1:35" ht="12.75" customHeight="1">
       <c r="A47" s="12" t="s">
         <v>173</v>
       </c>
@@ -5047,7 +5434,7 @@
       <c r="AH47" s="3"/>
       <c r="AI47" s="3"/>
     </row>
-    <row r="48" ht="12.75" customHeight="1">
+    <row r="48" spans="1:35" ht="12.75" customHeight="1">
       <c r="A48" s="12" t="s">
         <v>174</v>
       </c>
@@ -5088,7 +5475,7 @@
       <c r="AH48" s="3"/>
       <c r="AI48" s="3"/>
     </row>
-    <row r="49" ht="12.75" customHeight="1">
+    <row r="49" spans="1:35" ht="12.75" customHeight="1">
       <c r="A49" s="12" t="s">
         <v>176</v>
       </c>
@@ -5129,7 +5516,7 @@
       <c r="AH49" s="3"/>
       <c r="AI49" s="3"/>
     </row>
-    <row r="50" ht="12.75" customHeight="1">
+    <row r="50" spans="1:35" ht="12.75" customHeight="1">
       <c r="A50" s="12" t="s">
         <v>177</v>
       </c>
@@ -5170,7 +5557,7 @@
       <c r="AH50" s="3"/>
       <c r="AI50" s="3"/>
     </row>
-    <row r="51" ht="12.75" customHeight="1">
+    <row r="51" spans="1:35" ht="12.75" customHeight="1">
       <c r="A51" s="12" t="s">
         <v>179</v>
       </c>
@@ -5211,7 +5598,7 @@
       <c r="AH51" s="3"/>
       <c r="AI51" s="3"/>
     </row>
-    <row r="52" ht="12.75" customHeight="1">
+    <row r="52" spans="1:35" ht="12.75" customHeight="1">
       <c r="A52" s="12" t="s">
         <v>180</v>
       </c>
@@ -5252,7 +5639,7 @@
       <c r="AH52" s="3"/>
       <c r="AI52" s="3"/>
     </row>
-    <row r="53" ht="12.75" customHeight="1">
+    <row r="53" spans="1:35" ht="12.75" customHeight="1">
       <c r="A53" s="12" t="s">
         <v>181</v>
       </c>
@@ -5293,7 +5680,7 @@
       <c r="AH53" s="3"/>
       <c r="AI53" s="3"/>
     </row>
-    <row r="54" ht="12.75" customHeight="1">
+    <row r="54" spans="1:35" ht="12.75" customHeight="1">
       <c r="A54" s="12" t="s">
         <v>182</v>
       </c>
@@ -5334,7 +5721,7 @@
       <c r="AH54" s="3"/>
       <c r="AI54" s="3"/>
     </row>
-    <row r="55" ht="12.75" customHeight="1">
+    <row r="55" spans="1:35" ht="12.75" customHeight="1">
       <c r="A55" s="12" t="s">
         <v>184</v>
       </c>
@@ -5375,7 +5762,7 @@
       <c r="AH55" s="3"/>
       <c r="AI55" s="3"/>
     </row>
-    <row r="56" ht="12.75" customHeight="1">
+    <row r="56" spans="1:35" ht="12.75" customHeight="1">
       <c r="A56" s="12" t="s">
         <v>78</v>
       </c>
@@ -5416,7 +5803,7 @@
       <c r="AH56" s="3"/>
       <c r="AI56" s="3"/>
     </row>
-    <row r="57" ht="12.75" customHeight="1">
+    <row r="57" spans="1:35" ht="12.75" customHeight="1">
       <c r="A57" s="12" t="s">
         <v>186</v>
       </c>
@@ -5457,7 +5844,7 @@
       <c r="AH57" s="3"/>
       <c r="AI57" s="3"/>
     </row>
-    <row r="58" ht="12.75" customHeight="1">
+    <row r="58" spans="1:35" ht="12.75" customHeight="1">
       <c r="A58" s="12" t="s">
         <v>188</v>
       </c>
@@ -5498,7 +5885,7 @@
       <c r="AH58" s="3"/>
       <c r="AI58" s="3"/>
     </row>
-    <row r="59" ht="12.75" customHeight="1">
+    <row r="59" spans="1:35" ht="12.75" customHeight="1">
       <c r="A59" s="12" t="s">
         <v>190</v>
       </c>
@@ -5539,7 +5926,7 @@
       <c r="AH59" s="3"/>
       <c r="AI59" s="3"/>
     </row>
-    <row r="60" ht="12.75" customHeight="1">
+    <row r="60" spans="1:35" ht="12.75" customHeight="1">
       <c r="A60" s="12" t="s">
         <v>191</v>
       </c>
@@ -5580,7 +5967,7 @@
       <c r="AH60" s="3"/>
       <c r="AI60" s="3"/>
     </row>
-    <row r="61" ht="12.75" customHeight="1">
+    <row r="61" spans="1:35" ht="12.75" customHeight="1">
       <c r="A61" s="12" t="s">
         <v>79</v>
       </c>
@@ -5621,7 +6008,7 @@
       <c r="AH61" s="3"/>
       <c r="AI61" s="3"/>
     </row>
-    <row r="62" ht="12.75" customHeight="1">
+    <row r="62" spans="1:35" ht="12.75" customHeight="1">
       <c r="A62" s="12" t="s">
         <v>90</v>
       </c>
@@ -5662,7 +6049,7 @@
       <c r="AH62" s="3"/>
       <c r="AI62" s="3"/>
     </row>
-    <row r="63" ht="12.75" customHeight="1">
+    <row r="63" spans="1:35" ht="12.75" customHeight="1">
       <c r="A63" s="12" t="s">
         <v>194</v>
       </c>
@@ -5703,7 +6090,7 @@
       <c r="AH63" s="3"/>
       <c r="AI63" s="3"/>
     </row>
-    <row r="64" ht="12.75" customHeight="1">
+    <row r="64" spans="1:35" ht="12.75" customHeight="1">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -5740,7 +6127,7 @@
       <c r="AH64" s="3"/>
       <c r="AI64" s="3"/>
     </row>
-    <row r="65" ht="12.75" customHeight="1">
+    <row r="65" spans="1:35" ht="12.75" customHeight="1">
       <c r="A65" s="3" t="s">
         <v>195</v>
       </c>
@@ -5781,7 +6168,7 @@
       <c r="AH65" s="3"/>
       <c r="AI65" s="3"/>
     </row>
-    <row r="66" ht="12.75" customHeight="1">
+    <row r="66" spans="1:35" ht="12.75" customHeight="1">
       <c r="A66" s="5" t="s">
         <v>98</v>
       </c>
@@ -5828,7 +6215,7 @@
       <c r="AH66" s="3"/>
       <c r="AI66" s="3"/>
     </row>
-    <row r="67" ht="12.75" customHeight="1">
+    <row r="67" spans="1:35" ht="12.75" customHeight="1">
       <c r="A67" s="12" t="s">
         <v>169</v>
       </c>
@@ -5869,7 +6256,7 @@
       <c r="AH67" s="3"/>
       <c r="AI67" s="3"/>
     </row>
-    <row r="68" ht="12.75" customHeight="1">
+    <row r="68" spans="1:35" ht="12.75" customHeight="1">
       <c r="A68" s="12" t="s">
         <v>170</v>
       </c>
@@ -5910,7 +6297,7 @@
       <c r="AH68" s="3"/>
       <c r="AI68" s="3"/>
     </row>
-    <row r="69" ht="12.75" customHeight="1">
+    <row r="69" spans="1:35" ht="12.75" customHeight="1">
       <c r="A69" s="12" t="s">
         <v>173</v>
       </c>
@@ -5951,7 +6338,7 @@
       <c r="AH69" s="3"/>
       <c r="AI69" s="3"/>
     </row>
-    <row r="70" ht="12.75" customHeight="1">
+    <row r="70" spans="1:35" ht="12.75" customHeight="1">
       <c r="A70" s="12" t="s">
         <v>174</v>
       </c>
@@ -5992,7 +6379,7 @@
       <c r="AH70" s="3"/>
       <c r="AI70" s="3"/>
     </row>
-    <row r="71" ht="12.75" customHeight="1">
+    <row r="71" spans="1:35" ht="12.75" customHeight="1">
       <c r="A71" s="12" t="s">
         <v>182</v>
       </c>
@@ -6033,7 +6420,7 @@
       <c r="AH71" s="3"/>
       <c r="AI71" s="3"/>
     </row>
-    <row r="72" ht="12.75" customHeight="1">
+    <row r="72" spans="1:35" ht="12.75" customHeight="1">
       <c r="A72" s="12" t="s">
         <v>79</v>
       </c>
@@ -6074,7 +6461,7 @@
       <c r="AH72" s="3"/>
       <c r="AI72" s="3"/>
     </row>
-    <row r="73" ht="12.75" customHeight="1">
+    <row r="73" spans="1:35" ht="12.75" customHeight="1">
       <c r="A73" s="12" t="s">
         <v>90</v>
       </c>
@@ -6115,7 +6502,7 @@
       <c r="AH73" s="3"/>
       <c r="AI73" s="3"/>
     </row>
-    <row r="74" ht="12.75" customHeight="1">
+    <row r="74" spans="1:35" ht="12.75" customHeight="1">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -6152,7 +6539,7 @@
       <c r="AH74" s="3"/>
       <c r="AI74" s="3"/>
     </row>
-    <row r="75" ht="12.75" customHeight="1">
+    <row r="75" spans="1:35" ht="12.75" customHeight="1">
       <c r="A75" s="3" t="s">
         <v>200</v>
       </c>
@@ -6193,7 +6580,7 @@
       <c r="AH75" s="3"/>
       <c r="AI75" s="3"/>
     </row>
-    <row r="76" ht="12.75" customHeight="1">
+    <row r="76" spans="1:35" ht="12.75" customHeight="1">
       <c r="A76" s="5" t="s">
         <v>106</v>
       </c>
@@ -6240,7 +6627,7 @@
       <c r="AH76" s="3"/>
       <c r="AI76" s="3"/>
     </row>
-    <row r="77" ht="12.75" customHeight="1">
+    <row r="77" spans="1:35" ht="12.75" customHeight="1">
       <c r="A77" s="12" t="s">
         <v>215</v>
       </c>
@@ -6281,7 +6668,7 @@
       <c r="AH77" s="3"/>
       <c r="AI77" s="3"/>
     </row>
-    <row r="78" ht="12.75" customHeight="1">
+    <row r="78" spans="1:35" ht="12.75" customHeight="1">
       <c r="A78" s="12" t="s">
         <v>222</v>
       </c>
@@ -6322,7 +6709,7 @@
       <c r="AH78" s="3"/>
       <c r="AI78" s="3"/>
     </row>
-    <row r="79" ht="12.75" customHeight="1">
+    <row r="79" spans="1:35" ht="12.75" customHeight="1">
       <c r="A79" s="12" t="s">
         <v>230</v>
       </c>
@@ -6363,7 +6750,7 @@
       <c r="AH79" s="3"/>
       <c r="AI79" s="3"/>
     </row>
-    <row r="80" ht="12.75" customHeight="1">
+    <row r="80" spans="1:35" ht="12.75" customHeight="1">
       <c r="A80" s="12" t="s">
         <v>237</v>
       </c>
@@ -6404,7 +6791,7 @@
       <c r="AH80" s="3"/>
       <c r="AI80" s="3"/>
     </row>
-    <row r="81" ht="12.75" customHeight="1">
+    <row r="81" spans="1:35" ht="12.75" customHeight="1">
       <c r="A81" s="12" t="s">
         <v>248</v>
       </c>
@@ -6445,7 +6832,7 @@
       <c r="AH81" s="3"/>
       <c r="AI81" s="3"/>
     </row>
-    <row r="82" ht="12.75" customHeight="1">
+    <row r="82" spans="1:35" ht="12.75" customHeight="1">
       <c r="A82" s="12" t="s">
         <v>257</v>
       </c>
@@ -6486,7 +6873,7 @@
       <c r="AH82" s="3"/>
       <c r="AI82" s="3"/>
     </row>
-    <row r="83" ht="12.75" customHeight="1">
+    <row r="83" spans="1:35" ht="12.75" customHeight="1">
       <c r="A83" s="12" t="s">
         <v>265</v>
       </c>
@@ -6527,7 +6914,7 @@
       <c r="AH83" s="3"/>
       <c r="AI83" s="3"/>
     </row>
-    <row r="84" ht="12.75" customHeight="1">
+    <row r="84" spans="1:35" ht="12.75" customHeight="1">
       <c r="A84" s="12" t="s">
         <v>267</v>
       </c>
@@ -6568,7 +6955,7 @@
       <c r="AH84" s="3"/>
       <c r="AI84" s="3"/>
     </row>
-    <row r="85" ht="12.75" customHeight="1">
+    <row r="85" spans="1:35" ht="12.75" customHeight="1">
       <c r="A85" s="12" t="s">
         <v>269</v>
       </c>
@@ -6609,7 +6996,7 @@
       <c r="AH85" s="3"/>
       <c r="AI85" s="3"/>
     </row>
-    <row r="86" ht="12.75" customHeight="1">
+    <row r="86" spans="1:35" ht="12.75" customHeight="1">
       <c r="A86" s="12" t="s">
         <v>271</v>
       </c>
@@ -6650,7 +7037,7 @@
       <c r="AH86" s="3"/>
       <c r="AI86" s="3"/>
     </row>
-    <row r="87" ht="12.75" customHeight="1">
+    <row r="87" spans="1:35" ht="12.75" customHeight="1">
       <c r="A87" s="12" t="s">
         <v>273</v>
       </c>
@@ -6691,7 +7078,7 @@
       <c r="AH87" s="3"/>
       <c r="AI87" s="3"/>
     </row>
-    <row r="88" ht="12.75" customHeight="1">
+    <row r="88" spans="1:35" ht="12.75" customHeight="1">
       <c r="A88" s="12" t="s">
         <v>275</v>
       </c>
@@ -6732,7 +7119,7 @@
       <c r="AH88" s="3"/>
       <c r="AI88" s="3"/>
     </row>
-    <row r="89" ht="12.75" customHeight="1">
+    <row r="89" spans="1:35" ht="12.75" customHeight="1">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -6769,7 +7156,7 @@
       <c r="AH89" s="3"/>
       <c r="AI89" s="3"/>
     </row>
-    <row r="90" ht="12.75" customHeight="1">
+    <row r="90" spans="1:35" ht="12.75" customHeight="1">
       <c r="A90" s="3" t="s">
         <v>277</v>
       </c>
@@ -6810,7 +7197,7 @@
       <c r="AH90" s="3"/>
       <c r="AI90" s="3"/>
     </row>
-    <row r="91" ht="12.75" customHeight="1">
+    <row r="91" spans="1:35" ht="12.75" customHeight="1">
       <c r="A91" s="5" t="s">
         <v>97</v>
       </c>
@@ -6861,7 +7248,7 @@
       <c r="AH91" s="3"/>
       <c r="AI91" s="3"/>
     </row>
-    <row r="92" ht="12.75" customHeight="1">
+    <row r="92" spans="1:35" ht="12.75" customHeight="1">
       <c r="A92" s="12" t="s">
         <v>278</v>
       </c>
@@ -6904,7 +7291,7 @@
       <c r="AH92" s="3"/>
       <c r="AI92" s="3"/>
     </row>
-    <row r="93" ht="12.75" customHeight="1">
+    <row r="93" spans="1:35" ht="12.75" customHeight="1">
       <c r="A93" s="12" t="s">
         <v>280</v>
       </c>
@@ -6947,7 +7334,7 @@
       <c r="AH93" s="3"/>
       <c r="AI93" s="3"/>
     </row>
-    <row r="94" ht="12.75" customHeight="1">
+    <row r="94" spans="1:35" ht="12.75" customHeight="1">
       <c r="A94" s="12" t="s">
         <v>282</v>
       </c>
@@ -6990,7 +7377,7 @@
       <c r="AH94" s="3"/>
       <c r="AI94" s="3"/>
     </row>
-    <row r="95" ht="12.75" customHeight="1">
+    <row r="95" spans="1:35" ht="12.75" customHeight="1">
       <c r="A95" s="12" t="s">
         <v>284</v>
       </c>
@@ -7033,7 +7420,7 @@
       <c r="AH95" s="3"/>
       <c r="AI95" s="3"/>
     </row>
-    <row r="96" ht="12.75" customHeight="1">
+    <row r="96" spans="1:35" ht="12.75" customHeight="1">
       <c r="A96" s="12" t="s">
         <v>286</v>
       </c>
@@ -7076,7 +7463,7 @@
       <c r="AH96" s="3"/>
       <c r="AI96" s="3"/>
     </row>
-    <row r="97" ht="12.75" customHeight="1">
+    <row r="97" spans="1:35" ht="12.75" customHeight="1">
       <c r="A97" s="12" t="s">
         <v>288</v>
       </c>
@@ -7119,7 +7506,7 @@
       <c r="AH97" s="3"/>
       <c r="AI97" s="3"/>
     </row>
-    <row r="98" ht="12.75" customHeight="1">
+    <row r="98" spans="1:35" ht="12.75" customHeight="1">
       <c r="A98" s="12" t="s">
         <v>290</v>
       </c>
@@ -7162,7 +7549,7 @@
       <c r="AH98" s="3"/>
       <c r="AI98" s="3"/>
     </row>
-    <row r="99" ht="12.75" customHeight="1">
+    <row r="99" spans="1:35" ht="12.75" customHeight="1">
       <c r="A99" s="12" t="s">
         <v>292</v>
       </c>
@@ -7205,7 +7592,7 @@
       <c r="AH99" s="3"/>
       <c r="AI99" s="3"/>
     </row>
-    <row r="100" ht="12.75" customHeight="1">
+    <row r="100" spans="1:35" ht="12.75" customHeight="1">
       <c r="A100" s="12" t="s">
         <v>294</v>
       </c>
@@ -7248,7 +7635,7 @@
       <c r="AH100" s="3"/>
       <c r="AI100" s="3"/>
     </row>
-    <row r="101" ht="12.75" customHeight="1">
+    <row r="101" spans="1:35" ht="12.75" customHeight="1">
       <c r="A101" s="12" t="s">
         <v>296</v>
       </c>
@@ -7291,7 +7678,7 @@
       <c r="AH101" s="3"/>
       <c r="AI101" s="3"/>
     </row>
-    <row r="102" ht="12.75" customHeight="1">
+    <row r="102" spans="1:35" ht="12.75" customHeight="1">
       <c r="A102" s="12" t="s">
         <v>298</v>
       </c>
@@ -7334,7 +7721,7 @@
       <c r="AH102" s="3"/>
       <c r="AI102" s="3"/>
     </row>
-    <row r="103" ht="12.75" customHeight="1">
+    <row r="103" spans="1:35" ht="12.75" customHeight="1">
       <c r="A103" s="12" t="s">
         <v>300</v>
       </c>
@@ -7377,7 +7764,7 @@
       <c r="AH103" s="3"/>
       <c r="AI103" s="3"/>
     </row>
-    <row r="104" ht="12.75" customHeight="1">
+    <row r="104" spans="1:35" ht="12.75" customHeight="1">
       <c r="A104" s="12" t="s">
         <v>301</v>
       </c>
@@ -7420,7 +7807,7 @@
       <c r="AH104" s="3"/>
       <c r="AI104" s="3"/>
     </row>
-    <row r="105" ht="12.75" customHeight="1">
+    <row r="105" spans="1:35" ht="12.75" customHeight="1">
       <c r="A105" s="12" t="s">
         <v>303</v>
       </c>
@@ -7463,7 +7850,7 @@
       <c r="AH105" s="3"/>
       <c r="AI105" s="3"/>
     </row>
-    <row r="106" ht="12.75" customHeight="1">
+    <row r="106" spans="1:35" ht="12.75" customHeight="1">
       <c r="A106" s="12" t="s">
         <v>305</v>
       </c>
@@ -7506,7 +7893,7 @@
       <c r="AH106" s="3"/>
       <c r="AI106" s="3"/>
     </row>
-    <row r="107" ht="12.75" customHeight="1">
+    <row r="107" spans="1:35" ht="12.75" customHeight="1">
       <c r="A107" s="12" t="s">
         <v>307</v>
       </c>
@@ -7549,7 +7936,7 @@
       <c r="AH107" s="3"/>
       <c r="AI107" s="3"/>
     </row>
-    <row r="108" ht="12.75" customHeight="1">
+    <row r="108" spans="1:35" ht="12.75" customHeight="1">
       <c r="A108" s="12" t="s">
         <v>309</v>
       </c>
@@ -7592,7 +7979,7 @@
       <c r="AH108" s="3"/>
       <c r="AI108" s="3"/>
     </row>
-    <row r="109" ht="12.75" customHeight="1">
+    <row r="109" spans="1:35" ht="12.75" customHeight="1">
       <c r="A109" s="12" t="s">
         <v>311</v>
       </c>
@@ -7635,7 +8022,7 @@
       <c r="AH109" s="3"/>
       <c r="AI109" s="3"/>
     </row>
-    <row r="110" ht="12.75" customHeight="1">
+    <row r="110" spans="1:35" ht="12.75" customHeight="1">
       <c r="A110" s="12" t="s">
         <v>313</v>
       </c>
@@ -7678,7 +8065,7 @@
       <c r="AH110" s="3"/>
       <c r="AI110" s="3"/>
     </row>
-    <row r="111" ht="12.75" customHeight="1">
+    <row r="111" spans="1:35" ht="12.75" customHeight="1">
       <c r="A111" s="12" t="s">
         <v>315</v>
       </c>
@@ -7721,7 +8108,7 @@
       <c r="AH111" s="3"/>
       <c r="AI111" s="3"/>
     </row>
-    <row r="112" ht="12.75" customHeight="1">
+    <row r="112" spans="1:35" ht="12.75" customHeight="1">
       <c r="A112" s="12" t="s">
         <v>317</v>
       </c>
@@ -7764,7 +8151,7 @@
       <c r="AH112" s="3"/>
       <c r="AI112" s="3"/>
     </row>
-    <row r="113" ht="12.75" customHeight="1">
+    <row r="113" spans="1:35" ht="12.75" customHeight="1">
       <c r="A113" s="12" t="s">
         <v>319</v>
       </c>
@@ -7807,7 +8194,7 @@
       <c r="AH113" s="3"/>
       <c r="AI113" s="3"/>
     </row>
-    <row r="114" ht="12.75" customHeight="1">
+    <row r="114" spans="1:35" ht="12.75" customHeight="1">
       <c r="A114" s="12" t="s">
         <v>321</v>
       </c>
@@ -7850,7 +8237,7 @@
       <c r="AH114" s="3"/>
       <c r="AI114" s="3"/>
     </row>
-    <row r="115" ht="12.75" customHeight="1">
+    <row r="115" spans="1:35" ht="12.75" customHeight="1">
       <c r="A115" s="12" t="s">
         <v>323</v>
       </c>
@@ -7893,7 +8280,7 @@
       <c r="AH115" s="3"/>
       <c r="AI115" s="3"/>
     </row>
-    <row r="116" ht="12.75" customHeight="1">
+    <row r="116" spans="1:35" ht="12.75" customHeight="1">
       <c r="A116" s="12" t="s">
         <v>325</v>
       </c>
@@ -7936,7 +8323,7 @@
       <c r="AH116" s="3"/>
       <c r="AI116" s="3"/>
     </row>
-    <row r="117" ht="12.75" customHeight="1">
+    <row r="117" spans="1:35" ht="12.75" customHeight="1">
       <c r="A117" s="12" t="s">
         <v>327</v>
       </c>
@@ -7979,7 +8366,7 @@
       <c r="AH117" s="3"/>
       <c r="AI117" s="3"/>
     </row>
-    <row r="118" ht="12.75" customHeight="1">
+    <row r="118" spans="1:35" ht="12.75" customHeight="1">
       <c r="A118" s="12" t="s">
         <v>329</v>
       </c>
@@ -8022,7 +8409,7 @@
       <c r="AH118" s="3"/>
       <c r="AI118" s="3"/>
     </row>
-    <row r="119" ht="12.75" customHeight="1">
+    <row r="119" spans="1:35" ht="12.75" customHeight="1">
       <c r="A119" s="12" t="s">
         <v>331</v>
       </c>
@@ -8065,7 +8452,7 @@
       <c r="AH119" s="3"/>
       <c r="AI119" s="3"/>
     </row>
-    <row r="120" ht="12.75" customHeight="1">
+    <row r="120" spans="1:35" ht="12.75" customHeight="1">
       <c r="A120" s="12" t="s">
         <v>333</v>
       </c>
@@ -8108,7 +8495,7 @@
       <c r="AH120" s="3"/>
       <c r="AI120" s="3"/>
     </row>
-    <row r="121" ht="12.75" customHeight="1">
+    <row r="121" spans="1:35" ht="12.75" customHeight="1">
       <c r="A121" s="12" t="s">
         <v>335</v>
       </c>
@@ -8151,7 +8538,7 @@
       <c r="AH121" s="3"/>
       <c r="AI121" s="3"/>
     </row>
-    <row r="122" ht="12.75" customHeight="1">
+    <row r="122" spans="1:35" ht="12.75" customHeight="1">
       <c r="A122" s="12" t="s">
         <v>337</v>
       </c>
@@ -8194,7 +8581,7 @@
       <c r="AH122" s="3"/>
       <c r="AI122" s="3"/>
     </row>
-    <row r="123" ht="12.75" customHeight="1">
+    <row r="123" spans="1:35" ht="12.75" customHeight="1">
       <c r="A123" s="12" t="s">
         <v>339</v>
       </c>
@@ -8237,7 +8624,7 @@
       <c r="AH123" s="3"/>
       <c r="AI123" s="3"/>
     </row>
-    <row r="124" ht="12.75" customHeight="1">
+    <row r="124" spans="1:35" ht="12.75" customHeight="1">
       <c r="A124" s="12" t="s">
         <v>341</v>
       </c>
@@ -8280,7 +8667,7 @@
       <c r="AH124" s="3"/>
       <c r="AI124" s="3"/>
     </row>
-    <row r="125" ht="12.75" customHeight="1">
+    <row r="125" spans="1:35" ht="12.75" customHeight="1">
       <c r="A125" s="12" t="s">
         <v>343</v>
       </c>
@@ -8323,7 +8710,7 @@
       <c r="AH125" s="3"/>
       <c r="AI125" s="3"/>
     </row>
-    <row r="126" ht="12.75" customHeight="1">
+    <row r="126" spans="1:35" ht="12.75" customHeight="1">
       <c r="A126" s="12" t="s">
         <v>345</v>
       </c>
@@ -8366,7 +8753,7 @@
       <c r="AH126" s="3"/>
       <c r="AI126" s="3"/>
     </row>
-    <row r="127" ht="12.75" customHeight="1">
+    <row r="127" spans="1:35" ht="12.75" customHeight="1">
       <c r="A127" s="12" t="s">
         <v>348</v>
       </c>
@@ -8409,7 +8796,7 @@
       <c r="AH127" s="3"/>
       <c r="AI127" s="3"/>
     </row>
-    <row r="128" ht="12.75" customHeight="1">
+    <row r="128" spans="1:35" ht="12.75" customHeight="1">
       <c r="A128" s="12" t="s">
         <v>350</v>
       </c>
@@ -8452,7 +8839,7 @@
       <c r="AH128" s="3"/>
       <c r="AI128" s="3"/>
     </row>
-    <row r="129" ht="12.75" customHeight="1">
+    <row r="129" spans="1:35" ht="12.75" customHeight="1">
       <c r="A129" s="12" t="s">
         <v>352</v>
       </c>
@@ -8495,7 +8882,7 @@
       <c r="AH129" s="3"/>
       <c r="AI129" s="3"/>
     </row>
-    <row r="130" ht="12.75" customHeight="1">
+    <row r="130" spans="1:35" ht="12.75" customHeight="1">
       <c r="A130" s="12" t="s">
         <v>353</v>
       </c>
@@ -8538,7 +8925,7 @@
       <c r="AH130" s="3"/>
       <c r="AI130" s="3"/>
     </row>
-    <row r="131" ht="12.75" customHeight="1">
+    <row r="131" spans="1:35" ht="12.75" customHeight="1">
       <c r="A131" s="12" t="s">
         <v>357</v>
       </c>
@@ -8581,7 +8968,7 @@
       <c r="AH131" s="3"/>
       <c r="AI131" s="3"/>
     </row>
-    <row r="132" ht="12.75" customHeight="1">
+    <row r="132" spans="1:35" ht="12.75" customHeight="1">
       <c r="A132" s="12" t="s">
         <v>359</v>
       </c>
@@ -8624,7 +9011,7 @@
       <c r="AH132" s="3"/>
       <c r="AI132" s="3"/>
     </row>
-    <row r="133" ht="12.75" customHeight="1">
+    <row r="133" spans="1:35" ht="12.75" customHeight="1">
       <c r="A133" s="12" t="s">
         <v>363</v>
       </c>
@@ -8667,7 +9054,7 @@
       <c r="AH133" s="3"/>
       <c r="AI133" s="3"/>
     </row>
-    <row r="134" ht="12.75" customHeight="1">
+    <row r="134" spans="1:35" ht="12.75" customHeight="1">
       <c r="A134" s="12" t="s">
         <v>365</v>
       </c>
@@ -8710,7 +9097,7 @@
       <c r="AH134" s="3"/>
       <c r="AI134" s="3"/>
     </row>
-    <row r="135" ht="12.75" customHeight="1">
+    <row r="135" spans="1:35" ht="12.75" customHeight="1">
       <c r="A135" s="12" t="s">
         <v>367</v>
       </c>
@@ -8753,7 +9140,7 @@
       <c r="AH135" s="3"/>
       <c r="AI135" s="3"/>
     </row>
-    <row r="136" ht="12.75" customHeight="1">
+    <row r="136" spans="1:35" ht="12.75" customHeight="1">
       <c r="A136" s="12" t="s">
         <v>368</v>
       </c>
@@ -8796,7 +9183,7 @@
       <c r="AH136" s="3"/>
       <c r="AI136" s="3"/>
     </row>
-    <row r="137" ht="12.75" customHeight="1">
+    <row r="137" spans="1:35" ht="12.75" customHeight="1">
       <c r="A137" s="12" t="s">
         <v>369</v>
       </c>
@@ -8839,7 +9226,7 @@
       <c r="AH137" s="3"/>
       <c r="AI137" s="3"/>
     </row>
-    <row r="138" ht="12.75" customHeight="1">
+    <row r="138" spans="1:35" ht="12.75" customHeight="1">
       <c r="A138" s="12" t="s">
         <v>371</v>
       </c>
@@ -8882,7 +9269,7 @@
       <c r="AH138" s="3"/>
       <c r="AI138" s="3"/>
     </row>
-    <row r="139" ht="12.75" customHeight="1">
+    <row r="139" spans="1:35" ht="12.75" customHeight="1">
       <c r="A139" s="12" t="s">
         <v>373</v>
       </c>
@@ -8925,7 +9312,7 @@
       <c r="AH139" s="3"/>
       <c r="AI139" s="3"/>
     </row>
-    <row r="140" ht="12.75" customHeight="1">
+    <row r="140" spans="1:35" ht="12.75" customHeight="1">
       <c r="A140" s="12" t="s">
         <v>374</v>
       </c>
@@ -8968,7 +9355,7 @@
       <c r="AH140" s="3"/>
       <c r="AI140" s="3"/>
     </row>
-    <row r="141" ht="12.75" customHeight="1">
+    <row r="141" spans="1:35" ht="12.75" customHeight="1">
       <c r="A141" s="12" t="s">
         <v>376</v>
       </c>
@@ -9011,7 +9398,7 @@
       <c r="AH141" s="3"/>
       <c r="AI141" s="3"/>
     </row>
-    <row r="142" ht="12.75" customHeight="1">
+    <row r="142" spans="1:35" ht="12.75" customHeight="1">
       <c r="A142" s="12" t="s">
         <v>377</v>
       </c>
@@ -9054,7 +9441,7 @@
       <c r="AH142" s="3"/>
       <c r="AI142" s="3"/>
     </row>
-    <row r="143" ht="12.75" customHeight="1">
+    <row r="143" spans="1:35" ht="12.75" customHeight="1">
       <c r="A143" s="12" t="s">
         <v>379</v>
       </c>
@@ -9097,7 +9484,7 @@
       <c r="AH143" s="3"/>
       <c r="AI143" s="3"/>
     </row>
-    <row r="144" ht="12.75" customHeight="1">
+    <row r="144" spans="1:35" ht="12.75" customHeight="1">
       <c r="A144" s="12" t="s">
         <v>381</v>
       </c>
@@ -9140,7 +9527,7 @@
       <c r="AH144" s="3"/>
       <c r="AI144" s="3"/>
     </row>
-    <row r="145" ht="12.75" customHeight="1">
+    <row r="145" spans="1:35" ht="12.75" customHeight="1">
       <c r="A145" s="12" t="s">
         <v>382</v>
       </c>
@@ -9183,7 +9570,7 @@
       <c r="AH145" s="3"/>
       <c r="AI145" s="3"/>
     </row>
-    <row r="146" ht="12.75" customHeight="1">
+    <row r="146" spans="1:35" ht="12.75" customHeight="1">
       <c r="A146" s="12" t="s">
         <v>384</v>
       </c>
@@ -9226,7 +9613,7 @@
       <c r="AH146" s="3"/>
       <c r="AI146" s="3"/>
     </row>
-    <row r="147" ht="12.75" customHeight="1">
+    <row r="147" spans="1:35" ht="12.75" customHeight="1">
       <c r="A147" s="12" t="s">
         <v>386</v>
       </c>
@@ -9269,7 +9656,7 @@
       <c r="AH147" s="3"/>
       <c r="AI147" s="3"/>
     </row>
-    <row r="148" ht="12.75" customHeight="1">
+    <row r="148" spans="1:35" ht="12.75" customHeight="1">
       <c r="A148" s="12" t="s">
         <v>388</v>
       </c>
@@ -9312,7 +9699,7 @@
       <c r="AH148" s="3"/>
       <c r="AI148" s="3"/>
     </row>
-    <row r="149" ht="12.75" customHeight="1">
+    <row r="149" spans="1:35" ht="12.75" customHeight="1">
       <c r="A149" s="12" t="s">
         <v>390</v>
       </c>
@@ -9355,7 +9742,7 @@
       <c r="AH149" s="3"/>
       <c r="AI149" s="3"/>
     </row>
-    <row r="150" ht="12.75" customHeight="1">
+    <row r="150" spans="1:35" ht="12.75" customHeight="1">
       <c r="A150" s="12" t="s">
         <v>392</v>
       </c>
@@ -9398,7 +9785,7 @@
       <c r="AH150" s="3"/>
       <c r="AI150" s="3"/>
     </row>
-    <row r="151" ht="12.75" customHeight="1">
+    <row r="151" spans="1:35" ht="12.75" customHeight="1">
       <c r="A151" s="12" t="s">
         <v>393</v>
       </c>
@@ -9441,7 +9828,7 @@
       <c r="AH151" s="3"/>
       <c r="AI151" s="3"/>
     </row>
-    <row r="152" ht="12.75" customHeight="1">
+    <row r="152" spans="1:35" ht="12.75" customHeight="1">
       <c r="A152" s="12" t="s">
         <v>395</v>
       </c>
@@ -9484,7 +9871,7 @@
       <c r="AH152" s="3"/>
       <c r="AI152" s="3"/>
     </row>
-    <row r="153" ht="12.75" customHeight="1">
+    <row r="153" spans="1:35" ht="12.75" customHeight="1">
       <c r="A153" s="12" t="s">
         <v>397</v>
       </c>
@@ -9527,7 +9914,7 @@
       <c r="AH153" s="3"/>
       <c r="AI153" s="3"/>
     </row>
-    <row r="154" ht="12.75" customHeight="1">
+    <row r="154" spans="1:35" ht="12.75" customHeight="1">
       <c r="A154" s="12" t="s">
         <v>399</v>
       </c>
@@ -9570,7 +9957,7 @@
       <c r="AH154" s="3"/>
       <c r="AI154" s="3"/>
     </row>
-    <row r="155" ht="12.75" customHeight="1">
+    <row r="155" spans="1:35" ht="12.75" customHeight="1">
       <c r="A155" s="12" t="s">
         <v>400</v>
       </c>
@@ -9613,7 +10000,7 @@
       <c r="AH155" s="3"/>
       <c r="AI155" s="3"/>
     </row>
-    <row r="156" ht="12.75" customHeight="1">
+    <row r="156" spans="1:35" ht="12.75" customHeight="1">
       <c r="A156" s="12" t="s">
         <v>402</v>
       </c>
@@ -9656,7 +10043,7 @@
       <c r="AH156" s="3"/>
       <c r="AI156" s="3"/>
     </row>
-    <row r="157" ht="12.75" customHeight="1">
+    <row r="157" spans="1:35" ht="12.75" customHeight="1">
       <c r="A157" s="12" t="s">
         <v>404</v>
       </c>
@@ -9699,7 +10086,7 @@
       <c r="AH157" s="3"/>
       <c r="AI157" s="3"/>
     </row>
-    <row r="158" ht="12.75" customHeight="1">
+    <row r="158" spans="1:35" ht="12.75" customHeight="1">
       <c r="A158" s="12" t="s">
         <v>405</v>
       </c>
@@ -9742,7 +10129,7 @@
       <c r="AH158" s="3"/>
       <c r="AI158" s="3"/>
     </row>
-    <row r="159" ht="12.75" customHeight="1">
+    <row r="159" spans="1:35" ht="12.75" customHeight="1">
       <c r="A159" s="12" t="s">
         <v>407</v>
       </c>
@@ -9785,7 +10172,7 @@
       <c r="AH159" s="3"/>
       <c r="AI159" s="3"/>
     </row>
-    <row r="160" ht="12.75" customHeight="1">
+    <row r="160" spans="1:35" ht="12.75" customHeight="1">
       <c r="A160" s="12" t="s">
         <v>409</v>
       </c>
@@ -9828,7 +10215,7 @@
       <c r="AH160" s="3"/>
       <c r="AI160" s="3"/>
     </row>
-    <row r="161" ht="12.75" customHeight="1">
+    <row r="161" spans="1:35" ht="12.75" customHeight="1">
       <c r="A161" s="12" t="s">
         <v>411</v>
       </c>
@@ -9871,7 +10258,7 @@
       <c r="AH161" s="3"/>
       <c r="AI161" s="3"/>
     </row>
-    <row r="162" ht="12.75" customHeight="1">
+    <row r="162" spans="1:35" ht="12.75" customHeight="1">
       <c r="A162" s="12" t="s">
         <v>413</v>
       </c>
@@ -9914,7 +10301,7 @@
       <c r="AH162" s="3"/>
       <c r="AI162" s="3"/>
     </row>
-    <row r="163" ht="12.75" customHeight="1">
+    <row r="163" spans="1:35" ht="12.75" customHeight="1">
       <c r="A163" s="12" t="s">
         <v>415</v>
       </c>
@@ -9957,7 +10344,7 @@
       <c r="AH163" s="3"/>
       <c r="AI163" s="3"/>
     </row>
-    <row r="164" ht="12.75" customHeight="1">
+    <row r="164" spans="1:35" ht="12.75" customHeight="1">
       <c r="A164" s="12" t="s">
         <v>417</v>
       </c>
@@ -10000,7 +10387,7 @@
       <c r="AH164" s="3"/>
       <c r="AI164" s="3"/>
     </row>
-    <row r="165" ht="12.75" customHeight="1">
+    <row r="165" spans="1:35" ht="12.75" customHeight="1">
       <c r="A165" s="12" t="s">
         <v>419</v>
       </c>
@@ -10043,7 +10430,7 @@
       <c r="AH165" s="3"/>
       <c r="AI165" s="3"/>
     </row>
-    <row r="166" ht="12.75" customHeight="1">
+    <row r="166" spans="1:35" ht="12.75" customHeight="1">
       <c r="A166" s="12" t="s">
         <v>420</v>
       </c>
@@ -10086,7 +10473,7 @@
       <c r="AH166" s="3"/>
       <c r="AI166" s="3"/>
     </row>
-    <row r="167" ht="12.75" customHeight="1">
+    <row r="167" spans="1:35" ht="12.75" customHeight="1">
       <c r="A167" s="12" t="s">
         <v>421</v>
       </c>
@@ -10129,7 +10516,7 @@
       <c r="AH167" s="3"/>
       <c r="AI167" s="3"/>
     </row>
-    <row r="168" ht="12.75" customHeight="1">
+    <row r="168" spans="1:35" ht="12.75" customHeight="1">
       <c r="A168" s="12" t="s">
         <v>423</v>
       </c>
@@ -10172,7 +10559,7 @@
       <c r="AH168" s="3"/>
       <c r="AI168" s="3"/>
     </row>
-    <row r="169" ht="12.75" customHeight="1">
+    <row r="169" spans="1:35" ht="12.75" customHeight="1">
       <c r="A169" s="12" t="s">
         <v>425</v>
       </c>
@@ -10215,7 +10602,7 @@
       <c r="AH169" s="3"/>
       <c r="AI169" s="3"/>
     </row>
-    <row r="170" ht="12.75" customHeight="1">
+    <row r="170" spans="1:35" ht="12.75" customHeight="1">
       <c r="A170" s="12" t="s">
         <v>426</v>
       </c>
@@ -10258,7 +10645,7 @@
       <c r="AH170" s="3"/>
       <c r="AI170" s="3"/>
     </row>
-    <row r="171" ht="12.75" customHeight="1">
+    <row r="171" spans="1:35" ht="12.75" customHeight="1">
       <c r="A171" s="12" t="s">
         <v>428</v>
       </c>
@@ -10301,7 +10688,7 @@
       <c r="AH171" s="3"/>
       <c r="AI171" s="3"/>
     </row>
-    <row r="172" ht="12.75" customHeight="1">
+    <row r="172" spans="1:35" ht="12.75" customHeight="1">
       <c r="A172" s="12" t="s">
         <v>430</v>
       </c>
@@ -10344,7 +10731,7 @@
       <c r="AH172" s="3"/>
       <c r="AI172" s="3"/>
     </row>
-    <row r="173" ht="12.75" customHeight="1">
+    <row r="173" spans="1:35" ht="12.75" customHeight="1">
       <c r="A173" s="12" t="s">
         <v>431</v>
       </c>
@@ -10387,7 +10774,7 @@
       <c r="AH173" s="3"/>
       <c r="AI173" s="3"/>
     </row>
-    <row r="174" ht="12.75" customHeight="1">
+    <row r="174" spans="1:35" ht="12.75" customHeight="1">
       <c r="A174" s="12" t="s">
         <v>433</v>
       </c>
@@ -10430,7 +10817,7 @@
       <c r="AH174" s="3"/>
       <c r="AI174" s="3"/>
     </row>
-    <row r="175" ht="12.75" customHeight="1">
+    <row r="175" spans="1:35" ht="12.75" customHeight="1">
       <c r="A175" s="12" t="s">
         <v>435</v>
       </c>
@@ -10473,7 +10860,7 @@
       <c r="AH175" s="3"/>
       <c r="AI175" s="3"/>
     </row>
-    <row r="176" ht="12.75" customHeight="1">
+    <row r="176" spans="1:35" ht="12.75" customHeight="1">
       <c r="A176" s="12" t="s">
         <v>436</v>
       </c>
@@ -10516,7 +10903,7 @@
       <c r="AH176" s="3"/>
       <c r="AI176" s="3"/>
     </row>
-    <row r="177" ht="12.75" customHeight="1">
+    <row r="177" spans="1:35" ht="12.75" customHeight="1">
       <c r="A177" s="12" t="s">
         <v>438</v>
       </c>
@@ -10559,7 +10946,7 @@
       <c r="AH177" s="3"/>
       <c r="AI177" s="3"/>
     </row>
-    <row r="178" ht="12.75" customHeight="1">
+    <row r="178" spans="1:35" ht="12.75" customHeight="1">
       <c r="A178" s="12" t="s">
         <v>440</v>
       </c>
@@ -10602,7 +10989,7 @@
       <c r="AH178" s="3"/>
       <c r="AI178" s="3"/>
     </row>
-    <row r="179" ht="12.75" customHeight="1">
+    <row r="179" spans="1:35" ht="12.75" customHeight="1">
       <c r="A179" s="12" t="s">
         <v>442</v>
       </c>
@@ -10645,7 +11032,7 @@
       <c r="AH179" s="3"/>
       <c r="AI179" s="3"/>
     </row>
-    <row r="180" ht="12.75" customHeight="1">
+    <row r="180" spans="1:35" ht="12.75" customHeight="1">
       <c r="A180" s="12" t="s">
         <v>444</v>
       </c>
@@ -10688,7 +11075,7 @@
       <c r="AH180" s="3"/>
       <c r="AI180" s="3"/>
     </row>
-    <row r="181" ht="12.75" customHeight="1">
+    <row r="181" spans="1:35" ht="12.75" customHeight="1">
       <c r="A181" s="12" t="s">
         <v>446</v>
       </c>
@@ -10731,7 +11118,7 @@
       <c r="AH181" s="3"/>
       <c r="AI181" s="3"/>
     </row>
-    <row r="182" ht="12.75" customHeight="1">
+    <row r="182" spans="1:35" ht="12.75" customHeight="1">
       <c r="A182" s="12" t="s">
         <v>448</v>
       </c>
@@ -10774,7 +11161,7 @@
       <c r="AH182" s="3"/>
       <c r="AI182" s="3"/>
     </row>
-    <row r="183" ht="12.75" customHeight="1">
+    <row r="183" spans="1:35" ht="12.75" customHeight="1">
       <c r="A183" s="12" t="s">
         <v>450</v>
       </c>
@@ -10817,7 +11204,7 @@
       <c r="AH183" s="3"/>
       <c r="AI183" s="3"/>
     </row>
-    <row r="184" ht="12.75" customHeight="1">
+    <row r="184" spans="1:35" ht="12.75" customHeight="1">
       <c r="A184" s="12" t="s">
         <v>452</v>
       </c>
@@ -10860,7 +11247,7 @@
       <c r="AH184" s="3"/>
       <c r="AI184" s="3"/>
     </row>
-    <row r="185" ht="12.75" customHeight="1">
+    <row r="185" spans="1:35" ht="12.75" customHeight="1">
       <c r="A185" s="12" t="s">
         <v>454</v>
       </c>
@@ -10903,7 +11290,7 @@
       <c r="AH185" s="3"/>
       <c r="AI185" s="3"/>
     </row>
-    <row r="186" ht="12.75" customHeight="1">
+    <row r="186" spans="1:35" ht="12.75" customHeight="1">
       <c r="A186" s="12" t="s">
         <v>456</v>
       </c>
@@ -10946,7 +11333,7 @@
       <c r="AH186" s="3"/>
       <c r="AI186" s="3"/>
     </row>
-    <row r="187" ht="12.75" customHeight="1">
+    <row r="187" spans="1:35" ht="12.75" customHeight="1">
       <c r="A187" s="12" t="s">
         <v>459</v>
       </c>
@@ -10989,7 +11376,7 @@
       <c r="AH187" s="3"/>
       <c r="AI187" s="3"/>
     </row>
-    <row r="188" ht="12.75" customHeight="1">
+    <row r="188" spans="1:35" ht="12.75" customHeight="1">
       <c r="A188" s="12" t="s">
         <v>460</v>
       </c>
@@ -11032,7 +11419,7 @@
       <c r="AH188" s="3"/>
       <c r="AI188" s="3"/>
     </row>
-    <row r="189" ht="12.75" customHeight="1">
+    <row r="189" spans="1:35" ht="12.75" customHeight="1">
       <c r="A189" s="12" t="s">
         <v>461</v>
       </c>
@@ -11075,7 +11462,7 @@
       <c r="AH189" s="3"/>
       <c r="AI189" s="3"/>
     </row>
-    <row r="190" ht="12.75" customHeight="1">
+    <row r="190" spans="1:35" ht="12.75" customHeight="1">
       <c r="A190" s="12" t="s">
         <v>462</v>
       </c>
@@ -11118,7 +11505,7 @@
       <c r="AH190" s="3"/>
       <c r="AI190" s="3"/>
     </row>
-    <row r="191" ht="12.75" customHeight="1">
+    <row r="191" spans="1:35" ht="12.75" customHeight="1">
       <c r="A191" s="12" t="s">
         <v>463</v>
       </c>
@@ -11161,7 +11548,7 @@
       <c r="AH191" s="3"/>
       <c r="AI191" s="3"/>
     </row>
-    <row r="192" ht="12.75" customHeight="1">
+    <row r="192" spans="1:35" ht="12.75" customHeight="1">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -11198,7 +11585,7 @@
       <c r="AH192" s="3"/>
       <c r="AI192" s="3"/>
     </row>
-    <row r="193" ht="12.75" customHeight="1">
+    <row r="193" spans="1:35" ht="12.75" customHeight="1">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -11235,7 +11622,7 @@
       <c r="AH193" s="3"/>
       <c r="AI193" s="3"/>
     </row>
-    <row r="194" ht="12.75" customHeight="1">
+    <row r="194" spans="1:35" ht="12.75" customHeight="1">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -11272,7 +11659,7 @@
       <c r="AH194" s="3"/>
       <c r="AI194" s="3"/>
     </row>
-    <row r="195" ht="12.75" customHeight="1">
+    <row r="195" spans="1:35" ht="12.75" customHeight="1">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -11309,7 +11696,7 @@
       <c r="AH195" s="3"/>
       <c r="AI195" s="3"/>
     </row>
-    <row r="196" ht="12.75" customHeight="1">
+    <row r="196" spans="1:35" ht="12.75" customHeight="1">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -11346,7 +11733,7 @@
       <c r="AH196" s="3"/>
       <c r="AI196" s="3"/>
     </row>
-    <row r="197" ht="12.75" customHeight="1">
+    <row r="197" spans="1:35" ht="12.75" customHeight="1">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -11383,7 +11770,7 @@
       <c r="AH197" s="3"/>
       <c r="AI197" s="3"/>
     </row>
-    <row r="198" ht="12.75" customHeight="1">
+    <row r="198" spans="1:35" ht="12.75" customHeight="1">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -11420,7 +11807,7 @@
       <c r="AH198" s="3"/>
       <c r="AI198" s="3"/>
     </row>
-    <row r="199" ht="12.75" customHeight="1">
+    <row r="199" spans="1:35" ht="12.75" customHeight="1">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -11457,7 +11844,7 @@
       <c r="AH199" s="3"/>
       <c r="AI199" s="3"/>
     </row>
-    <row r="200" ht="12.75" customHeight="1">
+    <row r="200" spans="1:35" ht="12.75" customHeight="1">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -11494,7 +11881,7 @@
       <c r="AH200" s="3"/>
       <c r="AI200" s="3"/>
     </row>
-    <row r="201" ht="12.75" customHeight="1">
+    <row r="201" spans="1:35" ht="12.75" customHeight="1">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -11531,7 +11918,7 @@
       <c r="AH201" s="3"/>
       <c r="AI201" s="3"/>
     </row>
-    <row r="202" ht="12.75" customHeight="1">
+    <row r="202" spans="1:35" ht="12.75" customHeight="1">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -11568,7 +11955,7 @@
       <c r="AH202" s="3"/>
       <c r="AI202" s="3"/>
     </row>
-    <row r="203" ht="12.75" customHeight="1">
+    <row r="203" spans="1:35" ht="12.75" customHeight="1">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -11605,7 +11992,7 @@
       <c r="AH203" s="3"/>
       <c r="AI203" s="3"/>
     </row>
-    <row r="204" ht="12.75" customHeight="1">
+    <row r="204" spans="1:35" ht="12.75" customHeight="1">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -11642,7 +12029,7 @@
       <c r="AH204" s="3"/>
       <c r="AI204" s="3"/>
     </row>
-    <row r="205" ht="12.75" customHeight="1">
+    <row r="205" spans="1:35" ht="12.75" customHeight="1">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -11679,7 +12066,7 @@
       <c r="AH205" s="3"/>
       <c r="AI205" s="3"/>
     </row>
-    <row r="206" ht="12.75" customHeight="1">
+    <row r="206" spans="1:35" ht="12.75" customHeight="1">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -11716,7 +12103,7 @@
       <c r="AH206" s="3"/>
       <c r="AI206" s="3"/>
     </row>
-    <row r="207" ht="12.75" customHeight="1">
+    <row r="207" spans="1:35" ht="12.75" customHeight="1">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -11753,7 +12140,7 @@
       <c r="AH207" s="3"/>
       <c r="AI207" s="3"/>
     </row>
-    <row r="208" ht="12.75" customHeight="1">
+    <row r="208" spans="1:35" ht="12.75" customHeight="1">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -11790,7 +12177,7 @@
       <c r="AH208" s="3"/>
       <c r="AI208" s="3"/>
     </row>
-    <row r="209" ht="12.75" customHeight="1">
+    <row r="209" spans="1:35" ht="12.75" customHeight="1">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -11827,7 +12214,7 @@
       <c r="AH209" s="3"/>
       <c r="AI209" s="3"/>
     </row>
-    <row r="210" ht="12.75" customHeight="1">
+    <row r="210" spans="1:35" ht="12.75" customHeight="1">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -11864,7 +12251,7 @@
       <c r="AH210" s="3"/>
       <c r="AI210" s="3"/>
     </row>
-    <row r="211" ht="12.75" customHeight="1">
+    <row r="211" spans="1:35" ht="12.75" customHeight="1">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -11901,7 +12288,7 @@
       <c r="AH211" s="3"/>
       <c r="AI211" s="3"/>
     </row>
-    <row r="212" ht="12.75" customHeight="1">
+    <row r="212" spans="1:35" ht="12.75" customHeight="1">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -11938,7 +12325,7 @@
       <c r="AH212" s="3"/>
       <c r="AI212" s="3"/>
     </row>
-    <row r="213" ht="12.75" customHeight="1">
+    <row r="213" spans="1:35" ht="12.75" customHeight="1">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -11975,7 +12362,7 @@
       <c r="AH213" s="3"/>
       <c r="AI213" s="3"/>
     </row>
-    <row r="214" ht="12.75" customHeight="1">
+    <row r="214" spans="1:35" ht="12.75" customHeight="1">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -12012,7 +12399,7 @@
       <c r="AH214" s="3"/>
       <c r="AI214" s="3"/>
     </row>
-    <row r="215" ht="12.75" customHeight="1">
+    <row r="215" spans="1:35" ht="12.75" customHeight="1">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -12049,7 +12436,7 @@
       <c r="AH215" s="3"/>
       <c r="AI215" s="3"/>
     </row>
-    <row r="216" ht="12.75" customHeight="1">
+    <row r="216" spans="1:35" ht="12.75" customHeight="1">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -12086,7 +12473,7 @@
       <c r="AH216" s="3"/>
       <c r="AI216" s="3"/>
     </row>
-    <row r="217" ht="12.75" customHeight="1">
+    <row r="217" spans="1:35" ht="12.75" customHeight="1">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -12123,7 +12510,7 @@
       <c r="AH217" s="3"/>
       <c r="AI217" s="3"/>
     </row>
-    <row r="218" ht="12.75" customHeight="1">
+    <row r="218" spans="1:35" ht="12.75" customHeight="1">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -12160,7 +12547,7 @@
       <c r="AH218" s="3"/>
       <c r="AI218" s="3"/>
     </row>
-    <row r="219" ht="12.75" customHeight="1">
+    <row r="219" spans="1:35" ht="12.75" customHeight="1">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -12197,7 +12584,7 @@
       <c r="AH219" s="3"/>
       <c r="AI219" s="3"/>
     </row>
-    <row r="220" ht="12.75" customHeight="1">
+    <row r="220" spans="1:35" ht="12.75" customHeight="1">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
@@ -12234,7 +12621,7 @@
       <c r="AH220" s="3"/>
       <c r="AI220" s="3"/>
     </row>
-    <row r="221" ht="12.75" customHeight="1">
+    <row r="221" spans="1:35" ht="12.75" customHeight="1">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
@@ -12271,7 +12658,7 @@
       <c r="AH221" s="3"/>
       <c r="AI221" s="3"/>
     </row>
-    <row r="222" ht="12.75" customHeight="1">
+    <row r="222" spans="1:35" ht="12.75" customHeight="1">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
@@ -12308,7 +12695,7 @@
       <c r="AH222" s="3"/>
       <c r="AI222" s="3"/>
     </row>
-    <row r="223" ht="12.75" customHeight="1">
+    <row r="223" spans="1:35" ht="12.75" customHeight="1">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
@@ -12345,7 +12732,7 @@
       <c r="AH223" s="3"/>
       <c r="AI223" s="3"/>
     </row>
-    <row r="224" ht="12.75" customHeight="1">
+    <row r="224" spans="1:35" ht="12.75" customHeight="1">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
@@ -12382,7 +12769,7 @@
       <c r="AH224" s="3"/>
       <c r="AI224" s="3"/>
     </row>
-    <row r="225" ht="12.75" customHeight="1">
+    <row r="225" spans="1:35" ht="12.75" customHeight="1">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
@@ -12419,7 +12806,7 @@
       <c r="AH225" s="3"/>
       <c r="AI225" s="3"/>
     </row>
-    <row r="226" ht="12.75" customHeight="1">
+    <row r="226" spans="1:35" ht="12.75" customHeight="1">
       <c r="A226" s="3"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
@@ -12456,7 +12843,7 @@
       <c r="AH226" s="3"/>
       <c r="AI226" s="3"/>
     </row>
-    <row r="227" ht="12.75" customHeight="1">
+    <row r="227" spans="1:35" ht="12.75" customHeight="1">
       <c r="A227" s="3"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
@@ -12493,7 +12880,7 @@
       <c r="AH227" s="3"/>
       <c r="AI227" s="3"/>
     </row>
-    <row r="228" ht="12.75" customHeight="1">
+    <row r="228" spans="1:35" ht="12.75" customHeight="1">
       <c r="A228" s="3"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
@@ -12530,7 +12917,7 @@
       <c r="AH228" s="3"/>
       <c r="AI228" s="3"/>
     </row>
-    <row r="229" ht="12.75" customHeight="1">
+    <row r="229" spans="1:35" ht="12.75" customHeight="1">
       <c r="A229" s="3"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
@@ -12567,7 +12954,7 @@
       <c r="AH229" s="3"/>
       <c r="AI229" s="3"/>
     </row>
-    <row r="230" ht="12.75" customHeight="1">
+    <row r="230" spans="1:35" ht="12.75" customHeight="1">
       <c r="A230" s="3"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
@@ -12604,7 +12991,7 @@
       <c r="AH230" s="3"/>
       <c r="AI230" s="3"/>
     </row>
-    <row r="231" ht="12.75" customHeight="1">
+    <row r="231" spans="1:35" ht="12.75" customHeight="1">
       <c r="A231" s="3"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
@@ -12641,7 +13028,7 @@
       <c r="AH231" s="3"/>
       <c r="AI231" s="3"/>
     </row>
-    <row r="232" ht="12.75" customHeight="1">
+    <row r="232" spans="1:35" ht="12.75" customHeight="1">
       <c r="A232" s="3"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
@@ -12678,7 +13065,7 @@
       <c r="AH232" s="3"/>
       <c r="AI232" s="3"/>
     </row>
-    <row r="233" ht="12.75" customHeight="1">
+    <row r="233" spans="1:35" ht="12.75" customHeight="1">
       <c r="A233" s="3"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
@@ -12715,7 +13102,7 @@
       <c r="AH233" s="3"/>
       <c r="AI233" s="3"/>
     </row>
-    <row r="234" ht="12.75" customHeight="1">
+    <row r="234" spans="1:35" ht="12.75" customHeight="1">
       <c r="A234" s="3"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
@@ -12752,7 +13139,7 @@
       <c r="AH234" s="3"/>
       <c r="AI234" s="3"/>
     </row>
-    <row r="235" ht="12.75" customHeight="1">
+    <row r="235" spans="1:35" ht="12.75" customHeight="1">
       <c r="A235" s="3"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
@@ -12789,7 +13176,7 @@
       <c r="AH235" s="3"/>
       <c r="AI235" s="3"/>
     </row>
-    <row r="236" ht="12.75" customHeight="1">
+    <row r="236" spans="1:35" ht="12.75" customHeight="1">
       <c r="A236" s="3"/>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
@@ -12826,7 +13213,7 @@
       <c r="AH236" s="3"/>
       <c r="AI236" s="3"/>
     </row>
-    <row r="237" ht="12.75" customHeight="1">
+    <row r="237" spans="1:35" ht="12.75" customHeight="1">
       <c r="A237" s="3"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
@@ -12863,7 +13250,7 @@
       <c r="AH237" s="3"/>
       <c r="AI237" s="3"/>
     </row>
-    <row r="238" ht="12.75" customHeight="1">
+    <row r="238" spans="1:35" ht="12.75" customHeight="1">
       <c r="A238" s="3"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
@@ -12900,7 +13287,7 @@
       <c r="AH238" s="3"/>
       <c r="AI238" s="3"/>
     </row>
-    <row r="239" ht="12.75" customHeight="1">
+    <row r="239" spans="1:35" ht="12.75" customHeight="1">
       <c r="A239" s="3"/>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
@@ -12937,7 +13324,7 @@
       <c r="AH239" s="3"/>
       <c r="AI239" s="3"/>
     </row>
-    <row r="240" ht="12.75" customHeight="1">
+    <row r="240" spans="1:35" ht="12.75" customHeight="1">
       <c r="A240" s="3"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
@@ -12974,7 +13361,7 @@
       <c r="AH240" s="3"/>
       <c r="AI240" s="3"/>
     </row>
-    <row r="241" ht="12.75" customHeight="1">
+    <row r="241" spans="1:35" ht="12.75" customHeight="1">
       <c r="A241" s="3"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
@@ -13011,7 +13398,7 @@
       <c r="AH241" s="3"/>
       <c r="AI241" s="3"/>
     </row>
-    <row r="242" ht="12.75" customHeight="1">
+    <row r="242" spans="1:35" ht="12.75" customHeight="1">
       <c r="A242" s="3"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
@@ -13048,7 +13435,7 @@
       <c r="AH242" s="3"/>
       <c r="AI242" s="3"/>
     </row>
-    <row r="243" ht="12.75" customHeight="1">
+    <row r="243" spans="1:35" ht="12.75" customHeight="1">
       <c r="A243" s="3"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
@@ -13085,7 +13472,7 @@
       <c r="AH243" s="3"/>
       <c r="AI243" s="3"/>
     </row>
-    <row r="244" ht="12.75" customHeight="1">
+    <row r="244" spans="1:35" ht="12.75" customHeight="1">
       <c r="A244" s="3"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
@@ -13122,7 +13509,7 @@
       <c r="AH244" s="3"/>
       <c r="AI244" s="3"/>
     </row>
-    <row r="245" ht="12.75" customHeight="1">
+    <row r="245" spans="1:35" ht="12.75" customHeight="1">
       <c r="A245" s="3"/>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
@@ -13159,7 +13546,7 @@
       <c r="AH245" s="3"/>
       <c r="AI245" s="3"/>
     </row>
-    <row r="246" ht="12.75" customHeight="1">
+    <row r="246" spans="1:35" ht="12.75" customHeight="1">
       <c r="A246" s="3"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
@@ -13196,7 +13583,7 @@
       <c r="AH246" s="3"/>
       <c r="AI246" s="3"/>
     </row>
-    <row r="247" ht="12.75" customHeight="1">
+    <row r="247" spans="1:35" ht="12.75" customHeight="1">
       <c r="A247" s="3"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
@@ -13233,7 +13620,7 @@
       <c r="AH247" s="3"/>
       <c r="AI247" s="3"/>
     </row>
-    <row r="248" ht="12.75" customHeight="1">
+    <row r="248" spans="1:35" ht="12.75" customHeight="1">
       <c r="A248" s="3"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
@@ -13270,7 +13657,7 @@
       <c r="AH248" s="3"/>
       <c r="AI248" s="3"/>
     </row>
-    <row r="249" ht="12.75" customHeight="1">
+    <row r="249" spans="1:35" ht="12.75" customHeight="1">
       <c r="A249" s="3"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
@@ -13307,7 +13694,7 @@
       <c r="AH249" s="3"/>
       <c r="AI249" s="3"/>
     </row>
-    <row r="250" ht="12.75" customHeight="1">
+    <row r="250" spans="1:35" ht="12.75" customHeight="1">
       <c r="A250" s="3"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
@@ -13344,7 +13731,7 @@
       <c r="AH250" s="3"/>
       <c r="AI250" s="3"/>
     </row>
-    <row r="251" ht="12.75" customHeight="1">
+    <row r="251" spans="1:35" ht="12.75" customHeight="1">
       <c r="A251" s="3"/>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
@@ -13381,7 +13768,7 @@
       <c r="AH251" s="3"/>
       <c r="AI251" s="3"/>
     </row>
-    <row r="252" ht="12.75" customHeight="1">
+    <row r="252" spans="1:35" ht="12.75" customHeight="1">
       <c r="A252" s="3"/>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
@@ -13418,7 +13805,7 @@
       <c r="AH252" s="3"/>
       <c r="AI252" s="3"/>
     </row>
-    <row r="253" ht="12.75" customHeight="1">
+    <row r="253" spans="1:35" ht="12.75" customHeight="1">
       <c r="A253" s="3"/>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
@@ -13455,7 +13842,7 @@
       <c r="AH253" s="3"/>
       <c r="AI253" s="3"/>
     </row>
-    <row r="254" ht="12.75" customHeight="1">
+    <row r="254" spans="1:35" ht="12.75" customHeight="1">
       <c r="A254" s="3"/>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
@@ -13492,7 +13879,7 @@
       <c r="AH254" s="3"/>
       <c r="AI254" s="3"/>
     </row>
-    <row r="255" ht="12.75" customHeight="1">
+    <row r="255" spans="1:35" ht="12.75" customHeight="1">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
@@ -13529,7 +13916,7 @@
       <c r="AH255" s="3"/>
       <c r="AI255" s="3"/>
     </row>
-    <row r="256" ht="12.75" customHeight="1">
+    <row r="256" spans="1:35" ht="12.75" customHeight="1">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
@@ -13566,7 +13953,7 @@
       <c r="AH256" s="3"/>
       <c r="AI256" s="3"/>
     </row>
-    <row r="257" ht="12.75" customHeight="1">
+    <row r="257" spans="1:35" ht="12.75" customHeight="1">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
@@ -13603,7 +13990,7 @@
       <c r="AH257" s="3"/>
       <c r="AI257" s="3"/>
     </row>
-    <row r="258" ht="12.75" customHeight="1">
+    <row r="258" spans="1:35" ht="12.75" customHeight="1">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
@@ -13640,7 +14027,7 @@
       <c r="AH258" s="3"/>
       <c r="AI258" s="3"/>
     </row>
-    <row r="259" ht="12.75" customHeight="1">
+    <row r="259" spans="1:35" ht="12.75" customHeight="1">
       <c r="A259" s="3"/>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
@@ -13677,7 +14064,7 @@
       <c r="AH259" s="3"/>
       <c r="AI259" s="3"/>
     </row>
-    <row r="260" ht="12.75" customHeight="1">
+    <row r="260" spans="1:35" ht="12.75" customHeight="1">
       <c r="A260" s="3"/>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
@@ -13714,7 +14101,7 @@
       <c r="AH260" s="3"/>
       <c r="AI260" s="3"/>
     </row>
-    <row r="261" ht="12.75" customHeight="1">
+    <row r="261" spans="1:35" ht="12.75" customHeight="1">
       <c r="A261" s="3"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
@@ -13751,7 +14138,7 @@
       <c r="AH261" s="3"/>
       <c r="AI261" s="3"/>
     </row>
-    <row r="262" ht="12.75" customHeight="1">
+    <row r="262" spans="1:35" ht="12.75" customHeight="1">
       <c r="A262" s="3"/>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
@@ -13788,7 +14175,7 @@
       <c r="AH262" s="3"/>
       <c r="AI262" s="3"/>
     </row>
-    <row r="263" ht="12.75" customHeight="1">
+    <row r="263" spans="1:35" ht="12.75" customHeight="1">
       <c r="A263" s="3"/>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
@@ -13825,7 +14212,7 @@
       <c r="AH263" s="3"/>
       <c r="AI263" s="3"/>
     </row>
-    <row r="264" ht="12.75" customHeight="1">
+    <row r="264" spans="1:35" ht="12.75" customHeight="1">
       <c r="A264" s="3"/>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
@@ -13862,7 +14249,7 @@
       <c r="AH264" s="3"/>
       <c r="AI264" s="3"/>
     </row>
-    <row r="265" ht="12.75" customHeight="1">
+    <row r="265" spans="1:35" ht="12.75" customHeight="1">
       <c r="A265" s="3"/>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
@@ -13899,7 +14286,7 @@
       <c r="AH265" s="3"/>
       <c r="AI265" s="3"/>
     </row>
-    <row r="266" ht="12.75" customHeight="1">
+    <row r="266" spans="1:35" ht="12.75" customHeight="1">
       <c r="A266" s="3"/>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
@@ -13936,7 +14323,7 @@
       <c r="AH266" s="3"/>
       <c r="AI266" s="3"/>
     </row>
-    <row r="267" ht="12.75" customHeight="1">
+    <row r="267" spans="1:35" ht="12.75" customHeight="1">
       <c r="A267" s="3"/>
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
@@ -13973,7 +14360,7 @@
       <c r="AH267" s="3"/>
       <c r="AI267" s="3"/>
     </row>
-    <row r="268" ht="12.75" customHeight="1">
+    <row r="268" spans="1:35" ht="12.75" customHeight="1">
       <c r="A268" s="3"/>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
@@ -14010,7 +14397,7 @@
       <c r="AH268" s="3"/>
       <c r="AI268" s="3"/>
     </row>
-    <row r="269" ht="12.75" customHeight="1">
+    <row r="269" spans="1:35" ht="12.75" customHeight="1">
       <c r="A269" s="3"/>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
@@ -14047,7 +14434,7 @@
       <c r="AH269" s="3"/>
       <c r="AI269" s="3"/>
     </row>
-    <row r="270" ht="12.75" customHeight="1">
+    <row r="270" spans="1:35" ht="12.75" customHeight="1">
       <c r="A270" s="3"/>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
@@ -14084,7 +14471,7 @@
       <c r="AH270" s="3"/>
       <c r="AI270" s="3"/>
     </row>
-    <row r="271" ht="12.75" customHeight="1">
+    <row r="271" spans="1:35" ht="12.75" customHeight="1">
       <c r="A271" s="3"/>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
@@ -14121,7 +14508,7 @@
       <c r="AH271" s="3"/>
       <c r="AI271" s="3"/>
     </row>
-    <row r="272" ht="12.75" customHeight="1">
+    <row r="272" spans="1:35" ht="12.75" customHeight="1">
       <c r="A272" s="3"/>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
@@ -14158,7 +14545,7 @@
       <c r="AH272" s="3"/>
       <c r="AI272" s="3"/>
     </row>
-    <row r="273" ht="12.75" customHeight="1">
+    <row r="273" spans="1:35" ht="12.75" customHeight="1">
       <c r="A273" s="3"/>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
@@ -14195,7 +14582,7 @@
       <c r="AH273" s="3"/>
       <c r="AI273" s="3"/>
     </row>
-    <row r="274" ht="12.75" customHeight="1">
+    <row r="274" spans="1:35" ht="12.75" customHeight="1">
       <c r="A274" s="3"/>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
@@ -14232,7 +14619,7 @@
       <c r="AH274" s="3"/>
       <c r="AI274" s="3"/>
     </row>
-    <row r="275" ht="12.75" customHeight="1">
+    <row r="275" spans="1:35" ht="12.75" customHeight="1">
       <c r="A275" s="3"/>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
@@ -14269,7 +14656,7 @@
       <c r="AH275" s="3"/>
       <c r="AI275" s="3"/>
     </row>
-    <row r="276" ht="12.75" customHeight="1">
+    <row r="276" spans="1:35" ht="12.75" customHeight="1">
       <c r="A276" s="3"/>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
@@ -14306,7 +14693,7 @@
       <c r="AH276" s="3"/>
       <c r="AI276" s="3"/>
     </row>
-    <row r="277" ht="12.75" customHeight="1">
+    <row r="277" spans="1:35" ht="12.75" customHeight="1">
       <c r="A277" s="3"/>
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
@@ -14343,7 +14730,7 @@
       <c r="AH277" s="3"/>
       <c r="AI277" s="3"/>
     </row>
-    <row r="278" ht="12.75" customHeight="1">
+    <row r="278" spans="1:35" ht="12.75" customHeight="1">
       <c r="A278" s="3"/>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
@@ -14380,7 +14767,7 @@
       <c r="AH278" s="3"/>
       <c r="AI278" s="3"/>
     </row>
-    <row r="279" ht="12.75" customHeight="1">
+    <row r="279" spans="1:35" ht="12.75" customHeight="1">
       <c r="A279" s="3"/>
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
@@ -14417,7 +14804,7 @@
       <c r="AH279" s="3"/>
       <c r="AI279" s="3"/>
     </row>
-    <row r="280" ht="12.75" customHeight="1">
+    <row r="280" spans="1:35" ht="12.75" customHeight="1">
       <c r="A280" s="3"/>
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
@@ -14454,7 +14841,7 @@
       <c r="AH280" s="3"/>
       <c r="AI280" s="3"/>
     </row>
-    <row r="281" ht="12.75" customHeight="1">
+    <row r="281" spans="1:35" ht="12.75" customHeight="1">
       <c r="A281" s="3"/>
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
@@ -14491,7 +14878,7 @@
       <c r="AH281" s="3"/>
       <c r="AI281" s="3"/>
     </row>
-    <row r="282" ht="12.75" customHeight="1">
+    <row r="282" spans="1:35" ht="12.75" customHeight="1">
       <c r="A282" s="3"/>
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
@@ -14528,7 +14915,7 @@
       <c r="AH282" s="3"/>
       <c r="AI282" s="3"/>
     </row>
-    <row r="283" ht="12.75" customHeight="1">
+    <row r="283" spans="1:35" ht="12.75" customHeight="1">
       <c r="A283" s="3"/>
       <c r="B283" s="3"/>
       <c r="C283" s="3"/>
@@ -14565,7 +14952,7 @@
       <c r="AH283" s="3"/>
       <c r="AI283" s="3"/>
     </row>
-    <row r="284" ht="12.75" customHeight="1">
+    <row r="284" spans="1:35" ht="12.75" customHeight="1">
       <c r="A284" s="3"/>
       <c r="B284" s="3"/>
       <c r="C284" s="3"/>
@@ -14602,7 +14989,7 @@
       <c r="AH284" s="3"/>
       <c r="AI284" s="3"/>
     </row>
-    <row r="285" ht="12.75" customHeight="1">
+    <row r="285" spans="1:35" ht="12.75" customHeight="1">
       <c r="A285" s="3"/>
       <c r="B285" s="3"/>
       <c r="C285" s="3"/>
@@ -14639,7 +15026,7 @@
       <c r="AH285" s="3"/>
       <c r="AI285" s="3"/>
     </row>
-    <row r="286" ht="12.75" customHeight="1">
+    <row r="286" spans="1:35" ht="12.75" customHeight="1">
       <c r="A286" s="3"/>
       <c r="B286" s="3"/>
       <c r="C286" s="3"/>
@@ -14676,7 +15063,7 @@
       <c r="AH286" s="3"/>
       <c r="AI286" s="3"/>
     </row>
-    <row r="287" ht="12.75" customHeight="1">
+    <row r="287" spans="1:35" ht="12.75" customHeight="1">
       <c r="A287" s="3"/>
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
@@ -14713,7 +15100,7 @@
       <c r="AH287" s="3"/>
       <c r="AI287" s="3"/>
     </row>
-    <row r="288" ht="12.75" customHeight="1">
+    <row r="288" spans="1:35" ht="12.75" customHeight="1">
       <c r="A288" s="3"/>
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
@@ -14750,7 +15137,7 @@
       <c r="AH288" s="3"/>
       <c r="AI288" s="3"/>
     </row>
-    <row r="289" ht="12.75" customHeight="1">
+    <row r="289" spans="1:35" ht="12.75" customHeight="1">
       <c r="A289" s="3"/>
       <c r="B289" s="3"/>
       <c r="C289" s="3"/>
@@ -14787,7 +15174,7 @@
       <c r="AH289" s="3"/>
       <c r="AI289" s="3"/>
     </row>
-    <row r="290" ht="12.75" customHeight="1">
+    <row r="290" spans="1:35" ht="12.75" customHeight="1">
       <c r="A290" s="3"/>
       <c r="B290" s="3"/>
       <c r="C290" s="3"/>
@@ -14824,7 +15211,7 @@
       <c r="AH290" s="3"/>
       <c r="AI290" s="3"/>
     </row>
-    <row r="291" ht="12.75" customHeight="1">
+    <row r="291" spans="1:35" ht="12.75" customHeight="1">
       <c r="A291" s="3"/>
       <c r="B291" s="3"/>
       <c r="C291" s="3"/>
@@ -14861,7 +15248,7 @@
       <c r="AH291" s="3"/>
       <c r="AI291" s="3"/>
     </row>
-    <row r="292" ht="12.75" customHeight="1">
+    <row r="292" spans="1:35" ht="12.75" customHeight="1">
       <c r="A292" s="3"/>
       <c r="B292" s="3"/>
       <c r="C292" s="3"/>
@@ -14898,7 +15285,7 @@
       <c r="AH292" s="3"/>
       <c r="AI292" s="3"/>
     </row>
-    <row r="293" ht="12.75" customHeight="1">
+    <row r="293" spans="1:35" ht="12.75" customHeight="1">
       <c r="A293" s="3"/>
       <c r="B293" s="3"/>
       <c r="C293" s="3"/>
@@ -14935,7 +15322,7 @@
       <c r="AH293" s="3"/>
       <c r="AI293" s="3"/>
     </row>
-    <row r="294" ht="12.75" customHeight="1">
+    <row r="294" spans="1:35" ht="12.75" customHeight="1">
       <c r="A294" s="3"/>
       <c r="B294" s="3"/>
       <c r="C294" s="3"/>
@@ -14972,7 +15359,7 @@
       <c r="AH294" s="3"/>
       <c r="AI294" s="3"/>
     </row>
-    <row r="295" ht="12.75" customHeight="1">
+    <row r="295" spans="1:35" ht="12.75" customHeight="1">
       <c r="A295" s="3"/>
       <c r="B295" s="3"/>
       <c r="C295" s="3"/>
@@ -15009,7 +15396,7 @@
       <c r="AH295" s="3"/>
       <c r="AI295" s="3"/>
     </row>
-    <row r="296" ht="12.75" customHeight="1">
+    <row r="296" spans="1:35" ht="12.75" customHeight="1">
       <c r="A296" s="3"/>
       <c r="B296" s="3"/>
       <c r="C296" s="3"/>
@@ -15046,7 +15433,7 @@
       <c r="AH296" s="3"/>
       <c r="AI296" s="3"/>
     </row>
-    <row r="297" ht="12.75" customHeight="1">
+    <row r="297" spans="1:35" ht="12.75" customHeight="1">
       <c r="A297" s="3"/>
       <c r="B297" s="3"/>
       <c r="C297" s="3"/>
@@ -15083,7 +15470,7 @@
       <c r="AH297" s="3"/>
       <c r="AI297" s="3"/>
     </row>
-    <row r="298" ht="12.75" customHeight="1">
+    <row r="298" spans="1:35" ht="12.75" customHeight="1">
       <c r="A298" s="3"/>
       <c r="B298" s="3"/>
       <c r="C298" s="3"/>
@@ -15120,7 +15507,7 @@
       <c r="AH298" s="3"/>
       <c r="AI298" s="3"/>
     </row>
-    <row r="299" ht="12.75" customHeight="1">
+    <row r="299" spans="1:35" ht="12.75" customHeight="1">
       <c r="A299" s="3"/>
       <c r="B299" s="3"/>
       <c r="C299" s="3"/>
@@ -15157,7 +15544,7 @@
       <c r="AH299" s="3"/>
       <c r="AI299" s="3"/>
     </row>
-    <row r="300" ht="12.75" customHeight="1">
+    <row r="300" spans="1:35" ht="12.75" customHeight="1">
       <c r="A300" s="3"/>
       <c r="B300" s="3"/>
       <c r="C300" s="3"/>
@@ -15194,7 +15581,7 @@
       <c r="AH300" s="3"/>
       <c r="AI300" s="3"/>
     </row>
-    <row r="301" ht="12.75" customHeight="1">
+    <row r="301" spans="1:35" ht="12.75" customHeight="1">
       <c r="A301" s="3"/>
       <c r="B301" s="3"/>
       <c r="C301" s="3"/>
@@ -15231,7 +15618,7 @@
       <c r="AH301" s="3"/>
       <c r="AI301" s="3"/>
     </row>
-    <row r="302" ht="12.75" customHeight="1">
+    <row r="302" spans="1:35" ht="12.75" customHeight="1">
       <c r="A302" s="3"/>
       <c r="B302" s="3"/>
       <c r="C302" s="3"/>
@@ -15268,7 +15655,7 @@
       <c r="AH302" s="3"/>
       <c r="AI302" s="3"/>
     </row>
-    <row r="303" ht="12.75" customHeight="1">
+    <row r="303" spans="1:35" ht="12.75" customHeight="1">
       <c r="A303" s="3"/>
       <c r="B303" s="3"/>
       <c r="C303" s="3"/>
@@ -15305,7 +15692,7 @@
       <c r="AH303" s="3"/>
       <c r="AI303" s="3"/>
     </row>
-    <row r="304" ht="12.75" customHeight="1">
+    <row r="304" spans="1:35" ht="12.75" customHeight="1">
       <c r="A304" s="3"/>
       <c r="B304" s="3"/>
       <c r="C304" s="3"/>
@@ -15342,7 +15729,7 @@
       <c r="AH304" s="3"/>
       <c r="AI304" s="3"/>
     </row>
-    <row r="305" ht="12.75" customHeight="1">
+    <row r="305" spans="1:35" ht="12.75" customHeight="1">
       <c r="A305" s="3"/>
       <c r="B305" s="3"/>
       <c r="C305" s="3"/>
@@ -15379,7 +15766,7 @@
       <c r="AH305" s="3"/>
       <c r="AI305" s="3"/>
     </row>
-    <row r="306" ht="12.75" customHeight="1">
+    <row r="306" spans="1:35" ht="12.75" customHeight="1">
       <c r="A306" s="3"/>
       <c r="B306" s="3"/>
       <c r="C306" s="3"/>
@@ -15416,7 +15803,7 @@
       <c r="AH306" s="3"/>
       <c r="AI306" s="3"/>
     </row>
-    <row r="307" ht="12.75" customHeight="1">
+    <row r="307" spans="1:35" ht="12.75" customHeight="1">
       <c r="A307" s="3"/>
       <c r="B307" s="3"/>
       <c r="C307" s="3"/>
@@ -15453,7 +15840,7 @@
       <c r="AH307" s="3"/>
       <c r="AI307" s="3"/>
     </row>
-    <row r="308" ht="12.75" customHeight="1">
+    <row r="308" spans="1:35" ht="12.75" customHeight="1">
       <c r="A308" s="3"/>
       <c r="B308" s="3"/>
       <c r="C308" s="3"/>
@@ -15490,7 +15877,7 @@
       <c r="AH308" s="3"/>
       <c r="AI308" s="3"/>
     </row>
-    <row r="309" ht="12.75" customHeight="1">
+    <row r="309" spans="1:35" ht="12.75" customHeight="1">
       <c r="A309" s="3"/>
       <c r="B309" s="3"/>
       <c r="C309" s="3"/>
@@ -15527,7 +15914,7 @@
       <c r="AH309" s="3"/>
       <c r="AI309" s="3"/>
     </row>
-    <row r="310" ht="12.75" customHeight="1">
+    <row r="310" spans="1:35" ht="12.75" customHeight="1">
       <c r="A310" s="3"/>
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
@@ -15564,7 +15951,7 @@
       <c r="AH310" s="3"/>
       <c r="AI310" s="3"/>
     </row>
-    <row r="311" ht="12.75" customHeight="1">
+    <row r="311" spans="1:35" ht="12.75" customHeight="1">
       <c r="A311" s="3"/>
       <c r="B311" s="3"/>
       <c r="C311" s="3"/>
@@ -15601,7 +15988,7 @@
       <c r="AH311" s="3"/>
       <c r="AI311" s="3"/>
     </row>
-    <row r="312" ht="12.75" customHeight="1">
+    <row r="312" spans="1:35" ht="12.75" customHeight="1">
       <c r="A312" s="3"/>
       <c r="B312" s="3"/>
       <c r="C312" s="3"/>
@@ -15638,7 +16025,7 @@
       <c r="AH312" s="3"/>
       <c r="AI312" s="3"/>
     </row>
-    <row r="313" ht="12.75" customHeight="1">
+    <row r="313" spans="1:35" ht="12.75" customHeight="1">
       <c r="A313" s="3"/>
       <c r="B313" s="3"/>
       <c r="C313" s="3"/>
@@ -15675,7 +16062,7 @@
       <c r="AH313" s="3"/>
       <c r="AI313" s="3"/>
     </row>
-    <row r="314" ht="12.75" customHeight="1">
+    <row r="314" spans="1:35" ht="12.75" customHeight="1">
       <c r="A314" s="3"/>
       <c r="B314" s="3"/>
       <c r="C314" s="3"/>
@@ -15712,7 +16099,7 @@
       <c r="AH314" s="3"/>
       <c r="AI314" s="3"/>
     </row>
-    <row r="315" ht="12.75" customHeight="1">
+    <row r="315" spans="1:35" ht="12.75" customHeight="1">
       <c r="A315" s="3"/>
       <c r="B315" s="3"/>
       <c r="C315" s="3"/>
@@ -15749,7 +16136,7 @@
       <c r="AH315" s="3"/>
       <c r="AI315" s="3"/>
     </row>
-    <row r="316" ht="12.75" customHeight="1">
+    <row r="316" spans="1:35" ht="12.75" customHeight="1">
       <c r="A316" s="3"/>
       <c r="B316" s="3"/>
       <c r="C316" s="3"/>
@@ -15786,7 +16173,7 @@
       <c r="AH316" s="3"/>
       <c r="AI316" s="3"/>
     </row>
-    <row r="317" ht="12.75" customHeight="1">
+    <row r="317" spans="1:35" ht="12.75" customHeight="1">
       <c r="A317" s="3"/>
       <c r="B317" s="3"/>
       <c r="C317" s="3"/>
@@ -15823,7 +16210,7 @@
       <c r="AH317" s="3"/>
       <c r="AI317" s="3"/>
     </row>
-    <row r="318" ht="12.75" customHeight="1">
+    <row r="318" spans="1:35" ht="12.75" customHeight="1">
       <c r="A318" s="3"/>
       <c r="B318" s="3"/>
       <c r="C318" s="3"/>
@@ -15860,7 +16247,7 @@
       <c r="AH318" s="3"/>
       <c r="AI318" s="3"/>
     </row>
-    <row r="319" ht="12.75" customHeight="1">
+    <row r="319" spans="1:35" ht="12.75" customHeight="1">
       <c r="A319" s="3"/>
       <c r="B319" s="3"/>
       <c r="C319" s="3"/>
@@ -15897,7 +16284,7 @@
       <c r="AH319" s="3"/>
       <c r="AI319" s="3"/>
     </row>
-    <row r="320" ht="12.75" customHeight="1">
+    <row r="320" spans="1:35" ht="12.75" customHeight="1">
       <c r="A320" s="3"/>
       <c r="B320" s="3"/>
       <c r="C320" s="3"/>
@@ -15934,7 +16321,7 @@
       <c r="AH320" s="3"/>
       <c r="AI320" s="3"/>
     </row>
-    <row r="321" ht="12.75" customHeight="1">
+    <row r="321" spans="1:35" ht="12.75" customHeight="1">
       <c r="A321" s="3"/>
       <c r="B321" s="3"/>
       <c r="C321" s="3"/>
@@ -15971,7 +16358,7 @@
       <c r="AH321" s="3"/>
       <c r="AI321" s="3"/>
     </row>
-    <row r="322" ht="12.75" customHeight="1">
+    <row r="322" spans="1:35" ht="12.75" customHeight="1">
       <c r="A322" s="3"/>
       <c r="B322" s="3"/>
       <c r="C322" s="3"/>
@@ -16008,7 +16395,7 @@
       <c r="AH322" s="3"/>
       <c r="AI322" s="3"/>
     </row>
-    <row r="323" ht="12.75" customHeight="1">
+    <row r="323" spans="1:35" ht="12.75" customHeight="1">
       <c r="A323" s="3"/>
       <c r="B323" s="3"/>
       <c r="C323" s="3"/>
@@ -16045,7 +16432,7 @@
       <c r="AH323" s="3"/>
       <c r="AI323" s="3"/>
     </row>
-    <row r="324" ht="12.75" customHeight="1">
+    <row r="324" spans="1:35" ht="12.75" customHeight="1">
       <c r="A324" s="3"/>
       <c r="B324" s="3"/>
       <c r="C324" s="3"/>
@@ -16082,7 +16469,7 @@
       <c r="AH324" s="3"/>
       <c r="AI324" s="3"/>
     </row>
-    <row r="325" ht="12.75" customHeight="1">
+    <row r="325" spans="1:35" ht="12.75" customHeight="1">
       <c r="A325" s="3"/>
       <c r="B325" s="3"/>
       <c r="C325" s="3"/>
@@ -16119,7 +16506,7 @@
       <c r="AH325" s="3"/>
       <c r="AI325" s="3"/>
     </row>
-    <row r="326" ht="12.75" customHeight="1">
+    <row r="326" spans="1:35" ht="12.75" customHeight="1">
       <c r="A326" s="3"/>
       <c r="B326" s="3"/>
       <c r="C326" s="3"/>
@@ -16156,7 +16543,7 @@
       <c r="AH326" s="3"/>
       <c r="AI326" s="3"/>
     </row>
-    <row r="327" ht="12.75" customHeight="1">
+    <row r="327" spans="1:35" ht="12.75" customHeight="1">
       <c r="A327" s="3"/>
       <c r="B327" s="3"/>
       <c r="C327" s="3"/>
@@ -16193,7 +16580,7 @@
       <c r="AH327" s="3"/>
       <c r="AI327" s="3"/>
     </row>
-    <row r="328" ht="12.75" customHeight="1">
+    <row r="328" spans="1:35" ht="12.75" customHeight="1">
       <c r="A328" s="3"/>
       <c r="B328" s="3"/>
       <c r="C328" s="3"/>
@@ -16230,7 +16617,7 @@
       <c r="AH328" s="3"/>
       <c r="AI328" s="3"/>
     </row>
-    <row r="329" ht="12.75" customHeight="1">
+    <row r="329" spans="1:35" ht="12.75" customHeight="1">
       <c r="A329" s="3"/>
       <c r="B329" s="3"/>
       <c r="C329" s="3"/>
@@ -16267,7 +16654,7 @@
       <c r="AH329" s="3"/>
       <c r="AI329" s="3"/>
     </row>
-    <row r="330" ht="12.75" customHeight="1">
+    <row r="330" spans="1:35" ht="12.75" customHeight="1">
       <c r="A330" s="3"/>
       <c r="B330" s="3"/>
       <c r="C330" s="3"/>
@@ -16304,7 +16691,7 @@
       <c r="AH330" s="3"/>
       <c r="AI330" s="3"/>
     </row>
-    <row r="331" ht="12.75" customHeight="1">
+    <row r="331" spans="1:35" ht="12.75" customHeight="1">
       <c r="A331" s="3"/>
       <c r="B331" s="3"/>
       <c r="C331" s="3"/>
@@ -16341,7 +16728,7 @@
       <c r="AH331" s="3"/>
       <c r="AI331" s="3"/>
     </row>
-    <row r="332" ht="12.75" customHeight="1">
+    <row r="332" spans="1:35" ht="12.75" customHeight="1">
       <c r="A332" s="3"/>
       <c r="B332" s="3"/>
       <c r="C332" s="3"/>
@@ -16378,7 +16765,7 @@
       <c r="AH332" s="3"/>
       <c r="AI332" s="3"/>
     </row>
-    <row r="333" ht="12.75" customHeight="1">
+    <row r="333" spans="1:35" ht="12.75" customHeight="1">
       <c r="A333" s="3"/>
       <c r="B333" s="3"/>
       <c r="C333" s="3"/>
@@ -16415,7 +16802,7 @@
       <c r="AH333" s="3"/>
       <c r="AI333" s="3"/>
     </row>
-    <row r="334" ht="12.75" customHeight="1">
+    <row r="334" spans="1:35" ht="12.75" customHeight="1">
       <c r="A334" s="3"/>
       <c r="B334" s="3"/>
       <c r="C334" s="3"/>
@@ -16452,7 +16839,7 @@
       <c r="AH334" s="3"/>
       <c r="AI334" s="3"/>
     </row>
-    <row r="335" ht="12.75" customHeight="1">
+    <row r="335" spans="1:35" ht="12.75" customHeight="1">
       <c r="A335" s="3"/>
       <c r="B335" s="3"/>
       <c r="C335" s="3"/>
@@ -16489,7 +16876,7 @@
       <c r="AH335" s="3"/>
       <c r="AI335" s="3"/>
     </row>
-    <row r="336" ht="12.75" customHeight="1">
+    <row r="336" spans="1:35" ht="12.75" customHeight="1">
       <c r="A336" s="3"/>
       <c r="B336" s="3"/>
       <c r="C336" s="3"/>
@@ -16526,7 +16913,7 @@
       <c r="AH336" s="3"/>
       <c r="AI336" s="3"/>
     </row>
-    <row r="337" ht="12.75" customHeight="1">
+    <row r="337" spans="1:35" ht="12.75" customHeight="1">
       <c r="A337" s="3"/>
       <c r="B337" s="3"/>
       <c r="C337" s="3"/>
@@ -16563,7 +16950,7 @@
       <c r="AH337" s="3"/>
       <c r="AI337" s="3"/>
     </row>
-    <row r="338" ht="12.75" customHeight="1">
+    <row r="338" spans="1:35" ht="12.75" customHeight="1">
       <c r="A338" s="3"/>
       <c r="B338" s="3"/>
       <c r="C338" s="3"/>
@@ -16600,7 +16987,7 @@
       <c r="AH338" s="3"/>
       <c r="AI338" s="3"/>
     </row>
-    <row r="339" ht="12.75" customHeight="1">
+    <row r="339" spans="1:35" ht="12.75" customHeight="1">
       <c r="A339" s="3"/>
       <c r="B339" s="3"/>
       <c r="C339" s="3"/>
@@ -16637,7 +17024,7 @@
       <c r="AH339" s="3"/>
       <c r="AI339" s="3"/>
     </row>
-    <row r="340" ht="12.75" customHeight="1">
+    <row r="340" spans="1:35" ht="12.75" customHeight="1">
       <c r="A340" s="3"/>
       <c r="B340" s="3"/>
       <c r="C340" s="3"/>
@@ -16674,7 +17061,7 @@
       <c r="AH340" s="3"/>
       <c r="AI340" s="3"/>
     </row>
-    <row r="341" ht="12.75" customHeight="1">
+    <row r="341" spans="1:35" ht="12.75" customHeight="1">
       <c r="A341" s="3"/>
       <c r="B341" s="3"/>
       <c r="C341" s="3"/>
@@ -16711,7 +17098,7 @@
       <c r="AH341" s="3"/>
       <c r="AI341" s="3"/>
     </row>
-    <row r="342" ht="12.75" customHeight="1">
+    <row r="342" spans="1:35" ht="12.75" customHeight="1">
       <c r="A342" s="3"/>
       <c r="B342" s="3"/>
       <c r="C342" s="3"/>
@@ -16748,7 +17135,7 @@
       <c r="AH342" s="3"/>
       <c r="AI342" s="3"/>
     </row>
-    <row r="343" ht="12.75" customHeight="1">
+    <row r="343" spans="1:35" ht="12.75" customHeight="1">
       <c r="A343" s="3"/>
       <c r="B343" s="3"/>
       <c r="C343" s="3"/>
@@ -16785,7 +17172,7 @@
       <c r="AH343" s="3"/>
       <c r="AI343" s="3"/>
     </row>
-    <row r="344" ht="12.75" customHeight="1">
+    <row r="344" spans="1:35" ht="12.75" customHeight="1">
       <c r="A344" s="3"/>
       <c r="B344" s="3"/>
       <c r="C344" s="3"/>
@@ -16822,7 +17209,7 @@
       <c r="AH344" s="3"/>
       <c r="AI344" s="3"/>
     </row>
-    <row r="345" ht="12.75" customHeight="1">
+    <row r="345" spans="1:35" ht="12.75" customHeight="1">
       <c r="A345" s="3"/>
       <c r="B345" s="3"/>
       <c r="C345" s="3"/>
@@ -16859,7 +17246,7 @@
       <c r="AH345" s="3"/>
       <c r="AI345" s="3"/>
     </row>
-    <row r="346" ht="12.75" customHeight="1">
+    <row r="346" spans="1:35" ht="12.75" customHeight="1">
       <c r="A346" s="3"/>
       <c r="B346" s="3"/>
       <c r="C346" s="3"/>
@@ -16896,7 +17283,7 @@
       <c r="AH346" s="3"/>
       <c r="AI346" s="3"/>
     </row>
-    <row r="347" ht="12.75" customHeight="1">
+    <row r="347" spans="1:35" ht="12.75" customHeight="1">
       <c r="A347" s="3"/>
       <c r="B347" s="3"/>
       <c r="C347" s="3"/>
@@ -16933,7 +17320,7 @@
       <c r="AH347" s="3"/>
       <c r="AI347" s="3"/>
     </row>
-    <row r="348" ht="12.75" customHeight="1">
+    <row r="348" spans="1:35" ht="12.75" customHeight="1">
       <c r="A348" s="3"/>
       <c r="B348" s="3"/>
       <c r="C348" s="3"/>
@@ -16970,7 +17357,7 @@
       <c r="AH348" s="3"/>
       <c r="AI348" s="3"/>
     </row>
-    <row r="349" ht="12.75" customHeight="1">
+    <row r="349" spans="1:35" ht="12.75" customHeight="1">
       <c r="A349" s="3"/>
       <c r="B349" s="3"/>
       <c r="C349" s="3"/>
@@ -17007,7 +17394,7 @@
       <c r="AH349" s="3"/>
       <c r="AI349" s="3"/>
     </row>
-    <row r="350" ht="12.75" customHeight="1">
+    <row r="350" spans="1:35" ht="12.75" customHeight="1">
       <c r="A350" s="3"/>
       <c r="B350" s="3"/>
       <c r="C350" s="3"/>
@@ -17044,7 +17431,7 @@
       <c r="AH350" s="3"/>
       <c r="AI350" s="3"/>
     </row>
-    <row r="351" ht="12.75" customHeight="1">
+    <row r="351" spans="1:35" ht="12.75" customHeight="1">
       <c r="A351" s="3"/>
       <c r="B351" s="3"/>
       <c r="C351" s="3"/>
@@ -17081,7 +17468,7 @@
       <c r="AH351" s="3"/>
       <c r="AI351" s="3"/>
     </row>
-    <row r="352" ht="12.75" customHeight="1">
+    <row r="352" spans="1:35" ht="12.75" customHeight="1">
       <c r="A352" s="3"/>
       <c r="B352" s="3"/>
       <c r="C352" s="3"/>
@@ -17118,7 +17505,7 @@
       <c r="AH352" s="3"/>
       <c r="AI352" s="3"/>
     </row>
-    <row r="353" ht="12.75" customHeight="1">
+    <row r="353" spans="1:35" ht="12.75" customHeight="1">
       <c r="A353" s="3"/>
       <c r="B353" s="3"/>
       <c r="C353" s="3"/>
@@ -17155,7 +17542,7 @@
       <c r="AH353" s="3"/>
       <c r="AI353" s="3"/>
     </row>
-    <row r="354" ht="12.75" customHeight="1">
+    <row r="354" spans="1:35" ht="12.75" customHeight="1">
       <c r="A354" s="3"/>
       <c r="B354" s="3"/>
       <c r="C354" s="3"/>
@@ -17192,7 +17579,7 @@
       <c r="AH354" s="3"/>
       <c r="AI354" s="3"/>
     </row>
-    <row r="355" ht="12.75" customHeight="1">
+    <row r="355" spans="1:35" ht="12.75" customHeight="1">
       <c r="A355" s="3"/>
       <c r="B355" s="3"/>
       <c r="C355" s="3"/>
@@ -17229,7 +17616,7 @@
       <c r="AH355" s="3"/>
       <c r="AI355" s="3"/>
     </row>
-    <row r="356" ht="12.75" customHeight="1">
+    <row r="356" spans="1:35" ht="12.75" customHeight="1">
       <c r="A356" s="3"/>
       <c r="B356" s="3"/>
       <c r="C356" s="3"/>
@@ -17266,7 +17653,7 @@
       <c r="AH356" s="3"/>
       <c r="AI356" s="3"/>
     </row>
-    <row r="357" ht="12.75" customHeight="1">
+    <row r="357" spans="1:35" ht="12.75" customHeight="1">
       <c r="A357" s="3"/>
       <c r="B357" s="3"/>
       <c r="C357" s="3"/>
@@ -17303,7 +17690,7 @@
       <c r="AH357" s="3"/>
       <c r="AI357" s="3"/>
     </row>
-    <row r="358" ht="12.75" customHeight="1">
+    <row r="358" spans="1:35" ht="12.75" customHeight="1">
       <c r="A358" s="3"/>
       <c r="B358" s="3"/>
       <c r="C358" s="3"/>
@@ -17340,7 +17727,7 @@
       <c r="AH358" s="3"/>
       <c r="AI358" s="3"/>
     </row>
-    <row r="359" ht="12.75" customHeight="1">
+    <row r="359" spans="1:35" ht="12.75" customHeight="1">
       <c r="A359" s="3"/>
       <c r="B359" s="3"/>
       <c r="C359" s="3"/>
@@ -17377,7 +17764,7 @@
       <c r="AH359" s="3"/>
       <c r="AI359" s="3"/>
     </row>
-    <row r="360" ht="12.75" customHeight="1">
+    <row r="360" spans="1:35" ht="12.75" customHeight="1">
       <c r="A360" s="3"/>
       <c r="B360" s="3"/>
       <c r="C360" s="3"/>
@@ -17414,7 +17801,7 @@
       <c r="AH360" s="3"/>
       <c r="AI360" s="3"/>
     </row>
-    <row r="361" ht="12.75" customHeight="1">
+    <row r="361" spans="1:35" ht="12.75" customHeight="1">
       <c r="A361" s="3"/>
       <c r="B361" s="3"/>
       <c r="C361" s="3"/>
@@ -17451,7 +17838,7 @@
       <c r="AH361" s="3"/>
       <c r="AI361" s="3"/>
     </row>
-    <row r="362" ht="12.75" customHeight="1">
+    <row r="362" spans="1:35" ht="12.75" customHeight="1">
       <c r="A362" s="3"/>
       <c r="B362" s="3"/>
       <c r="C362" s="3"/>
@@ -17488,7 +17875,7 @@
       <c r="AH362" s="3"/>
       <c r="AI362" s="3"/>
     </row>
-    <row r="363" ht="12.75" customHeight="1">
+    <row r="363" spans="1:35" ht="12.75" customHeight="1">
       <c r="A363" s="3"/>
       <c r="B363" s="3"/>
       <c r="C363" s="3"/>
@@ -17525,7 +17912,7 @@
       <c r="AH363" s="3"/>
       <c r="AI363" s="3"/>
     </row>
-    <row r="364" ht="12.75" customHeight="1">
+    <row r="364" spans="1:35" ht="12.75" customHeight="1">
       <c r="A364" s="3"/>
       <c r="B364" s="3"/>
       <c r="C364" s="3"/>
@@ -17562,7 +17949,7 @@
       <c r="AH364" s="3"/>
       <c r="AI364" s="3"/>
     </row>
-    <row r="365" ht="12.75" customHeight="1">
+    <row r="365" spans="1:35" ht="12.75" customHeight="1">
       <c r="A365" s="3"/>
       <c r="B365" s="3"/>
       <c r="C365" s="3"/>
@@ -17599,7 +17986,7 @@
       <c r="AH365" s="3"/>
       <c r="AI365" s="3"/>
     </row>
-    <row r="366" ht="12.75" customHeight="1">
+    <row r="366" spans="1:35" ht="12.75" customHeight="1">
       <c r="A366" s="3"/>
       <c r="B366" s="3"/>
       <c r="C366" s="3"/>
@@ -17636,7 +18023,7 @@
       <c r="AH366" s="3"/>
       <c r="AI366" s="3"/>
     </row>
-    <row r="367" ht="12.75" customHeight="1">
+    <row r="367" spans="1:35" ht="12.75" customHeight="1">
       <c r="A367" s="3"/>
       <c r="B367" s="3"/>
       <c r="C367" s="3"/>
@@ -17673,7 +18060,7 @@
       <c r="AH367" s="3"/>
       <c r="AI367" s="3"/>
     </row>
-    <row r="368" ht="12.75" customHeight="1">
+    <row r="368" spans="1:35" ht="12.75" customHeight="1">
       <c r="A368" s="3"/>
       <c r="B368" s="3"/>
       <c r="C368" s="3"/>
@@ -17710,7 +18097,7 @@
       <c r="AH368" s="3"/>
       <c r="AI368" s="3"/>
     </row>
-    <row r="369" ht="12.75" customHeight="1">
+    <row r="369" spans="1:35" ht="12.75" customHeight="1">
       <c r="A369" s="3"/>
       <c r="B369" s="3"/>
       <c r="C369" s="3"/>
@@ -17747,7 +18134,7 @@
       <c r="AH369" s="3"/>
       <c r="AI369" s="3"/>
     </row>
-    <row r="370" ht="12.75" customHeight="1">
+    <row r="370" spans="1:35" ht="12.75" customHeight="1">
       <c r="A370" s="3"/>
       <c r="B370" s="3"/>
       <c r="C370" s="3"/>
@@ -17784,7 +18171,7 @@
       <c r="AH370" s="3"/>
       <c r="AI370" s="3"/>
     </row>
-    <row r="371" ht="12.75" customHeight="1">
+    <row r="371" spans="1:35" ht="12.75" customHeight="1">
       <c r="A371" s="3"/>
       <c r="B371" s="3"/>
       <c r="C371" s="3"/>
@@ -17821,7 +18208,7 @@
       <c r="AH371" s="3"/>
       <c r="AI371" s="3"/>
     </row>
-    <row r="372" ht="12.75" customHeight="1">
+    <row r="372" spans="1:35" ht="12.75" customHeight="1">
       <c r="A372" s="3"/>
       <c r="B372" s="3"/>
       <c r="C372" s="3"/>
@@ -17858,7 +18245,7 @@
       <c r="AH372" s="3"/>
       <c r="AI372" s="3"/>
     </row>
-    <row r="373" ht="12.75" customHeight="1">
+    <row r="373" spans="1:35" ht="12.75" customHeight="1">
       <c r="A373" s="3"/>
       <c r="B373" s="3"/>
       <c r="C373" s="3"/>
@@ -17895,7 +18282,7 @@
       <c r="AH373" s="3"/>
       <c r="AI373" s="3"/>
     </row>
-    <row r="374" ht="12.75" customHeight="1">
+    <row r="374" spans="1:35" ht="12.75" customHeight="1">
       <c r="A374" s="3"/>
       <c r="B374" s="3"/>
       <c r="C374" s="3"/>
@@ -17932,7 +18319,7 @@
       <c r="AH374" s="3"/>
       <c r="AI374" s="3"/>
     </row>
-    <row r="375" ht="12.75" customHeight="1">
+    <row r="375" spans="1:35" ht="12.75" customHeight="1">
       <c r="A375" s="3"/>
       <c r="B375" s="3"/>
       <c r="C375" s="3"/>
@@ -17969,7 +18356,7 @@
       <c r="AH375" s="3"/>
       <c r="AI375" s="3"/>
     </row>
-    <row r="376" ht="12.75" customHeight="1">
+    <row r="376" spans="1:35" ht="12.75" customHeight="1">
       <c r="A376" s="3"/>
       <c r="B376" s="3"/>
       <c r="C376" s="3"/>
@@ -18006,7 +18393,7 @@
       <c r="AH376" s="3"/>
       <c r="AI376" s="3"/>
     </row>
-    <row r="377" ht="12.75" customHeight="1">
+    <row r="377" spans="1:35" ht="12.75" customHeight="1">
       <c r="A377" s="3"/>
       <c r="B377" s="3"/>
       <c r="C377" s="3"/>
@@ -18043,7 +18430,7 @@
       <c r="AH377" s="3"/>
       <c r="AI377" s="3"/>
     </row>
-    <row r="378" ht="12.75" customHeight="1">
+    <row r="378" spans="1:35" ht="12.75" customHeight="1">
       <c r="A378" s="3"/>
       <c r="B378" s="3"/>
       <c r="C378" s="3"/>
@@ -18080,7 +18467,7 @@
       <c r="AH378" s="3"/>
       <c r="AI378" s="3"/>
     </row>
-    <row r="379" ht="12.75" customHeight="1">
+    <row r="379" spans="1:35" ht="12.75" customHeight="1">
       <c r="A379" s="3"/>
       <c r="B379" s="3"/>
       <c r="C379" s="3"/>
@@ -18117,7 +18504,7 @@
       <c r="AH379" s="3"/>
       <c r="AI379" s="3"/>
     </row>
-    <row r="380" ht="12.75" customHeight="1">
+    <row r="380" spans="1:35" ht="12.75" customHeight="1">
       <c r="A380" s="3"/>
       <c r="B380" s="3"/>
       <c r="C380" s="3"/>
@@ -18154,7 +18541,7 @@
       <c r="AH380" s="3"/>
       <c r="AI380" s="3"/>
     </row>
-    <row r="381" ht="12.75" customHeight="1">
+    <row r="381" spans="1:35" ht="12.75" customHeight="1">
       <c r="A381" s="3"/>
       <c r="B381" s="3"/>
       <c r="C381" s="3"/>
@@ -18191,7 +18578,7 @@
       <c r="AH381" s="3"/>
       <c r="AI381" s="3"/>
     </row>
-    <row r="382" ht="12.75" customHeight="1">
+    <row r="382" spans="1:35" ht="12.75" customHeight="1">
       <c r="A382" s="3"/>
       <c r="B382" s="3"/>
       <c r="C382" s="3"/>
@@ -18228,7 +18615,7 @@
       <c r="AH382" s="3"/>
       <c r="AI382" s="3"/>
     </row>
-    <row r="383" ht="12.75" customHeight="1">
+    <row r="383" spans="1:35" ht="12.75" customHeight="1">
       <c r="A383" s="3"/>
       <c r="B383" s="3"/>
       <c r="C383" s="3"/>
@@ -18265,7 +18652,7 @@
       <c r="AH383" s="3"/>
       <c r="AI383" s="3"/>
     </row>
-    <row r="384" ht="12.75" customHeight="1">
+    <row r="384" spans="1:35" ht="12.75" customHeight="1">
       <c r="A384" s="3"/>
       <c r="B384" s="3"/>
       <c r="C384" s="3"/>
@@ -18302,7 +18689,7 @@
       <c r="AH384" s="3"/>
       <c r="AI384" s="3"/>
     </row>
-    <row r="385" ht="12.75" customHeight="1">
+    <row r="385" spans="1:35" ht="12.75" customHeight="1">
       <c r="A385" s="3"/>
       <c r="B385" s="3"/>
       <c r="C385" s="3"/>
@@ -18339,7 +18726,7 @@
       <c r="AH385" s="3"/>
       <c r="AI385" s="3"/>
     </row>
-    <row r="386" ht="12.75" customHeight="1">
+    <row r="386" spans="1:35" ht="12.75" customHeight="1">
       <c r="A386" s="3"/>
       <c r="B386" s="3"/>
       <c r="C386" s="3"/>
@@ -18376,7 +18763,7 @@
       <c r="AH386" s="3"/>
       <c r="AI386" s="3"/>
     </row>
-    <row r="387" ht="12.75" customHeight="1">
+    <row r="387" spans="1:35" ht="12.75" customHeight="1">
       <c r="A387" s="3"/>
       <c r="B387" s="3"/>
       <c r="C387" s="3"/>
@@ -18413,7 +18800,7 @@
       <c r="AH387" s="3"/>
       <c r="AI387" s="3"/>
     </row>
-    <row r="388" ht="12.75" customHeight="1">
+    <row r="388" spans="1:35" ht="12.75" customHeight="1">
       <c r="A388" s="3"/>
       <c r="B388" s="3"/>
       <c r="C388" s="3"/>
@@ -18450,7 +18837,7 @@
       <c r="AH388" s="3"/>
       <c r="AI388" s="3"/>
     </row>
-    <row r="389" ht="12.75" customHeight="1">
+    <row r="389" spans="1:35" ht="12.75" customHeight="1">
       <c r="A389" s="3"/>
       <c r="B389" s="3"/>
       <c r="C389" s="3"/>
@@ -18487,7 +18874,7 @@
       <c r="AH389" s="3"/>
       <c r="AI389" s="3"/>
     </row>
-    <row r="390" ht="12.75" customHeight="1">
+    <row r="390" spans="1:35" ht="12.75" customHeight="1">
       <c r="A390" s="3"/>
       <c r="B390" s="3"/>
       <c r="C390" s="3"/>
@@ -18524,7 +18911,7 @@
       <c r="AH390" s="3"/>
       <c r="AI390" s="3"/>
     </row>
-    <row r="391" ht="12.75" customHeight="1">
+    <row r="391" spans="1:35" ht="12.75" customHeight="1">
       <c r="A391" s="3"/>
       <c r="B391" s="3"/>
       <c r="C391" s="3"/>
@@ -18561,15 +18948,15 @@
       <c r="AH391" s="3"/>
       <c r="AI391" s="3"/>
     </row>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="392" spans="1:35" ht="15.75" customHeight="1"/>
+    <row r="393" spans="1:35" ht="15.75" customHeight="1"/>
+    <row r="394" spans="1:35" ht="15.75" customHeight="1"/>
+    <row r="395" spans="1:35" ht="15.75" customHeight="1"/>
+    <row r="396" spans="1:35" ht="15.75" customHeight="1"/>
+    <row r="397" spans="1:35" ht="15.75" customHeight="1"/>
+    <row r="398" spans="1:35" ht="15.75" customHeight="1"/>
+    <row r="399" spans="1:35" ht="15.75" customHeight="1"/>
+    <row r="400" spans="1:35" ht="15.75" customHeight="1"/>
     <row r="401" ht="15.75" customHeight="1"/>
     <row r="402" ht="15.75" customHeight="1"/>
     <row r="403" ht="15.75" customHeight="1"/>
@@ -19171,31 +19558,31 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:Y1000"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.0"/>
-    <col customWidth="1" min="2" max="3" width="7.88"/>
-    <col customWidth="1" min="4" max="4" width="11.13"/>
-    <col customWidth="1" min="5" max="25" width="7.88"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="3" width="7.875" customWidth="1"/>
+    <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="5" max="25" width="7.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:25" ht="12.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -19232,7 +19619,7 @@
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
+    <row r="2" spans="1:25" ht="12.75" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
@@ -19269,7 +19656,7 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3" ht="12.75" customHeight="1">
+    <row r="3" spans="1:25" ht="12.75" customHeight="1">
       <c r="A3" s="10"/>
       <c r="B3" s="12" t="s">
         <v>16</v>
@@ -19304,7 +19691,7 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
     </row>
-    <row r="4" ht="12.75" customHeight="1">
+    <row r="4" spans="1:25" ht="12.75" customHeight="1">
       <c r="A4" s="10"/>
       <c r="B4" s="12" t="s">
         <v>16</v>
@@ -19339,7 +19726,7 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
     </row>
-    <row r="5" ht="12.75" customHeight="1">
+    <row r="5" spans="1:25" ht="12.75" customHeight="1">
       <c r="A5" s="10"/>
       <c r="B5" s="12" t="s">
         <v>16</v>
@@ -19374,7 +19761,7 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
     </row>
-    <row r="6" ht="12.75" customHeight="1">
+    <row r="6" spans="1:25" ht="12.75" customHeight="1">
       <c r="A6" s="10"/>
       <c r="B6" s="12" t="s">
         <v>16</v>
@@ -19409,7 +19796,7 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
     </row>
-    <row r="7" ht="12.75" customHeight="1">
+    <row r="7" spans="1:25" ht="12.75" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" s="12" t="s">
         <v>16</v>
@@ -19444,7 +19831,7 @@
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
     </row>
-    <row r="8" ht="12.75" customHeight="1">
+    <row r="8" spans="1:25" ht="12.75" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="12" t="s">
         <v>16</v>
@@ -19479,7 +19866,7 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
     </row>
-    <row r="9" ht="12.75" customHeight="1">
+    <row r="9" spans="1:25" ht="12.75" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>49</v>
       </c>
@@ -19516,7 +19903,7 @@
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
     </row>
-    <row r="10" ht="12.75" customHeight="1">
+    <row r="10" spans="1:25" ht="12.75" customHeight="1">
       <c r="A10" s="10"/>
       <c r="B10" s="12" t="s">
         <v>50</v>
@@ -19551,7 +19938,7 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
     </row>
-    <row r="11" ht="12.75" customHeight="1">
+    <row r="11" spans="1:25" ht="12.75" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="12" t="s">
         <v>50</v>
@@ -19586,7 +19973,7 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
     </row>
-    <row r="12" ht="12.75" customHeight="1">
+    <row r="12" spans="1:25" ht="12.75" customHeight="1">
       <c r="A12" s="10"/>
       <c r="B12" s="12" t="s">
         <v>50</v>
@@ -19621,7 +20008,7 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
     </row>
-    <row r="13" ht="12.75" customHeight="1">
+    <row r="13" spans="1:25" ht="12.75" customHeight="1">
       <c r="A13" s="10"/>
       <c r="B13" s="12" t="s">
         <v>50</v>
@@ -19656,7 +20043,7 @@
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
     </row>
-    <row r="14" ht="12.75" customHeight="1">
+    <row r="14" spans="1:25" ht="12.75" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="12" t="s">
         <v>50</v>
@@ -19691,7 +20078,7 @@
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
     </row>
-    <row r="15" ht="12.75" customHeight="1">
+    <row r="15" spans="1:25" ht="12.75" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -19718,7 +20105,7 @@
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
     </row>
-    <row r="16" ht="12.75" customHeight="1">
+    <row r="16" spans="1:25" ht="12.75" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -19745,7 +20132,7 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
     </row>
-    <row r="17" ht="12.75" customHeight="1">
+    <row r="17" spans="1:25" ht="12.75" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -19772,7 +20159,7 @@
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
     </row>
-    <row r="18" ht="12.75" customHeight="1">
+    <row r="18" spans="1:25" ht="12.75" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -19799,7 +20186,7 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
     </row>
-    <row r="19" ht="12.75" customHeight="1">
+    <row r="19" spans="1:25" ht="12.75" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -19826,7 +20213,7 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
     </row>
-    <row r="20" ht="12.75" customHeight="1">
+    <row r="20" spans="1:25" ht="12.75" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -19853,7 +20240,7 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
     </row>
-    <row r="21" ht="12.75" customHeight="1">
+    <row r="21" spans="1:25" ht="12.75" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -19880,7 +20267,7 @@
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
     </row>
-    <row r="22" ht="12.75" customHeight="1">
+    <row r="22" spans="1:25" ht="12.75" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -19907,7 +20294,7 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
     </row>
-    <row r="23" ht="12.75" customHeight="1">
+    <row r="23" spans="1:25" ht="12.75" customHeight="1">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -19934,7 +20321,7 @@
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
     </row>
-    <row r="24" ht="12.75" customHeight="1">
+    <row r="24" spans="1:25" ht="12.75" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -19961,7 +20348,7 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
     </row>
-    <row r="25" ht="12.75" customHeight="1">
+    <row r="25" spans="1:25" ht="12.75" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -19988,7 +20375,7 @@
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
     </row>
-    <row r="26" ht="12.75" customHeight="1">
+    <row r="26" spans="1:25" ht="12.75" customHeight="1">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -20015,7 +20402,7 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
     </row>
-    <row r="27" ht="12.75" customHeight="1">
+    <row r="27" spans="1:25" ht="12.75" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -20042,7 +20429,7 @@
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
     </row>
-    <row r="28" ht="12.75" customHeight="1">
+    <row r="28" spans="1:25" ht="12.75" customHeight="1">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -20069,7 +20456,7 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
     </row>
-    <row r="29" ht="12.75" customHeight="1">
+    <row r="29" spans="1:25" ht="12.75" customHeight="1">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -20096,7 +20483,7 @@
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
     </row>
-    <row r="30" ht="12.75" customHeight="1">
+    <row r="30" spans="1:25" ht="12.75" customHeight="1">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -20123,7 +20510,7 @@
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
     </row>
-    <row r="31" ht="12.75" customHeight="1">
+    <row r="31" spans="1:25" ht="12.75" customHeight="1">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -20150,7 +20537,7 @@
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
     </row>
-    <row r="32" ht="12.75" customHeight="1">
+    <row r="32" spans="1:25" ht="12.75" customHeight="1">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -20177,7 +20564,7 @@
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
     </row>
-    <row r="33" ht="12.75" customHeight="1">
+    <row r="33" spans="1:25" ht="12.75" customHeight="1">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -20204,7 +20591,7 @@
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
     </row>
-    <row r="34" ht="12.75" customHeight="1">
+    <row r="34" spans="1:25" ht="12.75" customHeight="1">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -20231,7 +20618,7 @@
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
     </row>
-    <row r="35" ht="12.75" customHeight="1">
+    <row r="35" spans="1:25" ht="12.75" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -20258,7 +20645,7 @@
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
     </row>
-    <row r="36" ht="12.75" customHeight="1">
+    <row r="36" spans="1:25" ht="12.75" customHeight="1">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -20285,7 +20672,7 @@
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
     </row>
-    <row r="37" ht="12.75" customHeight="1">
+    <row r="37" spans="1:25" ht="12.75" customHeight="1">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -20312,7 +20699,7 @@
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
     </row>
-    <row r="38" ht="12.75" customHeight="1">
+    <row r="38" spans="1:25" ht="12.75" customHeight="1">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -20339,7 +20726,7 @@
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
     </row>
-    <row r="39" ht="12.75" customHeight="1">
+    <row r="39" spans="1:25" ht="12.75" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -20366,7 +20753,7 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
     </row>
-    <row r="40" ht="12.75" customHeight="1">
+    <row r="40" spans="1:25" ht="12.75" customHeight="1">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -20393,7 +20780,7 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
     </row>
-    <row r="41" ht="12.75" customHeight="1">
+    <row r="41" spans="1:25" ht="12.75" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -20420,7 +20807,7 @@
       <c r="X41" s="3"/>
       <c r="Y41" s="3"/>
     </row>
-    <row r="42" ht="12.75" customHeight="1">
+    <row r="42" spans="1:25" ht="12.75" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -20447,7 +20834,7 @@
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
     </row>
-    <row r="43" ht="12.75" customHeight="1">
+    <row r="43" spans="1:25" ht="12.75" customHeight="1">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -20474,7 +20861,7 @@
       <c r="X43" s="3"/>
       <c r="Y43" s="3"/>
     </row>
-    <row r="44" ht="12.75" customHeight="1">
+    <row r="44" spans="1:25" ht="12.75" customHeight="1">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -20501,7 +20888,7 @@
       <c r="X44" s="3"/>
       <c r="Y44" s="3"/>
     </row>
-    <row r="45" ht="12.75" customHeight="1">
+    <row r="45" spans="1:25" ht="12.75" customHeight="1">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -20528,7 +20915,7 @@
       <c r="X45" s="3"/>
       <c r="Y45" s="3"/>
     </row>
-    <row r="46" ht="12.75" customHeight="1">
+    <row r="46" spans="1:25" ht="12.75" customHeight="1">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -20555,7 +20942,7 @@
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
     </row>
-    <row r="47" ht="12.75" customHeight="1">
+    <row r="47" spans="1:25" ht="12.75" customHeight="1">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -20582,7 +20969,7 @@
       <c r="X47" s="3"/>
       <c r="Y47" s="3"/>
     </row>
-    <row r="48" ht="12.75" customHeight="1">
+    <row r="48" spans="1:25" ht="12.75" customHeight="1">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -20609,7 +20996,7 @@
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
     </row>
-    <row r="49" ht="12.75" customHeight="1">
+    <row r="49" spans="1:25" ht="12.75" customHeight="1">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -20636,7 +21023,7 @@
       <c r="X49" s="3"/>
       <c r="Y49" s="3"/>
     </row>
-    <row r="50" ht="12.75" customHeight="1">
+    <row r="50" spans="1:25" ht="12.75" customHeight="1">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -20663,7 +21050,7 @@
       <c r="X50" s="3"/>
       <c r="Y50" s="3"/>
     </row>
-    <row r="51" ht="12.75" customHeight="1">
+    <row r="51" spans="1:25" ht="12.75" customHeight="1">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -20690,7 +21077,7 @@
       <c r="X51" s="3"/>
       <c r="Y51" s="3"/>
     </row>
-    <row r="52" ht="12.75" customHeight="1">
+    <row r="52" spans="1:25" ht="12.75" customHeight="1">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -20717,7 +21104,7 @@
       <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
     </row>
-    <row r="53" ht="12.75" customHeight="1">
+    <row r="53" spans="1:25" ht="12.75" customHeight="1">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -20744,7 +21131,7 @@
       <c r="X53" s="3"/>
       <c r="Y53" s="3"/>
     </row>
-    <row r="54" ht="12.75" customHeight="1">
+    <row r="54" spans="1:25" ht="12.75" customHeight="1">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -20771,7 +21158,7 @@
       <c r="X54" s="3"/>
       <c r="Y54" s="3"/>
     </row>
-    <row r="55" ht="12.75" customHeight="1">
+    <row r="55" spans="1:25" ht="12.75" customHeight="1">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -20798,7 +21185,7 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
     </row>
-    <row r="56" ht="12.75" customHeight="1">
+    <row r="56" spans="1:25" ht="12.75" customHeight="1">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -20825,7 +21212,7 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
     </row>
-    <row r="57" ht="12.75" customHeight="1">
+    <row r="57" spans="1:25" ht="12.75" customHeight="1">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -20852,7 +21239,7 @@
       <c r="X57" s="3"/>
       <c r="Y57" s="3"/>
     </row>
-    <row r="58" ht="12.75" customHeight="1">
+    <row r="58" spans="1:25" ht="12.75" customHeight="1">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -20879,7 +21266,7 @@
       <c r="X58" s="3"/>
       <c r="Y58" s="3"/>
     </row>
-    <row r="59" ht="12.75" customHeight="1">
+    <row r="59" spans="1:25" ht="12.75" customHeight="1">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -20906,7 +21293,7 @@
       <c r="X59" s="3"/>
       <c r="Y59" s="3"/>
     </row>
-    <row r="60" ht="12.75" customHeight="1">
+    <row r="60" spans="1:25" ht="12.75" customHeight="1">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -20933,7 +21320,7 @@
       <c r="X60" s="3"/>
       <c r="Y60" s="3"/>
     </row>
-    <row r="61" ht="12.75" customHeight="1">
+    <row r="61" spans="1:25" ht="12.75" customHeight="1">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -20960,7 +21347,7 @@
       <c r="X61" s="3"/>
       <c r="Y61" s="3"/>
     </row>
-    <row r="62" ht="12.75" customHeight="1">
+    <row r="62" spans="1:25" ht="12.75" customHeight="1">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -20987,7 +21374,7 @@
       <c r="X62" s="3"/>
       <c r="Y62" s="3"/>
     </row>
-    <row r="63" ht="12.75" customHeight="1">
+    <row r="63" spans="1:25" ht="12.75" customHeight="1">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -21014,7 +21401,7 @@
       <c r="X63" s="3"/>
       <c r="Y63" s="3"/>
     </row>
-    <row r="64" ht="12.75" customHeight="1">
+    <row r="64" spans="1:25" ht="12.75" customHeight="1">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -21041,7 +21428,7 @@
       <c r="X64" s="3"/>
       <c r="Y64" s="3"/>
     </row>
-    <row r="65" ht="12.75" customHeight="1">
+    <row r="65" spans="1:25" ht="12.75" customHeight="1">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -21068,7 +21455,7 @@
       <c r="X65" s="3"/>
       <c r="Y65" s="3"/>
     </row>
-    <row r="66" ht="12.75" customHeight="1">
+    <row r="66" spans="1:25" ht="12.75" customHeight="1">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -21095,7 +21482,7 @@
       <c r="X66" s="3"/>
       <c r="Y66" s="3"/>
     </row>
-    <row r="67" ht="12.75" customHeight="1">
+    <row r="67" spans="1:25" ht="12.75" customHeight="1">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -21122,7 +21509,7 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
     </row>
-    <row r="68" ht="12.75" customHeight="1">
+    <row r="68" spans="1:25" ht="12.75" customHeight="1">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -21149,7 +21536,7 @@
       <c r="X68" s="3"/>
       <c r="Y68" s="3"/>
     </row>
-    <row r="69" ht="12.75" customHeight="1">
+    <row r="69" spans="1:25" ht="12.75" customHeight="1">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -21176,7 +21563,7 @@
       <c r="X69" s="3"/>
       <c r="Y69" s="3"/>
     </row>
-    <row r="70" ht="12.75" customHeight="1">
+    <row r="70" spans="1:25" ht="12.75" customHeight="1">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -21203,7 +21590,7 @@
       <c r="X70" s="3"/>
       <c r="Y70" s="3"/>
     </row>
-    <row r="71" ht="12.75" customHeight="1">
+    <row r="71" spans="1:25" ht="12.75" customHeight="1">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -21230,7 +21617,7 @@
       <c r="X71" s="3"/>
       <c r="Y71" s="3"/>
     </row>
-    <row r="72" ht="12.75" customHeight="1">
+    <row r="72" spans="1:25" ht="12.75" customHeight="1">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -21257,7 +21644,7 @@
       <c r="X72" s="3"/>
       <c r="Y72" s="3"/>
     </row>
-    <row r="73" ht="12.75" customHeight="1">
+    <row r="73" spans="1:25" ht="12.75" customHeight="1">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -21284,7 +21671,7 @@
       <c r="X73" s="3"/>
       <c r="Y73" s="3"/>
     </row>
-    <row r="74" ht="12.75" customHeight="1">
+    <row r="74" spans="1:25" ht="12.75" customHeight="1">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -21311,7 +21698,7 @@
       <c r="X74" s="3"/>
       <c r="Y74" s="3"/>
     </row>
-    <row r="75" ht="12.75" customHeight="1">
+    <row r="75" spans="1:25" ht="12.75" customHeight="1">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -21338,7 +21725,7 @@
       <c r="X75" s="3"/>
       <c r="Y75" s="3"/>
     </row>
-    <row r="76" ht="12.75" customHeight="1">
+    <row r="76" spans="1:25" ht="12.75" customHeight="1">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -21365,7 +21752,7 @@
       <c r="X76" s="3"/>
       <c r="Y76" s="3"/>
     </row>
-    <row r="77" ht="12.75" customHeight="1">
+    <row r="77" spans="1:25" ht="12.75" customHeight="1">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -21392,7 +21779,7 @@
       <c r="X77" s="3"/>
       <c r="Y77" s="3"/>
     </row>
-    <row r="78" ht="12.75" customHeight="1">
+    <row r="78" spans="1:25" ht="12.75" customHeight="1">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -21419,7 +21806,7 @@
       <c r="X78" s="3"/>
       <c r="Y78" s="3"/>
     </row>
-    <row r="79" ht="12.75" customHeight="1">
+    <row r="79" spans="1:25" ht="12.75" customHeight="1">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -21446,7 +21833,7 @@
       <c r="X79" s="3"/>
       <c r="Y79" s="3"/>
     </row>
-    <row r="80" ht="12.75" customHeight="1">
+    <row r="80" spans="1:25" ht="12.75" customHeight="1">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -21473,7 +21860,7 @@
       <c r="X80" s="3"/>
       <c r="Y80" s="3"/>
     </row>
-    <row r="81" ht="12.75" customHeight="1">
+    <row r="81" spans="1:25" ht="12.75" customHeight="1">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -21500,7 +21887,7 @@
       <c r="X81" s="3"/>
       <c r="Y81" s="3"/>
     </row>
-    <row r="82" ht="12.75" customHeight="1">
+    <row r="82" spans="1:25" ht="12.75" customHeight="1">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -21527,7 +21914,7 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
     </row>
-    <row r="83" ht="12.75" customHeight="1">
+    <row r="83" spans="1:25" ht="12.75" customHeight="1">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -21554,7 +21941,7 @@
       <c r="X83" s="3"/>
       <c r="Y83" s="3"/>
     </row>
-    <row r="84" ht="12.75" customHeight="1">
+    <row r="84" spans="1:25" ht="12.75" customHeight="1">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -21581,7 +21968,7 @@
       <c r="X84" s="3"/>
       <c r="Y84" s="3"/>
     </row>
-    <row r="85" ht="12.75" customHeight="1">
+    <row r="85" spans="1:25" ht="12.75" customHeight="1">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -21608,7 +21995,7 @@
       <c r="X85" s="3"/>
       <c r="Y85" s="3"/>
     </row>
-    <row r="86" ht="12.75" customHeight="1">
+    <row r="86" spans="1:25" ht="12.75" customHeight="1">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -21635,7 +22022,7 @@
       <c r="X86" s="3"/>
       <c r="Y86" s="3"/>
     </row>
-    <row r="87" ht="12.75" customHeight="1">
+    <row r="87" spans="1:25" ht="12.75" customHeight="1">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -21662,7 +22049,7 @@
       <c r="X87" s="3"/>
       <c r="Y87" s="3"/>
     </row>
-    <row r="88" ht="12.75" customHeight="1">
+    <row r="88" spans="1:25" ht="12.75" customHeight="1">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -21689,7 +22076,7 @@
       <c r="X88" s="3"/>
       <c r="Y88" s="3"/>
     </row>
-    <row r="89" ht="12.75" customHeight="1">
+    <row r="89" spans="1:25" ht="12.75" customHeight="1">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -21716,7 +22103,7 @@
       <c r="X89" s="3"/>
       <c r="Y89" s="3"/>
     </row>
-    <row r="90" ht="12.75" customHeight="1">
+    <row r="90" spans="1:25" ht="12.75" customHeight="1">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -21743,7 +22130,7 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
     </row>
-    <row r="91" ht="12.75" customHeight="1">
+    <row r="91" spans="1:25" ht="12.75" customHeight="1">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -21770,7 +22157,7 @@
       <c r="X91" s="3"/>
       <c r="Y91" s="3"/>
     </row>
-    <row r="92" ht="12.75" customHeight="1">
+    <row r="92" spans="1:25" ht="12.75" customHeight="1">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -21797,7 +22184,7 @@
       <c r="X92" s="3"/>
       <c r="Y92" s="3"/>
     </row>
-    <row r="93" ht="12.75" customHeight="1">
+    <row r="93" spans="1:25" ht="12.75" customHeight="1">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -21824,7 +22211,7 @@
       <c r="X93" s="3"/>
       <c r="Y93" s="3"/>
     </row>
-    <row r="94" ht="12.75" customHeight="1">
+    <row r="94" spans="1:25" ht="12.75" customHeight="1">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -21851,7 +22238,7 @@
       <c r="X94" s="3"/>
       <c r="Y94" s="3"/>
     </row>
-    <row r="95" ht="12.75" customHeight="1">
+    <row r="95" spans="1:25" ht="12.75" customHeight="1">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -21878,7 +22265,7 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
     </row>
-    <row r="96" ht="12.75" customHeight="1">
+    <row r="96" spans="1:25" ht="12.75" customHeight="1">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -21905,7 +22292,7 @@
       <c r="X96" s="3"/>
       <c r="Y96" s="3"/>
     </row>
-    <row r="97" ht="12.75" customHeight="1">
+    <row r="97" spans="1:25" ht="12.75" customHeight="1">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -21932,7 +22319,7 @@
       <c r="X97" s="3"/>
       <c r="Y97" s="3"/>
     </row>
-    <row r="98" ht="12.75" customHeight="1">
+    <row r="98" spans="1:25" ht="12.75" customHeight="1">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -21959,7 +22346,7 @@
       <c r="X98" s="3"/>
       <c r="Y98" s="3"/>
     </row>
-    <row r="99" ht="12.75" customHeight="1">
+    <row r="99" spans="1:25" ht="12.75" customHeight="1">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -21986,7 +22373,7 @@
       <c r="X99" s="3"/>
       <c r="Y99" s="3"/>
     </row>
-    <row r="100" ht="12.75" customHeight="1">
+    <row r="100" spans="1:25" ht="12.75" customHeight="1">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -22013,7 +22400,7 @@
       <c r="X100" s="3"/>
       <c r="Y100" s="3"/>
     </row>
-    <row r="101" ht="12.75" customHeight="1">
+    <row r="101" spans="1:25" ht="12.75" customHeight="1">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -22040,7 +22427,7 @@
       <c r="X101" s="3"/>
       <c r="Y101" s="3"/>
     </row>
-    <row r="102" ht="12.75" customHeight="1">
+    <row r="102" spans="1:25" ht="12.75" customHeight="1">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -22067,7 +22454,7 @@
       <c r="X102" s="3"/>
       <c r="Y102" s="3"/>
     </row>
-    <row r="103" ht="12.75" customHeight="1">
+    <row r="103" spans="1:25" ht="12.75" customHeight="1">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -22094,7 +22481,7 @@
       <c r="X103" s="3"/>
       <c r="Y103" s="3"/>
     </row>
-    <row r="104" ht="12.75" customHeight="1">
+    <row r="104" spans="1:25" ht="12.75" customHeight="1">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -22121,7 +22508,7 @@
       <c r="X104" s="3"/>
       <c r="Y104" s="3"/>
     </row>
-    <row r="105" ht="12.75" customHeight="1">
+    <row r="105" spans="1:25" ht="12.75" customHeight="1">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -22148,7 +22535,7 @@
       <c r="X105" s="3"/>
       <c r="Y105" s="3"/>
     </row>
-    <row r="106" ht="12.75" customHeight="1">
+    <row r="106" spans="1:25" ht="12.75" customHeight="1">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -22175,7 +22562,7 @@
       <c r="X106" s="3"/>
       <c r="Y106" s="3"/>
     </row>
-    <row r="107" ht="12.75" customHeight="1">
+    <row r="107" spans="1:25" ht="12.75" customHeight="1">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -22202,7 +22589,7 @@
       <c r="X107" s="3"/>
       <c r="Y107" s="3"/>
     </row>
-    <row r="108" ht="12.75" customHeight="1">
+    <row r="108" spans="1:25" ht="12.75" customHeight="1">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -22229,7 +22616,7 @@
       <c r="X108" s="3"/>
       <c r="Y108" s="3"/>
     </row>
-    <row r="109" ht="12.75" customHeight="1">
+    <row r="109" spans="1:25" ht="12.75" customHeight="1">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -22256,7 +22643,7 @@
       <c r="X109" s="3"/>
       <c r="Y109" s="3"/>
     </row>
-    <row r="110" ht="12.75" customHeight="1">
+    <row r="110" spans="1:25" ht="12.75" customHeight="1">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -22283,7 +22670,7 @@
       <c r="X110" s="3"/>
       <c r="Y110" s="3"/>
     </row>
-    <row r="111" ht="12.75" customHeight="1">
+    <row r="111" spans="1:25" ht="12.75" customHeight="1">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -22310,7 +22697,7 @@
       <c r="X111" s="3"/>
       <c r="Y111" s="3"/>
     </row>
-    <row r="112" ht="12.75" customHeight="1">
+    <row r="112" spans="1:25" ht="12.75" customHeight="1">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -22337,7 +22724,7 @@
       <c r="X112" s="3"/>
       <c r="Y112" s="3"/>
     </row>
-    <row r="113" ht="12.75" customHeight="1">
+    <row r="113" spans="1:25" ht="12.75" customHeight="1">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -22364,7 +22751,7 @@
       <c r="X113" s="3"/>
       <c r="Y113" s="3"/>
     </row>
-    <row r="114" ht="12.75" customHeight="1">
+    <row r="114" spans="1:25" ht="12.75" customHeight="1">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -22391,7 +22778,7 @@
       <c r="X114" s="3"/>
       <c r="Y114" s="3"/>
     </row>
-    <row r="115" ht="12.75" customHeight="1">
+    <row r="115" spans="1:25" ht="12.75" customHeight="1">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -22418,7 +22805,7 @@
       <c r="X115" s="3"/>
       <c r="Y115" s="3"/>
     </row>
-    <row r="116" ht="12.75" customHeight="1">
+    <row r="116" spans="1:25" ht="12.75" customHeight="1">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -22445,7 +22832,7 @@
       <c r="X116" s="3"/>
       <c r="Y116" s="3"/>
     </row>
-    <row r="117" ht="12.75" customHeight="1">
+    <row r="117" spans="1:25" ht="12.75" customHeight="1">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -22472,7 +22859,7 @@
       <c r="X117" s="3"/>
       <c r="Y117" s="3"/>
     </row>
-    <row r="118" ht="12.75" customHeight="1">
+    <row r="118" spans="1:25" ht="12.75" customHeight="1">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -22499,7 +22886,7 @@
       <c r="X118" s="3"/>
       <c r="Y118" s="3"/>
     </row>
-    <row r="119" ht="12.75" customHeight="1">
+    <row r="119" spans="1:25" ht="12.75" customHeight="1">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -22526,7 +22913,7 @@
       <c r="X119" s="3"/>
       <c r="Y119" s="3"/>
     </row>
-    <row r="120" ht="12.75" customHeight="1">
+    <row r="120" spans="1:25" ht="12.75" customHeight="1">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -22553,7 +22940,7 @@
       <c r="X120" s="3"/>
       <c r="Y120" s="3"/>
     </row>
-    <row r="121" ht="12.75" customHeight="1">
+    <row r="121" spans="1:25" ht="12.75" customHeight="1">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -22580,7 +22967,7 @@
       <c r="X121" s="3"/>
       <c r="Y121" s="3"/>
     </row>
-    <row r="122" ht="12.75" customHeight="1">
+    <row r="122" spans="1:25" ht="12.75" customHeight="1">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -22607,7 +22994,7 @@
       <c r="X122" s="3"/>
       <c r="Y122" s="3"/>
     </row>
-    <row r="123" ht="12.75" customHeight="1">
+    <row r="123" spans="1:25" ht="12.75" customHeight="1">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -22634,7 +23021,7 @@
       <c r="X123" s="3"/>
       <c r="Y123" s="3"/>
     </row>
-    <row r="124" ht="12.75" customHeight="1">
+    <row r="124" spans="1:25" ht="12.75" customHeight="1">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -22661,7 +23048,7 @@
       <c r="X124" s="3"/>
       <c r="Y124" s="3"/>
     </row>
-    <row r="125" ht="12.75" customHeight="1">
+    <row r="125" spans="1:25" ht="12.75" customHeight="1">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -22688,7 +23075,7 @@
       <c r="X125" s="3"/>
       <c r="Y125" s="3"/>
     </row>
-    <row r="126" ht="12.75" customHeight="1">
+    <row r="126" spans="1:25" ht="12.75" customHeight="1">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -22715,7 +23102,7 @@
       <c r="X126" s="3"/>
       <c r="Y126" s="3"/>
     </row>
-    <row r="127" ht="12.75" customHeight="1">
+    <row r="127" spans="1:25" ht="12.75" customHeight="1">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -22742,7 +23129,7 @@
       <c r="X127" s="3"/>
       <c r="Y127" s="3"/>
     </row>
-    <row r="128" ht="12.75" customHeight="1">
+    <row r="128" spans="1:25" ht="12.75" customHeight="1">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -22769,7 +23156,7 @@
       <c r="X128" s="3"/>
       <c r="Y128" s="3"/>
     </row>
-    <row r="129" ht="12.75" customHeight="1">
+    <row r="129" spans="1:25" ht="12.75" customHeight="1">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -22796,7 +23183,7 @@
       <c r="X129" s="3"/>
       <c r="Y129" s="3"/>
     </row>
-    <row r="130" ht="12.75" customHeight="1">
+    <row r="130" spans="1:25" ht="12.75" customHeight="1">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -22823,7 +23210,7 @@
       <c r="X130" s="3"/>
       <c r="Y130" s="3"/>
     </row>
-    <row r="131" ht="12.75" customHeight="1">
+    <row r="131" spans="1:25" ht="12.75" customHeight="1">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -22850,7 +23237,7 @@
       <c r="X131" s="3"/>
       <c r="Y131" s="3"/>
     </row>
-    <row r="132" ht="12.75" customHeight="1">
+    <row r="132" spans="1:25" ht="12.75" customHeight="1">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -22877,7 +23264,7 @@
       <c r="X132" s="3"/>
       <c r="Y132" s="3"/>
     </row>
-    <row r="133" ht="12.75" customHeight="1">
+    <row r="133" spans="1:25" ht="12.75" customHeight="1">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -22904,7 +23291,7 @@
       <c r="X133" s="3"/>
       <c r="Y133" s="3"/>
     </row>
-    <row r="134" ht="12.75" customHeight="1">
+    <row r="134" spans="1:25" ht="12.75" customHeight="1">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -22931,7 +23318,7 @@
       <c r="X134" s="3"/>
       <c r="Y134" s="3"/>
     </row>
-    <row r="135" ht="12.75" customHeight="1">
+    <row r="135" spans="1:25" ht="12.75" customHeight="1">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -22958,7 +23345,7 @@
       <c r="X135" s="3"/>
       <c r="Y135" s="3"/>
     </row>
-    <row r="136" ht="12.75" customHeight="1">
+    <row r="136" spans="1:25" ht="12.75" customHeight="1">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -22985,7 +23372,7 @@
       <c r="X136" s="3"/>
       <c r="Y136" s="3"/>
     </row>
-    <row r="137" ht="12.75" customHeight="1">
+    <row r="137" spans="1:25" ht="12.75" customHeight="1">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -23012,7 +23399,7 @@
       <c r="X137" s="3"/>
       <c r="Y137" s="3"/>
     </row>
-    <row r="138" ht="12.75" customHeight="1">
+    <row r="138" spans="1:25" ht="12.75" customHeight="1">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -23039,7 +23426,7 @@
       <c r="X138" s="3"/>
       <c r="Y138" s="3"/>
     </row>
-    <row r="139" ht="12.75" customHeight="1">
+    <row r="139" spans="1:25" ht="12.75" customHeight="1">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -23066,7 +23453,7 @@
       <c r="X139" s="3"/>
       <c r="Y139" s="3"/>
     </row>
-    <row r="140" ht="12.75" customHeight="1">
+    <row r="140" spans="1:25" ht="12.75" customHeight="1">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -23093,7 +23480,7 @@
       <c r="X140" s="3"/>
       <c r="Y140" s="3"/>
     </row>
-    <row r="141" ht="12.75" customHeight="1">
+    <row r="141" spans="1:25" ht="12.75" customHeight="1">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -23120,7 +23507,7 @@
       <c r="X141" s="3"/>
       <c r="Y141" s="3"/>
     </row>
-    <row r="142" ht="12.75" customHeight="1">
+    <row r="142" spans="1:25" ht="12.75" customHeight="1">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -23147,7 +23534,7 @@
       <c r="X142" s="3"/>
       <c r="Y142" s="3"/>
     </row>
-    <row r="143" ht="12.75" customHeight="1">
+    <row r="143" spans="1:25" ht="12.75" customHeight="1">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -23174,7 +23561,7 @@
       <c r="X143" s="3"/>
       <c r="Y143" s="3"/>
     </row>
-    <row r="144" ht="12.75" customHeight="1">
+    <row r="144" spans="1:25" ht="12.75" customHeight="1">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -23201,7 +23588,7 @@
       <c r="X144" s="3"/>
       <c r="Y144" s="3"/>
     </row>
-    <row r="145" ht="12.75" customHeight="1">
+    <row r="145" spans="1:25" ht="12.75" customHeight="1">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -23228,7 +23615,7 @@
       <c r="X145" s="3"/>
       <c r="Y145" s="3"/>
     </row>
-    <row r="146" ht="12.75" customHeight="1">
+    <row r="146" spans="1:25" ht="12.75" customHeight="1">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -23255,7 +23642,7 @@
       <c r="X146" s="3"/>
       <c r="Y146" s="3"/>
     </row>
-    <row r="147" ht="12.75" customHeight="1">
+    <row r="147" spans="1:25" ht="12.75" customHeight="1">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -23282,7 +23669,7 @@
       <c r="X147" s="3"/>
       <c r="Y147" s="3"/>
     </row>
-    <row r="148" ht="12.75" customHeight="1">
+    <row r="148" spans="1:25" ht="12.75" customHeight="1">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -23309,7 +23696,7 @@
       <c r="X148" s="3"/>
       <c r="Y148" s="3"/>
     </row>
-    <row r="149" ht="12.75" customHeight="1">
+    <row r="149" spans="1:25" ht="12.75" customHeight="1">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -23336,7 +23723,7 @@
       <c r="X149" s="3"/>
       <c r="Y149" s="3"/>
     </row>
-    <row r="150" ht="12.75" customHeight="1">
+    <row r="150" spans="1:25" ht="12.75" customHeight="1">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -23363,7 +23750,7 @@
       <c r="X150" s="3"/>
       <c r="Y150" s="3"/>
     </row>
-    <row r="151" ht="12.75" customHeight="1">
+    <row r="151" spans="1:25" ht="12.75" customHeight="1">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -23390,7 +23777,7 @@
       <c r="X151" s="3"/>
       <c r="Y151" s="3"/>
     </row>
-    <row r="152" ht="12.75" customHeight="1">
+    <row r="152" spans="1:25" ht="12.75" customHeight="1">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -23417,7 +23804,7 @@
       <c r="X152" s="3"/>
       <c r="Y152" s="3"/>
     </row>
-    <row r="153" ht="12.75" customHeight="1">
+    <row r="153" spans="1:25" ht="12.75" customHeight="1">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -23444,7 +23831,7 @@
       <c r="X153" s="3"/>
       <c r="Y153" s="3"/>
     </row>
-    <row r="154" ht="12.75" customHeight="1">
+    <row r="154" spans="1:25" ht="12.75" customHeight="1">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -23471,7 +23858,7 @@
       <c r="X154" s="3"/>
       <c r="Y154" s="3"/>
     </row>
-    <row r="155" ht="12.75" customHeight="1">
+    <row r="155" spans="1:25" ht="12.75" customHeight="1">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -23498,7 +23885,7 @@
       <c r="X155" s="3"/>
       <c r="Y155" s="3"/>
     </row>
-    <row r="156" ht="12.75" customHeight="1">
+    <row r="156" spans="1:25" ht="12.75" customHeight="1">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -23525,7 +23912,7 @@
       <c r="X156" s="3"/>
       <c r="Y156" s="3"/>
     </row>
-    <row r="157" ht="12.75" customHeight="1">
+    <row r="157" spans="1:25" ht="12.75" customHeight="1">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -23552,7 +23939,7 @@
       <c r="X157" s="3"/>
       <c r="Y157" s="3"/>
     </row>
-    <row r="158" ht="12.75" customHeight="1">
+    <row r="158" spans="1:25" ht="12.75" customHeight="1">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -23579,7 +23966,7 @@
       <c r="X158" s="3"/>
       <c r="Y158" s="3"/>
     </row>
-    <row r="159" ht="12.75" customHeight="1">
+    <row r="159" spans="1:25" ht="12.75" customHeight="1">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -23606,7 +23993,7 @@
       <c r="X159" s="3"/>
       <c r="Y159" s="3"/>
     </row>
-    <row r="160" ht="12.75" customHeight="1">
+    <row r="160" spans="1:25" ht="12.75" customHeight="1">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -23633,7 +24020,7 @@
       <c r="X160" s="3"/>
       <c r="Y160" s="3"/>
     </row>
-    <row r="161" ht="12.75" customHeight="1">
+    <row r="161" spans="1:25" ht="12.75" customHeight="1">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -23660,7 +24047,7 @@
       <c r="X161" s="3"/>
       <c r="Y161" s="3"/>
     </row>
-    <row r="162" ht="12.75" customHeight="1">
+    <row r="162" spans="1:25" ht="12.75" customHeight="1">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -23687,7 +24074,7 @@
       <c r="X162" s="3"/>
       <c r="Y162" s="3"/>
     </row>
-    <row r="163" ht="12.75" customHeight="1">
+    <row r="163" spans="1:25" ht="12.75" customHeight="1">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -23714,7 +24101,7 @@
       <c r="X163" s="3"/>
       <c r="Y163" s="3"/>
     </row>
-    <row r="164" ht="12.75" customHeight="1">
+    <row r="164" spans="1:25" ht="12.75" customHeight="1">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -23741,7 +24128,7 @@
       <c r="X164" s="3"/>
       <c r="Y164" s="3"/>
     </row>
-    <row r="165" ht="12.75" customHeight="1">
+    <row r="165" spans="1:25" ht="12.75" customHeight="1">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -23768,7 +24155,7 @@
       <c r="X165" s="3"/>
       <c r="Y165" s="3"/>
     </row>
-    <row r="166" ht="12.75" customHeight="1">
+    <row r="166" spans="1:25" ht="12.75" customHeight="1">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -23795,7 +24182,7 @@
       <c r="X166" s="3"/>
       <c r="Y166" s="3"/>
     </row>
-    <row r="167" ht="12.75" customHeight="1">
+    <row r="167" spans="1:25" ht="12.75" customHeight="1">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -23822,7 +24209,7 @@
       <c r="X167" s="3"/>
       <c r="Y167" s="3"/>
     </row>
-    <row r="168" ht="12.75" customHeight="1">
+    <row r="168" spans="1:25" ht="12.75" customHeight="1">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -23849,7 +24236,7 @@
       <c r="X168" s="3"/>
       <c r="Y168" s="3"/>
     </row>
-    <row r="169" ht="12.75" customHeight="1">
+    <row r="169" spans="1:25" ht="12.75" customHeight="1">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -23876,7 +24263,7 @@
       <c r="X169" s="3"/>
       <c r="Y169" s="3"/>
     </row>
-    <row r="170" ht="12.75" customHeight="1">
+    <row r="170" spans="1:25" ht="12.75" customHeight="1">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -23903,7 +24290,7 @@
       <c r="X170" s="3"/>
       <c r="Y170" s="3"/>
     </row>
-    <row r="171" ht="12.75" customHeight="1">
+    <row r="171" spans="1:25" ht="12.75" customHeight="1">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -23930,7 +24317,7 @@
       <c r="X171" s="3"/>
       <c r="Y171" s="3"/>
     </row>
-    <row r="172" ht="12.75" customHeight="1">
+    <row r="172" spans="1:25" ht="12.75" customHeight="1">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -23957,7 +24344,7 @@
       <c r="X172" s="3"/>
       <c r="Y172" s="3"/>
     </row>
-    <row r="173" ht="12.75" customHeight="1">
+    <row r="173" spans="1:25" ht="12.75" customHeight="1">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -23984,7 +24371,7 @@
       <c r="X173" s="3"/>
       <c r="Y173" s="3"/>
     </row>
-    <row r="174" ht="12.75" customHeight="1">
+    <row r="174" spans="1:25" ht="12.75" customHeight="1">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -24011,7 +24398,7 @@
       <c r="X174" s="3"/>
       <c r="Y174" s="3"/>
     </row>
-    <row r="175" ht="12.75" customHeight="1">
+    <row r="175" spans="1:25" ht="12.75" customHeight="1">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -24038,7 +24425,7 @@
       <c r="X175" s="3"/>
       <c r="Y175" s="3"/>
     </row>
-    <row r="176" ht="12.75" customHeight="1">
+    <row r="176" spans="1:25" ht="12.75" customHeight="1">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -24065,7 +24452,7 @@
       <c r="X176" s="3"/>
       <c r="Y176" s="3"/>
     </row>
-    <row r="177" ht="12.75" customHeight="1">
+    <row r="177" spans="1:25" ht="12.75" customHeight="1">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -24092,7 +24479,7 @@
       <c r="X177" s="3"/>
       <c r="Y177" s="3"/>
     </row>
-    <row r="178" ht="12.75" customHeight="1">
+    <row r="178" spans="1:25" ht="12.75" customHeight="1">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -24119,7 +24506,7 @@
       <c r="X178" s="3"/>
       <c r="Y178" s="3"/>
     </row>
-    <row r="179" ht="12.75" customHeight="1">
+    <row r="179" spans="1:25" ht="12.75" customHeight="1">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -24146,7 +24533,7 @@
       <c r="X179" s="3"/>
       <c r="Y179" s="3"/>
     </row>
-    <row r="180" ht="12.75" customHeight="1">
+    <row r="180" spans="1:25" ht="12.75" customHeight="1">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -24173,7 +24560,7 @@
       <c r="X180" s="3"/>
       <c r="Y180" s="3"/>
     </row>
-    <row r="181" ht="12.75" customHeight="1">
+    <row r="181" spans="1:25" ht="12.75" customHeight="1">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -24200,7 +24587,7 @@
       <c r="X181" s="3"/>
       <c r="Y181" s="3"/>
     </row>
-    <row r="182" ht="12.75" customHeight="1">
+    <row r="182" spans="1:25" ht="12.75" customHeight="1">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -24227,7 +24614,7 @@
       <c r="X182" s="3"/>
       <c r="Y182" s="3"/>
     </row>
-    <row r="183" ht="12.75" customHeight="1">
+    <row r="183" spans="1:25" ht="12.75" customHeight="1">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -24254,7 +24641,7 @@
       <c r="X183" s="3"/>
       <c r="Y183" s="3"/>
     </row>
-    <row r="184" ht="12.75" customHeight="1">
+    <row r="184" spans="1:25" ht="12.75" customHeight="1">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -24281,7 +24668,7 @@
       <c r="X184" s="3"/>
       <c r="Y184" s="3"/>
     </row>
-    <row r="185" ht="12.75" customHeight="1">
+    <row r="185" spans="1:25" ht="12.75" customHeight="1">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -24308,7 +24695,7 @@
       <c r="X185" s="3"/>
       <c r="Y185" s="3"/>
     </row>
-    <row r="186" ht="12.75" customHeight="1">
+    <row r="186" spans="1:25" ht="12.75" customHeight="1">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -24335,7 +24722,7 @@
       <c r="X186" s="3"/>
       <c r="Y186" s="3"/>
     </row>
-    <row r="187" ht="12.75" customHeight="1">
+    <row r="187" spans="1:25" ht="12.75" customHeight="1">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -24362,7 +24749,7 @@
       <c r="X187" s="3"/>
       <c r="Y187" s="3"/>
     </row>
-    <row r="188" ht="12.75" customHeight="1">
+    <row r="188" spans="1:25" ht="12.75" customHeight="1">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -24389,7 +24776,7 @@
       <c r="X188" s="3"/>
       <c r="Y188" s="3"/>
     </row>
-    <row r="189" ht="12.75" customHeight="1">
+    <row r="189" spans="1:25" ht="12.75" customHeight="1">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -24416,7 +24803,7 @@
       <c r="X189" s="3"/>
       <c r="Y189" s="3"/>
     </row>
-    <row r="190" ht="12.75" customHeight="1">
+    <row r="190" spans="1:25" ht="12.75" customHeight="1">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -24443,7 +24830,7 @@
       <c r="X190" s="3"/>
       <c r="Y190" s="3"/>
     </row>
-    <row r="191" ht="12.75" customHeight="1">
+    <row r="191" spans="1:25" ht="12.75" customHeight="1">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -24470,7 +24857,7 @@
       <c r="X191" s="3"/>
       <c r="Y191" s="3"/>
     </row>
-    <row r="192" ht="12.75" customHeight="1">
+    <row r="192" spans="1:25" ht="12.75" customHeight="1">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -24497,7 +24884,7 @@
       <c r="X192" s="3"/>
       <c r="Y192" s="3"/>
     </row>
-    <row r="193" ht="12.75" customHeight="1">
+    <row r="193" spans="1:25" ht="12.75" customHeight="1">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -24524,7 +24911,7 @@
       <c r="X193" s="3"/>
       <c r="Y193" s="3"/>
     </row>
-    <row r="194" ht="12.75" customHeight="1">
+    <row r="194" spans="1:25" ht="12.75" customHeight="1">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -24551,7 +24938,7 @@
       <c r="X194" s="3"/>
       <c r="Y194" s="3"/>
     </row>
-    <row r="195" ht="12.75" customHeight="1">
+    <row r="195" spans="1:25" ht="12.75" customHeight="1">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -24578,7 +24965,7 @@
       <c r="X195" s="3"/>
       <c r="Y195" s="3"/>
     </row>
-    <row r="196" ht="12.75" customHeight="1">
+    <row r="196" spans="1:25" ht="12.75" customHeight="1">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -24605,7 +24992,7 @@
       <c r="X196" s="3"/>
       <c r="Y196" s="3"/>
     </row>
-    <row r="197" ht="12.75" customHeight="1">
+    <row r="197" spans="1:25" ht="12.75" customHeight="1">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -24632,7 +25019,7 @@
       <c r="X197" s="3"/>
       <c r="Y197" s="3"/>
     </row>
-    <row r="198" ht="12.75" customHeight="1">
+    <row r="198" spans="1:25" ht="12.75" customHeight="1">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -24659,7 +25046,7 @@
       <c r="X198" s="3"/>
       <c r="Y198" s="3"/>
     </row>
-    <row r="199" ht="12.75" customHeight="1">
+    <row r="199" spans="1:25" ht="12.75" customHeight="1">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -24686,7 +25073,7 @@
       <c r="X199" s="3"/>
       <c r="Y199" s="3"/>
     </row>
-    <row r="200" ht="12.75" customHeight="1">
+    <row r="200" spans="1:25" ht="12.75" customHeight="1">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -24713,7 +25100,7 @@
       <c r="X200" s="3"/>
       <c r="Y200" s="3"/>
     </row>
-    <row r="201" ht="12.75" customHeight="1">
+    <row r="201" spans="1:25" ht="12.75" customHeight="1">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -24740,7 +25127,7 @@
       <c r="X201" s="3"/>
       <c r="Y201" s="3"/>
     </row>
-    <row r="202" ht="12.75" customHeight="1">
+    <row r="202" spans="1:25" ht="12.75" customHeight="1">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -24767,7 +25154,7 @@
       <c r="X202" s="3"/>
       <c r="Y202" s="3"/>
     </row>
-    <row r="203" ht="12.75" customHeight="1">
+    <row r="203" spans="1:25" ht="12.75" customHeight="1">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -24794,7 +25181,7 @@
       <c r="X203" s="3"/>
       <c r="Y203" s="3"/>
     </row>
-    <row r="204" ht="12.75" customHeight="1">
+    <row r="204" spans="1:25" ht="12.75" customHeight="1">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -24821,7 +25208,7 @@
       <c r="X204" s="3"/>
       <c r="Y204" s="3"/>
     </row>
-    <row r="205" ht="12.75" customHeight="1">
+    <row r="205" spans="1:25" ht="12.75" customHeight="1">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -24848,7 +25235,7 @@
       <c r="X205" s="3"/>
       <c r="Y205" s="3"/>
     </row>
-    <row r="206" ht="12.75" customHeight="1">
+    <row r="206" spans="1:25" ht="12.75" customHeight="1">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -24875,7 +25262,7 @@
       <c r="X206" s="3"/>
       <c r="Y206" s="3"/>
     </row>
-    <row r="207" ht="12.75" customHeight="1">
+    <row r="207" spans="1:25" ht="12.75" customHeight="1">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -24902,7 +25289,7 @@
       <c r="X207" s="3"/>
       <c r="Y207" s="3"/>
     </row>
-    <row r="208" ht="12.75" customHeight="1">
+    <row r="208" spans="1:25" ht="12.75" customHeight="1">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -24929,7 +25316,7 @@
       <c r="X208" s="3"/>
       <c r="Y208" s="3"/>
     </row>
-    <row r="209" ht="12.75" customHeight="1">
+    <row r="209" spans="1:25" ht="12.75" customHeight="1">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -24956,7 +25343,7 @@
       <c r="X209" s="3"/>
       <c r="Y209" s="3"/>
     </row>
-    <row r="210" ht="12.75" customHeight="1">
+    <row r="210" spans="1:25" ht="12.75" customHeight="1">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -24983,7 +25370,7 @@
       <c r="X210" s="3"/>
       <c r="Y210" s="3"/>
     </row>
-    <row r="211" ht="12.75" customHeight="1">
+    <row r="211" spans="1:25" ht="12.75" customHeight="1">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -25010,7 +25397,7 @@
       <c r="X211" s="3"/>
       <c r="Y211" s="3"/>
     </row>
-    <row r="212" ht="12.75" customHeight="1">
+    <row r="212" spans="1:25" ht="12.75" customHeight="1">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -25037,7 +25424,7 @@
       <c r="X212" s="3"/>
       <c r="Y212" s="3"/>
     </row>
-    <row r="213" ht="12.75" customHeight="1">
+    <row r="213" spans="1:25" ht="12.75" customHeight="1">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -25064,7 +25451,7 @@
       <c r="X213" s="3"/>
       <c r="Y213" s="3"/>
     </row>
-    <row r="214" ht="12.75" customHeight="1">
+    <row r="214" spans="1:25" ht="12.75" customHeight="1">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -25091,7 +25478,7 @@
       <c r="X214" s="3"/>
       <c r="Y214" s="3"/>
     </row>
-    <row r="215" ht="12.75" customHeight="1">
+    <row r="215" spans="1:25" ht="12.75" customHeight="1">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -25118,7 +25505,7 @@
       <c r="X215" s="3"/>
       <c r="Y215" s="3"/>
     </row>
-    <row r="216" ht="12.75" customHeight="1">
+    <row r="216" spans="1:25" ht="12.75" customHeight="1">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -25145,7 +25532,7 @@
       <c r="X216" s="3"/>
       <c r="Y216" s="3"/>
     </row>
-    <row r="217" ht="12.75" customHeight="1">
+    <row r="217" spans="1:25" ht="12.75" customHeight="1">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -25172,7 +25559,7 @@
       <c r="X217" s="3"/>
       <c r="Y217" s="3"/>
     </row>
-    <row r="218" ht="12.75" customHeight="1">
+    <row r="218" spans="1:25" ht="12.75" customHeight="1">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -25199,7 +25586,7 @@
       <c r="X218" s="3"/>
       <c r="Y218" s="3"/>
     </row>
-    <row r="219" ht="12.75" customHeight="1">
+    <row r="219" spans="1:25" ht="12.75" customHeight="1">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -25226,7 +25613,7 @@
       <c r="X219" s="3"/>
       <c r="Y219" s="3"/>
     </row>
-    <row r="220" ht="12.75" customHeight="1">
+    <row r="220" spans="1:25" ht="12.75" customHeight="1">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
@@ -25253,10 +25640,10 @@
       <c r="X220" s="3"/>
       <c r="Y220" s="3"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="221" spans="1:25" ht="15.75" customHeight="1"/>
+    <row r="222" spans="1:25" ht="15.75" customHeight="1"/>
+    <row r="223" spans="1:25" ht="15.75" customHeight="1"/>
+    <row r="224" spans="1:25" ht="15.75" customHeight="1"/>
     <row r="225" ht="15.75" customHeight="1"/>
     <row r="226" ht="15.75" customHeight="1"/>
     <row r="227" ht="15.75" customHeight="1"/>
@@ -26034,26 +26421,25 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:A1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="6" width="7.63"/>
+    <col min="1" max="6" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -27057,373 +27443,373 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="6" width="7.63"/>
+    <col min="1" max="6" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:1" ht="12.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
+    <row r="2" spans="1:1" ht="12.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="3" ht="12.75" customHeight="1">
+    <row r="3" spans="1:1" ht="12.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="4" ht="12.75" customHeight="1">
+    <row r="4" spans="1:1" ht="12.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="5" ht="12.75" customHeight="1">
+    <row r="5" spans="1:1" ht="12.75" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="6" ht="12.75" customHeight="1">
+    <row r="6" spans="1:1" ht="12.75" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="7" ht="12.75" customHeight="1">
+    <row r="7" spans="1:1" ht="12.75" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="8" ht="12.75" customHeight="1">
+    <row r="8" spans="1:1" ht="12.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="9" ht="12.75" customHeight="1">
+    <row r="9" spans="1:1" ht="12.75" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="10" ht="12.75" customHeight="1">
+    <row r="10" spans="1:1" ht="12.75" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="11" ht="12.75" customHeight="1">
+    <row r="11" spans="1:1" ht="12.75" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="12" ht="12.75" customHeight="1">
+    <row r="12" spans="1:1" ht="12.75" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="13" ht="12.75" customHeight="1">
+    <row r="13" spans="1:1" ht="12.75" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="14" ht="12.75" customHeight="1">
+    <row r="14" spans="1:1" ht="12.75" customHeight="1">
       <c r="A14" s="3"/>
     </row>
-    <row r="15" ht="12.75" customHeight="1">
+    <row r="15" spans="1:1" ht="12.75" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="16" ht="12.75" customHeight="1">
+    <row r="16" spans="1:1" ht="12.75" customHeight="1">
       <c r="A16" s="3"/>
     </row>
-    <row r="17" ht="12.75" customHeight="1">
+    <row r="17" spans="1:1" ht="12.75" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="18" ht="12.75" customHeight="1">
+    <row r="18" spans="1:1" ht="12.75" customHeight="1">
       <c r="A18" s="3"/>
     </row>
-    <row r="19" ht="12.75" customHeight="1">
+    <row r="19" spans="1:1" ht="12.75" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="20" ht="12.75" customHeight="1">
+    <row r="20" spans="1:1" ht="12.75" customHeight="1">
       <c r="A20" s="3"/>
     </row>
-    <row r="21" ht="12.75" customHeight="1">
+    <row r="21" spans="1:1" ht="12.75" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="22" ht="12.75" customHeight="1">
+    <row r="22" spans="1:1" ht="12.75" customHeight="1">
       <c r="A22" s="3"/>
     </row>
-    <row r="23" ht="12.75" customHeight="1">
+    <row r="23" spans="1:1" ht="12.75" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="24" ht="12.75" customHeight="1">
+    <row r="24" spans="1:1" ht="12.75" customHeight="1">
       <c r="A24" s="3"/>
     </row>
-    <row r="25" ht="12.75" customHeight="1">
+    <row r="25" spans="1:1" ht="12.75" customHeight="1">
       <c r="A25" s="3" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="26" ht="12.75" customHeight="1">
+    <row r="26" spans="1:1" ht="12.75" customHeight="1">
       <c r="A26" s="3"/>
     </row>
-    <row r="27" ht="12.75" customHeight="1">
+    <row r="27" spans="1:1" ht="12.75" customHeight="1">
       <c r="A27" s="3" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="28" ht="12.75" customHeight="1">
+    <row r="28" spans="1:1" ht="12.75" customHeight="1">
       <c r="A28" s="3"/>
     </row>
-    <row r="29" ht="12.75" customHeight="1">
+    <row r="29" spans="1:1" ht="12.75" customHeight="1">
       <c r="A29" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="30" ht="12.75" customHeight="1">
+    <row r="30" spans="1:1" ht="12.75" customHeight="1">
       <c r="A30" s="3"/>
     </row>
-    <row r="31" ht="12.75" customHeight="1">
+    <row r="31" spans="1:1" ht="12.75" customHeight="1">
       <c r="A31" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="32" ht="12.75" customHeight="1">
+    <row r="32" spans="1:1" ht="12.75" customHeight="1">
       <c r="A32" s="3"/>
     </row>
-    <row r="33" ht="12.75" customHeight="1">
+    <row r="33" spans="1:1" ht="12.75" customHeight="1">
       <c r="A33" s="3" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="34" ht="12.75" customHeight="1">
+    <row r="34" spans="1:1" ht="12.75" customHeight="1">
       <c r="A34" s="3"/>
     </row>
-    <row r="35" ht="12.75" customHeight="1">
+    <row r="35" spans="1:1" ht="12.75" customHeight="1">
       <c r="A35" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="36" ht="12.75" customHeight="1">
+    <row r="36" spans="1:1" ht="12.75" customHeight="1">
       <c r="A36" s="3"/>
     </row>
-    <row r="37" ht="12.75" customHeight="1">
+    <row r="37" spans="1:1" ht="12.75" customHeight="1">
       <c r="A37" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="38" ht="12.75" customHeight="1">
+    <row r="38" spans="1:1" ht="12.75" customHeight="1">
       <c r="A38" s="3"/>
     </row>
-    <row r="39" ht="12.75" customHeight="1">
+    <row r="39" spans="1:1" ht="12.75" customHeight="1">
       <c r="A39" s="3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="40" ht="12.75" customHeight="1">
+    <row r="40" spans="1:1" ht="12.75" customHeight="1">
       <c r="A40" s="3"/>
     </row>
-    <row r="41" ht="12.75" customHeight="1">
+    <row r="41" spans="1:1" ht="12.75" customHeight="1">
       <c r="A41" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="42" ht="12.75" customHeight="1">
+    <row r="42" spans="1:1" ht="12.75" customHeight="1">
       <c r="A42" s="3"/>
     </row>
-    <row r="43" ht="12.75" customHeight="1">
+    <row r="43" spans="1:1" ht="12.75" customHeight="1">
       <c r="A43" s="3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="44" ht="12.75" customHeight="1">
+    <row r="44" spans="1:1" ht="12.75" customHeight="1">
       <c r="A44" s="3"/>
     </row>
-    <row r="45" ht="12.75" customHeight="1">
+    <row r="45" spans="1:1" ht="12.75" customHeight="1">
       <c r="A45" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="46" ht="12.75" customHeight="1">
+    <row r="46" spans="1:1" ht="12.75" customHeight="1">
       <c r="A46" s="3"/>
     </row>
-    <row r="47" ht="14.25" customHeight="1">
+    <row r="47" spans="1:1" ht="14.25" customHeight="1">
       <c r="A47" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="48" ht="12.75" customHeight="1">
+    <row r="48" spans="1:1" ht="12.75" customHeight="1">
       <c r="A48" s="3"/>
     </row>
-    <row r="49" ht="12.75" customHeight="1">
+    <row r="49" spans="1:1" ht="12.75" customHeight="1">
       <c r="A49" s="3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="50" ht="12.75" customHeight="1">
+    <row r="50" spans="1:1" ht="12.75" customHeight="1">
       <c r="A50" s="3"/>
     </row>
-    <row r="51" ht="12.75" customHeight="1">
+    <row r="51" spans="1:1" ht="12.75" customHeight="1">
       <c r="A51" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="52" ht="12.75" customHeight="1">
+    <row r="52" spans="1:1" ht="12.75" customHeight="1">
       <c r="A52" s="3"/>
     </row>
-    <row r="53" ht="12.75" customHeight="1">
+    <row r="53" spans="1:1" ht="12.75" customHeight="1">
       <c r="A53" s="3" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="54" ht="12.75" customHeight="1">
+    <row r="54" spans="1:1" ht="12.75" customHeight="1">
       <c r="A54" s="3"/>
     </row>
-    <row r="55" ht="12.75" customHeight="1">
+    <row r="55" spans="1:1" ht="12.75" customHeight="1">
       <c r="A55" s="3" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="56" ht="12.75" customHeight="1">
+    <row r="56" spans="1:1" ht="12.75" customHeight="1">
       <c r="A56" s="3" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="57" ht="12.75" customHeight="1">
+    <row r="57" spans="1:1" ht="12.75" customHeight="1">
       <c r="A57" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="58" ht="12.75" customHeight="1">
+    <row r="58" spans="1:1" ht="12.75" customHeight="1">
       <c r="A58" s="3" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="59" ht="12.75" customHeight="1">
+    <row r="59" spans="1:1" ht="12.75" customHeight="1">
       <c r="A59" s="3" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="60" ht="12.75" customHeight="1">
+    <row r="60" spans="1:1" ht="12.75" customHeight="1">
       <c r="A60" s="3" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="61" ht="12.75" customHeight="1">
+    <row r="61" spans="1:1" ht="12.75" customHeight="1">
       <c r="A61" s="3" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="62" ht="12.75" customHeight="1">
+    <row r="62" spans="1:1" ht="12.75" customHeight="1">
       <c r="A62" s="3" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="63" ht="12.75" customHeight="1">
+    <row r="63" spans="1:1" ht="12.75" customHeight="1">
       <c r="A63" s="3" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="64" ht="12.75" customHeight="1">
+    <row r="64" spans="1:1" ht="12.75" customHeight="1">
       <c r="A64" s="3" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="65" ht="12.75" customHeight="1">
+    <row r="65" spans="1:1" ht="12.75" customHeight="1">
       <c r="A65" s="3"/>
     </row>
-    <row r="66" ht="12.75" customHeight="1">
+    <row r="66" spans="1:1" ht="12.75" customHeight="1">
       <c r="A66" s="3" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="67" ht="12.75" customHeight="1">
+    <row r="67" spans="1:1" ht="12.75" customHeight="1">
       <c r="A67" s="3"/>
     </row>
-    <row r="68" ht="12.75" customHeight="1">
+    <row r="68" spans="1:1" ht="12.75" customHeight="1">
       <c r="A68" s="3" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="69" ht="12.75" customHeight="1">
+    <row r="69" spans="1:1" ht="12.75" customHeight="1">
       <c r="A69" s="3" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="70" ht="12.75" customHeight="1">
+    <row r="70" spans="1:1" ht="12.75" customHeight="1">
       <c r="A70" s="3" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="71" ht="12.75" customHeight="1">
+    <row r="71" spans="1:1" ht="12.75" customHeight="1">
       <c r="A71" s="3" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="72" ht="12.75" customHeight="1">
+    <row r="72" spans="1:1" ht="12.75" customHeight="1">
       <c r="A72" s="3" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="73" ht="12.75" customHeight="1">
+    <row r="73" spans="1:1" ht="12.75" customHeight="1">
       <c r="A73" s="3" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="74" ht="12.75" customHeight="1">
+    <row r="74" spans="1:1" ht="12.75" customHeight="1">
       <c r="A74" s="3" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="75" ht="12.75" customHeight="1">
+    <row r="75" spans="1:1" ht="12.75" customHeight="1">
       <c r="A75" s="3" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="76" ht="12.75" customHeight="1">
+    <row r="76" spans="1:1" ht="12.75" customHeight="1">
       <c r="A76" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="77" ht="12.75" customHeight="1">
+    <row r="77" spans="1:1" ht="12.75" customHeight="1">
       <c r="A77" s="3" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="78" ht="12.75" customHeight="1">
+    <row r="78" spans="1:1" ht="12.75" customHeight="1">
       <c r="A78" s="3" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="79" ht="12.75" customHeight="1"/>
-    <row r="80" ht="12.75" customHeight="1"/>
+    <row r="79" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="80" spans="1:1" ht="12.75" customHeight="1"/>
     <row r="81" ht="12.75" customHeight="1"/>
     <row r="82" ht="12.75" customHeight="1"/>
     <row r="83" ht="12.75" customHeight="1"/>
@@ -28345,32 +28731,31 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="$A$1:$A$78"/>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <autoFilter ref="A1:A78"/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.88"/>
-    <col customWidth="1" min="2" max="2" width="10.38"/>
-    <col customWidth="1" min="3" max="3" width="21.13"/>
-    <col customWidth="1" min="4" max="6" width="7.63"/>
+    <col min="1" max="1" width="7.875" customWidth="1"/>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="21.125" customWidth="1"/>
+    <col min="4" max="6" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:3" ht="12.75" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>346</v>
       </c>
@@ -28381,7 +28766,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
+    <row r="2" spans="1:3" ht="12.75" customHeight="1">
       <c r="A2" s="15" t="s">
         <v>356</v>
       </c>
@@ -28392,1100 +28777,1100 @@
         <v>362</v>
       </c>
     </row>
-    <row r="3" ht="12.75" customHeight="1">
+    <row r="3" spans="1:3" ht="12.75" customHeight="1">
       <c r="A3" s="16"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
     </row>
-    <row r="4" ht="12.75" customHeight="1">
+    <row r="4" spans="1:3" ht="12.75" customHeight="1">
       <c r="A4" s="16"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
     </row>
-    <row r="5" ht="12.75" customHeight="1">
+    <row r="5" spans="1:3" ht="12.75" customHeight="1">
       <c r="A5" s="16"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
     </row>
-    <row r="6" ht="12.75" customHeight="1">
+    <row r="6" spans="1:3" ht="12.75" customHeight="1">
       <c r="A6" s="16"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
     </row>
-    <row r="7" ht="12.75" customHeight="1">
+    <row r="7" spans="1:3" ht="12.75" customHeight="1">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
     </row>
-    <row r="8" ht="12.75" customHeight="1">
+    <row r="8" spans="1:3" ht="12.75" customHeight="1">
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
     </row>
-    <row r="9" ht="12.75" customHeight="1">
+    <row r="9" spans="1:3" ht="12.75" customHeight="1">
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
     </row>
-    <row r="10" ht="12.75" customHeight="1">
+    <row r="10" spans="1:3" ht="12.75" customHeight="1">
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
     </row>
-    <row r="11" ht="12.75" customHeight="1">
+    <row r="11" spans="1:3" ht="12.75" customHeight="1">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
     </row>
-    <row r="12" ht="12.75" customHeight="1">
+    <row r="12" spans="1:3" ht="12.75" customHeight="1">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
     </row>
-    <row r="13" ht="12.75" customHeight="1">
+    <row r="13" spans="1:3" ht="12.75" customHeight="1">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
     </row>
-    <row r="14" ht="12.75" customHeight="1">
+    <row r="14" spans="1:3" ht="12.75" customHeight="1">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
     </row>
-    <row r="15" ht="12.75" customHeight="1">
+    <row r="15" spans="1:3" ht="12.75" customHeight="1">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
     </row>
-    <row r="16" ht="12.75" customHeight="1">
+    <row r="16" spans="1:3" ht="12.75" customHeight="1">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
     </row>
-    <row r="17" ht="12.75" customHeight="1">
+    <row r="17" spans="1:3" ht="12.75" customHeight="1">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
     </row>
-    <row r="18" ht="12.75" customHeight="1">
+    <row r="18" spans="1:3" ht="12.75" customHeight="1">
       <c r="A18" s="16"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
     </row>
-    <row r="19" ht="12.75" customHeight="1">
+    <row r="19" spans="1:3" ht="12.75" customHeight="1">
       <c r="A19" s="16"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
     </row>
-    <row r="20" ht="12.75" customHeight="1">
+    <row r="20" spans="1:3" ht="12.75" customHeight="1">
       <c r="A20" s="16"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
     </row>
-    <row r="21" ht="12.75" customHeight="1">
+    <row r="21" spans="1:3" ht="12.75" customHeight="1">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
     </row>
-    <row r="22" ht="12.75" customHeight="1">
+    <row r="22" spans="1:3" ht="12.75" customHeight="1">
       <c r="A22" s="16"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
     </row>
-    <row r="23" ht="12.75" customHeight="1">
+    <row r="23" spans="1:3" ht="12.75" customHeight="1">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
     </row>
-    <row r="24" ht="12.75" customHeight="1">
+    <row r="24" spans="1:3" ht="12.75" customHeight="1">
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
     </row>
-    <row r="25" ht="12.75" customHeight="1">
+    <row r="25" spans="1:3" ht="12.75" customHeight="1">
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
     </row>
-    <row r="26" ht="12.75" customHeight="1">
+    <row r="26" spans="1:3" ht="12.75" customHeight="1">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
     </row>
-    <row r="27" ht="12.75" customHeight="1">
+    <row r="27" spans="1:3" ht="12.75" customHeight="1">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
     </row>
-    <row r="28" ht="12.75" customHeight="1">
+    <row r="28" spans="1:3" ht="12.75" customHeight="1">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
     </row>
-    <row r="29" ht="12.75" customHeight="1">
+    <row r="29" spans="1:3" ht="12.75" customHeight="1">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
     </row>
-    <row r="30" ht="12.75" customHeight="1">
+    <row r="30" spans="1:3" ht="12.75" customHeight="1">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
     </row>
-    <row r="31" ht="12.75" customHeight="1">
+    <row r="31" spans="1:3" ht="12.75" customHeight="1">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
     </row>
-    <row r="32" ht="12.75" customHeight="1">
+    <row r="32" spans="1:3" ht="12.75" customHeight="1">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
     </row>
-    <row r="33" ht="12.75" customHeight="1">
+    <row r="33" spans="1:3" ht="12.75" customHeight="1">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
     </row>
-    <row r="34" ht="12.75" customHeight="1">
+    <row r="34" spans="1:3" ht="12.75" customHeight="1">
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
     </row>
-    <row r="35" ht="12.75" customHeight="1">
+    <row r="35" spans="1:3" ht="12.75" customHeight="1">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
     </row>
-    <row r="36" ht="12.75" customHeight="1">
+    <row r="36" spans="1:3" ht="12.75" customHeight="1">
       <c r="A36" s="16"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
     </row>
-    <row r="37" ht="12.75" customHeight="1">
+    <row r="37" spans="1:3" ht="12.75" customHeight="1">
       <c r="A37" s="16"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
     </row>
-    <row r="38" ht="12.75" customHeight="1">
+    <row r="38" spans="1:3" ht="12.75" customHeight="1">
       <c r="A38" s="16"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
     </row>
-    <row r="39" ht="12.75" customHeight="1">
+    <row r="39" spans="1:3" ht="12.75" customHeight="1">
       <c r="A39" s="16"/>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
     </row>
-    <row r="40" ht="12.75" customHeight="1">
+    <row r="40" spans="1:3" ht="12.75" customHeight="1">
       <c r="A40" s="16"/>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
     </row>
-    <row r="41" ht="12.75" customHeight="1">
+    <row r="41" spans="1:3" ht="12.75" customHeight="1">
       <c r="A41" s="16"/>
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
     </row>
-    <row r="42" ht="12.75" customHeight="1">
+    <row r="42" spans="1:3" ht="12.75" customHeight="1">
       <c r="A42" s="16"/>
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
     </row>
-    <row r="43" ht="12.75" customHeight="1">
+    <row r="43" spans="1:3" ht="12.75" customHeight="1">
       <c r="A43" s="16"/>
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
     </row>
-    <row r="44" ht="12.75" customHeight="1">
+    <row r="44" spans="1:3" ht="12.75" customHeight="1">
       <c r="A44" s="16"/>
       <c r="B44" s="16"/>
       <c r="C44" s="16"/>
     </row>
-    <row r="45" ht="12.75" customHeight="1">
+    <row r="45" spans="1:3" ht="12.75" customHeight="1">
       <c r="A45" s="16"/>
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
     </row>
-    <row r="46" ht="12.75" customHeight="1">
+    <row r="46" spans="1:3" ht="12.75" customHeight="1">
       <c r="A46" s="16"/>
       <c r="B46" s="16"/>
       <c r="C46" s="16"/>
     </row>
-    <row r="47" ht="12.75" customHeight="1">
+    <row r="47" spans="1:3" ht="12.75" customHeight="1">
       <c r="A47" s="16"/>
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
     </row>
-    <row r="48" ht="12.75" customHeight="1">
+    <row r="48" spans="1:3" ht="12.75" customHeight="1">
       <c r="A48" s="16"/>
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
     </row>
-    <row r="49" ht="12.75" customHeight="1">
+    <row r="49" spans="1:3" ht="12.75" customHeight="1">
       <c r="A49" s="16"/>
       <c r="B49" s="16"/>
       <c r="C49" s="16"/>
     </row>
-    <row r="50" ht="12.75" customHeight="1">
+    <row r="50" spans="1:3" ht="12.75" customHeight="1">
       <c r="A50" s="16"/>
       <c r="B50" s="16"/>
       <c r="C50" s="16"/>
     </row>
-    <row r="51" ht="12.75" customHeight="1">
+    <row r="51" spans="1:3" ht="12.75" customHeight="1">
       <c r="A51" s="16"/>
       <c r="B51" s="16"/>
       <c r="C51" s="16"/>
     </row>
-    <row r="52" ht="12.75" customHeight="1">
+    <row r="52" spans="1:3" ht="12.75" customHeight="1">
       <c r="A52" s="16"/>
       <c r="B52" s="16"/>
       <c r="C52" s="16"/>
     </row>
-    <row r="53" ht="12.75" customHeight="1">
+    <row r="53" spans="1:3" ht="12.75" customHeight="1">
       <c r="A53" s="16"/>
       <c r="B53" s="16"/>
       <c r="C53" s="16"/>
     </row>
-    <row r="54" ht="12.75" customHeight="1">
+    <row r="54" spans="1:3" ht="12.75" customHeight="1">
       <c r="A54" s="16"/>
       <c r="B54" s="16"/>
       <c r="C54" s="16"/>
     </row>
-    <row r="55" ht="12.75" customHeight="1">
+    <row r="55" spans="1:3" ht="12.75" customHeight="1">
       <c r="A55" s="16"/>
       <c r="B55" s="16"/>
       <c r="C55" s="16"/>
     </row>
-    <row r="56" ht="12.75" customHeight="1">
+    <row r="56" spans="1:3" ht="12.75" customHeight="1">
       <c r="A56" s="16"/>
       <c r="B56" s="16"/>
       <c r="C56" s="16"/>
     </row>
-    <row r="57" ht="12.75" customHeight="1">
+    <row r="57" spans="1:3" ht="12.75" customHeight="1">
       <c r="A57" s="16"/>
       <c r="B57" s="16"/>
       <c r="C57" s="16"/>
     </row>
-    <row r="58" ht="12.75" customHeight="1">
+    <row r="58" spans="1:3" ht="12.75" customHeight="1">
       <c r="A58" s="16"/>
       <c r="B58" s="16"/>
       <c r="C58" s="16"/>
     </row>
-    <row r="59" ht="12.75" customHeight="1">
+    <row r="59" spans="1:3" ht="12.75" customHeight="1">
       <c r="A59" s="16"/>
       <c r="B59" s="16"/>
       <c r="C59" s="16"/>
     </row>
-    <row r="60" ht="12.75" customHeight="1">
+    <row r="60" spans="1:3" ht="12.75" customHeight="1">
       <c r="A60" s="16"/>
       <c r="B60" s="16"/>
       <c r="C60" s="16"/>
     </row>
-    <row r="61" ht="12.75" customHeight="1">
+    <row r="61" spans="1:3" ht="12.75" customHeight="1">
       <c r="A61" s="16"/>
       <c r="B61" s="16"/>
       <c r="C61" s="16"/>
     </row>
-    <row r="62" ht="12.75" customHeight="1">
+    <row r="62" spans="1:3" ht="12.75" customHeight="1">
       <c r="A62" s="16"/>
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
     </row>
-    <row r="63" ht="12.75" customHeight="1">
+    <row r="63" spans="1:3" ht="12.75" customHeight="1">
       <c r="A63" s="16"/>
       <c r="B63" s="16"/>
       <c r="C63" s="16"/>
     </row>
-    <row r="64" ht="12.75" customHeight="1">
+    <row r="64" spans="1:3" ht="12.75" customHeight="1">
       <c r="A64" s="16"/>
       <c r="B64" s="16"/>
       <c r="C64" s="16"/>
     </row>
-    <row r="65" ht="12.75" customHeight="1">
+    <row r="65" spans="1:3" ht="12.75" customHeight="1">
       <c r="A65" s="16"/>
       <c r="B65" s="16"/>
       <c r="C65" s="16"/>
     </row>
-    <row r="66" ht="12.75" customHeight="1">
+    <row r="66" spans="1:3" ht="12.75" customHeight="1">
       <c r="A66" s="16"/>
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
     </row>
-    <row r="67" ht="12.75" customHeight="1">
+    <row r="67" spans="1:3" ht="12.75" customHeight="1">
       <c r="A67" s="16"/>
       <c r="B67" s="16"/>
       <c r="C67" s="16"/>
     </row>
-    <row r="68" ht="12.75" customHeight="1">
+    <row r="68" spans="1:3" ht="12.75" customHeight="1">
       <c r="A68" s="16"/>
       <c r="B68" s="16"/>
       <c r="C68" s="16"/>
     </row>
-    <row r="69" ht="12.75" customHeight="1">
+    <row r="69" spans="1:3" ht="12.75" customHeight="1">
       <c r="A69" s="16"/>
       <c r="B69" s="16"/>
       <c r="C69" s="16"/>
     </row>
-    <row r="70" ht="12.75" customHeight="1">
+    <row r="70" spans="1:3" ht="12.75" customHeight="1">
       <c r="A70" s="16"/>
       <c r="B70" s="16"/>
       <c r="C70" s="16"/>
     </row>
-    <row r="71" ht="12.75" customHeight="1">
+    <row r="71" spans="1:3" ht="12.75" customHeight="1">
       <c r="A71" s="16"/>
       <c r="B71" s="16"/>
       <c r="C71" s="16"/>
     </row>
-    <row r="72" ht="12.75" customHeight="1">
+    <row r="72" spans="1:3" ht="12.75" customHeight="1">
       <c r="A72" s="16"/>
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
     </row>
-    <row r="73" ht="12.75" customHeight="1">
+    <row r="73" spans="1:3" ht="12.75" customHeight="1">
       <c r="A73" s="16"/>
       <c r="B73" s="16"/>
       <c r="C73" s="16"/>
     </row>
-    <row r="74" ht="12.75" customHeight="1">
+    <row r="74" spans="1:3" ht="12.75" customHeight="1">
       <c r="A74" s="16"/>
       <c r="B74" s="16"/>
       <c r="C74" s="16"/>
     </row>
-    <row r="75" ht="12.75" customHeight="1">
+    <row r="75" spans="1:3" ht="12.75" customHeight="1">
       <c r="A75" s="16"/>
       <c r="B75" s="16"/>
       <c r="C75" s="16"/>
     </row>
-    <row r="76" ht="12.75" customHeight="1">
+    <row r="76" spans="1:3" ht="12.75" customHeight="1">
       <c r="A76" s="16"/>
       <c r="B76" s="16"/>
       <c r="C76" s="16"/>
     </row>
-    <row r="77" ht="12.75" customHeight="1">
+    <row r="77" spans="1:3" ht="12.75" customHeight="1">
       <c r="A77" s="16"/>
       <c r="B77" s="16"/>
       <c r="C77" s="16"/>
     </row>
-    <row r="78" ht="12.75" customHeight="1">
+    <row r="78" spans="1:3" ht="12.75" customHeight="1">
       <c r="A78" s="16"/>
       <c r="B78" s="16"/>
       <c r="C78" s="16"/>
     </row>
-    <row r="79" ht="12.75" customHeight="1">
+    <row r="79" spans="1:3" ht="12.75" customHeight="1">
       <c r="A79" s="16"/>
       <c r="B79" s="16"/>
       <c r="C79" s="16"/>
     </row>
-    <row r="80" ht="12.75" customHeight="1">
+    <row r="80" spans="1:3" ht="12.75" customHeight="1">
       <c r="A80" s="16"/>
       <c r="B80" s="16"/>
       <c r="C80" s="16"/>
     </row>
-    <row r="81" ht="12.75" customHeight="1">
+    <row r="81" spans="1:3" ht="12.75" customHeight="1">
       <c r="A81" s="16"/>
       <c r="B81" s="16"/>
       <c r="C81" s="16"/>
     </row>
-    <row r="82" ht="12.75" customHeight="1">
+    <row r="82" spans="1:3" ht="12.75" customHeight="1">
       <c r="A82" s="16"/>
       <c r="B82" s="16"/>
       <c r="C82" s="16"/>
     </row>
-    <row r="83" ht="12.75" customHeight="1">
+    <row r="83" spans="1:3" ht="12.75" customHeight="1">
       <c r="A83" s="16"/>
       <c r="B83" s="16"/>
       <c r="C83" s="16"/>
     </row>
-    <row r="84" ht="12.75" customHeight="1">
+    <row r="84" spans="1:3" ht="12.75" customHeight="1">
       <c r="A84" s="16"/>
       <c r="B84" s="16"/>
       <c r="C84" s="16"/>
     </row>
-    <row r="85" ht="12.75" customHeight="1">
+    <row r="85" spans="1:3" ht="12.75" customHeight="1">
       <c r="A85" s="16"/>
       <c r="B85" s="16"/>
       <c r="C85" s="16"/>
     </row>
-    <row r="86" ht="12.75" customHeight="1">
+    <row r="86" spans="1:3" ht="12.75" customHeight="1">
       <c r="A86" s="16"/>
       <c r="B86" s="16"/>
       <c r="C86" s="16"/>
     </row>
-    <row r="87" ht="12.75" customHeight="1">
+    <row r="87" spans="1:3" ht="12.75" customHeight="1">
       <c r="A87" s="16"/>
       <c r="B87" s="16"/>
       <c r="C87" s="16"/>
     </row>
-    <row r="88" ht="12.75" customHeight="1">
+    <row r="88" spans="1:3" ht="12.75" customHeight="1">
       <c r="A88" s="16"/>
       <c r="B88" s="16"/>
       <c r="C88" s="16"/>
     </row>
-    <row r="89" ht="12.75" customHeight="1">
+    <row r="89" spans="1:3" ht="12.75" customHeight="1">
       <c r="A89" s="16"/>
       <c r="B89" s="16"/>
       <c r="C89" s="16"/>
     </row>
-    <row r="90" ht="12.75" customHeight="1">
+    <row r="90" spans="1:3" ht="12.75" customHeight="1">
       <c r="A90" s="16"/>
       <c r="B90" s="16"/>
       <c r="C90" s="16"/>
     </row>
-    <row r="91" ht="12.75" customHeight="1">
+    <row r="91" spans="1:3" ht="12.75" customHeight="1">
       <c r="A91" s="16"/>
       <c r="B91" s="16"/>
       <c r="C91" s="16"/>
     </row>
-    <row r="92" ht="12.75" customHeight="1">
+    <row r="92" spans="1:3" ht="12.75" customHeight="1">
       <c r="A92" s="16"/>
       <c r="B92" s="16"/>
       <c r="C92" s="16"/>
     </row>
-    <row r="93" ht="12.75" customHeight="1">
+    <row r="93" spans="1:3" ht="12.75" customHeight="1">
       <c r="A93" s="16"/>
       <c r="B93" s="16"/>
       <c r="C93" s="16"/>
     </row>
-    <row r="94" ht="12.75" customHeight="1">
+    <row r="94" spans="1:3" ht="12.75" customHeight="1">
       <c r="A94" s="16"/>
       <c r="B94" s="16"/>
       <c r="C94" s="16"/>
     </row>
-    <row r="95" ht="12.75" customHeight="1">
+    <row r="95" spans="1:3" ht="12.75" customHeight="1">
       <c r="A95" s="16"/>
       <c r="B95" s="16"/>
       <c r="C95" s="16"/>
     </row>
-    <row r="96" ht="12.75" customHeight="1">
+    <row r="96" spans="1:3" ht="12.75" customHeight="1">
       <c r="A96" s="16"/>
       <c r="B96" s="16"/>
       <c r="C96" s="16"/>
     </row>
-    <row r="97" ht="12.75" customHeight="1">
+    <row r="97" spans="1:3" ht="12.75" customHeight="1">
       <c r="A97" s="16"/>
       <c r="B97" s="16"/>
       <c r="C97" s="16"/>
     </row>
-    <row r="98" ht="12.75" customHeight="1">
+    <row r="98" spans="1:3" ht="12.75" customHeight="1">
       <c r="A98" s="16"/>
       <c r="B98" s="16"/>
       <c r="C98" s="16"/>
     </row>
-    <row r="99" ht="12.75" customHeight="1">
+    <row r="99" spans="1:3" ht="12.75" customHeight="1">
       <c r="A99" s="16"/>
       <c r="B99" s="16"/>
       <c r="C99" s="16"/>
     </row>
-    <row r="100" ht="12.75" customHeight="1">
+    <row r="100" spans="1:3" ht="12.75" customHeight="1">
       <c r="A100" s="16"/>
       <c r="B100" s="16"/>
       <c r="C100" s="16"/>
     </row>
-    <row r="101" ht="12.75" customHeight="1">
+    <row r="101" spans="1:3" ht="12.75" customHeight="1">
       <c r="A101" s="16"/>
       <c r="B101" s="16"/>
       <c r="C101" s="16"/>
     </row>
-    <row r="102" ht="12.75" customHeight="1">
+    <row r="102" spans="1:3" ht="12.75" customHeight="1">
       <c r="A102" s="16"/>
       <c r="B102" s="16"/>
       <c r="C102" s="16"/>
     </row>
-    <row r="103" ht="12.75" customHeight="1">
+    <row r="103" spans="1:3" ht="12.75" customHeight="1">
       <c r="A103" s="16"/>
       <c r="B103" s="16"/>
       <c r="C103" s="16"/>
     </row>
-    <row r="104" ht="12.75" customHeight="1">
+    <row r="104" spans="1:3" ht="12.75" customHeight="1">
       <c r="A104" s="16"/>
       <c r="B104" s="16"/>
       <c r="C104" s="16"/>
     </row>
-    <row r="105" ht="12.75" customHeight="1">
+    <row r="105" spans="1:3" ht="12.75" customHeight="1">
       <c r="A105" s="16"/>
       <c r="B105" s="16"/>
       <c r="C105" s="16"/>
     </row>
-    <row r="106" ht="12.75" customHeight="1">
+    <row r="106" spans="1:3" ht="12.75" customHeight="1">
       <c r="A106" s="16"/>
       <c r="B106" s="16"/>
       <c r="C106" s="16"/>
     </row>
-    <row r="107" ht="12.75" customHeight="1">
+    <row r="107" spans="1:3" ht="12.75" customHeight="1">
       <c r="A107" s="16"/>
       <c r="B107" s="16"/>
       <c r="C107" s="16"/>
     </row>
-    <row r="108" ht="12.75" customHeight="1">
+    <row r="108" spans="1:3" ht="12.75" customHeight="1">
       <c r="A108" s="16"/>
       <c r="B108" s="16"/>
       <c r="C108" s="16"/>
     </row>
-    <row r="109" ht="12.75" customHeight="1">
+    <row r="109" spans="1:3" ht="12.75" customHeight="1">
       <c r="A109" s="16"/>
       <c r="B109" s="16"/>
       <c r="C109" s="16"/>
     </row>
-    <row r="110" ht="12.75" customHeight="1">
+    <row r="110" spans="1:3" ht="12.75" customHeight="1">
       <c r="A110" s="16"/>
       <c r="B110" s="16"/>
       <c r="C110" s="16"/>
     </row>
-    <row r="111" ht="12.75" customHeight="1">
+    <row r="111" spans="1:3" ht="12.75" customHeight="1">
       <c r="A111" s="16"/>
       <c r="B111" s="16"/>
       <c r="C111" s="16"/>
     </row>
-    <row r="112" ht="12.75" customHeight="1">
+    <row r="112" spans="1:3" ht="12.75" customHeight="1">
       <c r="A112" s="16"/>
       <c r="B112" s="16"/>
       <c r="C112" s="16"/>
     </row>
-    <row r="113" ht="12.75" customHeight="1">
+    <row r="113" spans="1:3" ht="12.75" customHeight="1">
       <c r="A113" s="16"/>
       <c r="B113" s="16"/>
       <c r="C113" s="16"/>
     </row>
-    <row r="114" ht="12.75" customHeight="1">
+    <row r="114" spans="1:3" ht="12.75" customHeight="1">
       <c r="A114" s="16"/>
       <c r="B114" s="16"/>
       <c r="C114" s="16"/>
     </row>
-    <row r="115" ht="12.75" customHeight="1">
+    <row r="115" spans="1:3" ht="12.75" customHeight="1">
       <c r="A115" s="16"/>
       <c r="B115" s="16"/>
       <c r="C115" s="16"/>
     </row>
-    <row r="116" ht="12.75" customHeight="1">
+    <row r="116" spans="1:3" ht="12.75" customHeight="1">
       <c r="A116" s="16"/>
       <c r="B116" s="16"/>
       <c r="C116" s="16"/>
     </row>
-    <row r="117" ht="12.75" customHeight="1">
+    <row r="117" spans="1:3" ht="12.75" customHeight="1">
       <c r="A117" s="16"/>
       <c r="B117" s="16"/>
       <c r="C117" s="16"/>
     </row>
-    <row r="118" ht="12.75" customHeight="1">
+    <row r="118" spans="1:3" ht="12.75" customHeight="1">
       <c r="A118" s="16"/>
       <c r="B118" s="16"/>
       <c r="C118" s="16"/>
     </row>
-    <row r="119" ht="12.75" customHeight="1">
+    <row r="119" spans="1:3" ht="12.75" customHeight="1">
       <c r="A119" s="16"/>
       <c r="B119" s="16"/>
       <c r="C119" s="16"/>
     </row>
-    <row r="120" ht="12.75" customHeight="1">
+    <row r="120" spans="1:3" ht="12.75" customHeight="1">
       <c r="A120" s="16"/>
       <c r="B120" s="16"/>
       <c r="C120" s="16"/>
     </row>
-    <row r="121" ht="12.75" customHeight="1">
+    <row r="121" spans="1:3" ht="12.75" customHeight="1">
       <c r="A121" s="16"/>
       <c r="B121" s="16"/>
       <c r="C121" s="16"/>
     </row>
-    <row r="122" ht="12.75" customHeight="1">
+    <row r="122" spans="1:3" ht="12.75" customHeight="1">
       <c r="A122" s="16"/>
       <c r="B122" s="16"/>
       <c r="C122" s="16"/>
     </row>
-    <row r="123" ht="12.75" customHeight="1">
+    <row r="123" spans="1:3" ht="12.75" customHeight="1">
       <c r="A123" s="16"/>
       <c r="B123" s="16"/>
       <c r="C123" s="16"/>
     </row>
-    <row r="124" ht="12.75" customHeight="1">
+    <row r="124" spans="1:3" ht="12.75" customHeight="1">
       <c r="A124" s="16"/>
       <c r="B124" s="16"/>
       <c r="C124" s="16"/>
     </row>
-    <row r="125" ht="12.75" customHeight="1">
+    <row r="125" spans="1:3" ht="12.75" customHeight="1">
       <c r="A125" s="16"/>
       <c r="B125" s="16"/>
       <c r="C125" s="16"/>
     </row>
-    <row r="126" ht="12.75" customHeight="1">
+    <row r="126" spans="1:3" ht="12.75" customHeight="1">
       <c r="A126" s="16"/>
       <c r="B126" s="16"/>
       <c r="C126" s="16"/>
     </row>
-    <row r="127" ht="12.75" customHeight="1">
+    <row r="127" spans="1:3" ht="12.75" customHeight="1">
       <c r="A127" s="16"/>
       <c r="B127" s="16"/>
       <c r="C127" s="16"/>
     </row>
-    <row r="128" ht="12.75" customHeight="1">
+    <row r="128" spans="1:3" ht="12.75" customHeight="1">
       <c r="A128" s="16"/>
       <c r="B128" s="16"/>
       <c r="C128" s="16"/>
     </row>
-    <row r="129" ht="12.75" customHeight="1">
+    <row r="129" spans="1:3" ht="12.75" customHeight="1">
       <c r="A129" s="16"/>
       <c r="B129" s="16"/>
       <c r="C129" s="16"/>
     </row>
-    <row r="130" ht="12.75" customHeight="1">
+    <row r="130" spans="1:3" ht="12.75" customHeight="1">
       <c r="A130" s="16"/>
       <c r="B130" s="16"/>
       <c r="C130" s="16"/>
     </row>
-    <row r="131" ht="12.75" customHeight="1">
+    <row r="131" spans="1:3" ht="12.75" customHeight="1">
       <c r="A131" s="16"/>
       <c r="B131" s="16"/>
       <c r="C131" s="16"/>
     </row>
-    <row r="132" ht="12.75" customHeight="1">
+    <row r="132" spans="1:3" ht="12.75" customHeight="1">
       <c r="A132" s="16"/>
       <c r="B132" s="16"/>
       <c r="C132" s="16"/>
     </row>
-    <row r="133" ht="12.75" customHeight="1">
+    <row r="133" spans="1:3" ht="12.75" customHeight="1">
       <c r="A133" s="16"/>
       <c r="B133" s="16"/>
       <c r="C133" s="16"/>
     </row>
-    <row r="134" ht="12.75" customHeight="1">
+    <row r="134" spans="1:3" ht="12.75" customHeight="1">
       <c r="A134" s="16"/>
       <c r="B134" s="16"/>
       <c r="C134" s="16"/>
     </row>
-    <row r="135" ht="12.75" customHeight="1">
+    <row r="135" spans="1:3" ht="12.75" customHeight="1">
       <c r="A135" s="16"/>
       <c r="B135" s="16"/>
       <c r="C135" s="16"/>
     </row>
-    <row r="136" ht="12.75" customHeight="1">
+    <row r="136" spans="1:3" ht="12.75" customHeight="1">
       <c r="A136" s="16"/>
       <c r="B136" s="16"/>
       <c r="C136" s="16"/>
     </row>
-    <row r="137" ht="12.75" customHeight="1">
+    <row r="137" spans="1:3" ht="12.75" customHeight="1">
       <c r="A137" s="16"/>
       <c r="B137" s="16"/>
       <c r="C137" s="16"/>
     </row>
-    <row r="138" ht="12.75" customHeight="1">
+    <row r="138" spans="1:3" ht="12.75" customHeight="1">
       <c r="A138" s="16"/>
       <c r="B138" s="16"/>
       <c r="C138" s="16"/>
     </row>
-    <row r="139" ht="12.75" customHeight="1">
+    <row r="139" spans="1:3" ht="12.75" customHeight="1">
       <c r="A139" s="16"/>
       <c r="B139" s="16"/>
       <c r="C139" s="16"/>
     </row>
-    <row r="140" ht="12.75" customHeight="1">
+    <row r="140" spans="1:3" ht="12.75" customHeight="1">
       <c r="A140" s="16"/>
       <c r="B140" s="16"/>
       <c r="C140" s="16"/>
     </row>
-    <row r="141" ht="12.75" customHeight="1">
+    <row r="141" spans="1:3" ht="12.75" customHeight="1">
       <c r="A141" s="16"/>
       <c r="B141" s="16"/>
       <c r="C141" s="16"/>
     </row>
-    <row r="142" ht="12.75" customHeight="1">
+    <row r="142" spans="1:3" ht="12.75" customHeight="1">
       <c r="A142" s="16"/>
       <c r="B142" s="16"/>
       <c r="C142" s="16"/>
     </row>
-    <row r="143" ht="12.75" customHeight="1">
+    <row r="143" spans="1:3" ht="12.75" customHeight="1">
       <c r="A143" s="16"/>
       <c r="B143" s="16"/>
       <c r="C143" s="16"/>
     </row>
-    <row r="144" ht="12.75" customHeight="1">
+    <row r="144" spans="1:3" ht="12.75" customHeight="1">
       <c r="A144" s="16"/>
       <c r="B144" s="16"/>
       <c r="C144" s="16"/>
     </row>
-    <row r="145" ht="12.75" customHeight="1">
+    <row r="145" spans="1:3" ht="12.75" customHeight="1">
       <c r="A145" s="16"/>
       <c r="B145" s="16"/>
       <c r="C145" s="16"/>
     </row>
-    <row r="146" ht="12.75" customHeight="1">
+    <row r="146" spans="1:3" ht="12.75" customHeight="1">
       <c r="A146" s="16"/>
       <c r="B146" s="16"/>
       <c r="C146" s="16"/>
     </row>
-    <row r="147" ht="12.75" customHeight="1">
+    <row r="147" spans="1:3" ht="12.75" customHeight="1">
       <c r="A147" s="16"/>
       <c r="B147" s="16"/>
       <c r="C147" s="16"/>
     </row>
-    <row r="148" ht="12.75" customHeight="1">
+    <row r="148" spans="1:3" ht="12.75" customHeight="1">
       <c r="A148" s="16"/>
       <c r="B148" s="16"/>
       <c r="C148" s="16"/>
     </row>
-    <row r="149" ht="12.75" customHeight="1">
+    <row r="149" spans="1:3" ht="12.75" customHeight="1">
       <c r="A149" s="16"/>
       <c r="B149" s="16"/>
       <c r="C149" s="16"/>
     </row>
-    <row r="150" ht="12.75" customHeight="1">
+    <row r="150" spans="1:3" ht="12.75" customHeight="1">
       <c r="A150" s="16"/>
       <c r="B150" s="16"/>
       <c r="C150" s="16"/>
     </row>
-    <row r="151" ht="12.75" customHeight="1">
+    <row r="151" spans="1:3" ht="12.75" customHeight="1">
       <c r="A151" s="16"/>
       <c r="B151" s="16"/>
       <c r="C151" s="16"/>
     </row>
-    <row r="152" ht="12.75" customHeight="1">
+    <row r="152" spans="1:3" ht="12.75" customHeight="1">
       <c r="A152" s="16"/>
       <c r="B152" s="16"/>
       <c r="C152" s="16"/>
     </row>
-    <row r="153" ht="12.75" customHeight="1">
+    <row r="153" spans="1:3" ht="12.75" customHeight="1">
       <c r="A153" s="16"/>
       <c r="B153" s="16"/>
       <c r="C153" s="16"/>
     </row>
-    <row r="154" ht="12.75" customHeight="1">
+    <row r="154" spans="1:3" ht="12.75" customHeight="1">
       <c r="A154" s="16"/>
       <c r="B154" s="16"/>
       <c r="C154" s="16"/>
     </row>
-    <row r="155" ht="12.75" customHeight="1">
+    <row r="155" spans="1:3" ht="12.75" customHeight="1">
       <c r="A155" s="16"/>
       <c r="B155" s="16"/>
       <c r="C155" s="16"/>
     </row>
-    <row r="156" ht="12.75" customHeight="1">
+    <row r="156" spans="1:3" ht="12.75" customHeight="1">
       <c r="A156" s="16"/>
       <c r="B156" s="16"/>
       <c r="C156" s="16"/>
     </row>
-    <row r="157" ht="12.75" customHeight="1">
+    <row r="157" spans="1:3" ht="12.75" customHeight="1">
       <c r="A157" s="16"/>
       <c r="B157" s="16"/>
       <c r="C157" s="16"/>
     </row>
-    <row r="158" ht="12.75" customHeight="1">
+    <row r="158" spans="1:3" ht="12.75" customHeight="1">
       <c r="A158" s="16"/>
       <c r="B158" s="16"/>
       <c r="C158" s="16"/>
     </row>
-    <row r="159" ht="12.75" customHeight="1">
+    <row r="159" spans="1:3" ht="12.75" customHeight="1">
       <c r="A159" s="16"/>
       <c r="B159" s="16"/>
       <c r="C159" s="16"/>
     </row>
-    <row r="160" ht="12.75" customHeight="1">
+    <row r="160" spans="1:3" ht="12.75" customHeight="1">
       <c r="A160" s="16"/>
       <c r="B160" s="16"/>
       <c r="C160" s="16"/>
     </row>
-    <row r="161" ht="12.75" customHeight="1">
+    <row r="161" spans="1:3" ht="12.75" customHeight="1">
       <c r="A161" s="16"/>
       <c r="B161" s="16"/>
       <c r="C161" s="16"/>
     </row>
-    <row r="162" ht="12.75" customHeight="1">
+    <row r="162" spans="1:3" ht="12.75" customHeight="1">
       <c r="A162" s="16"/>
       <c r="B162" s="16"/>
       <c r="C162" s="16"/>
     </row>
-    <row r="163" ht="12.75" customHeight="1">
+    <row r="163" spans="1:3" ht="12.75" customHeight="1">
       <c r="A163" s="16"/>
       <c r="B163" s="16"/>
       <c r="C163" s="16"/>
     </row>
-    <row r="164" ht="12.75" customHeight="1">
+    <row r="164" spans="1:3" ht="12.75" customHeight="1">
       <c r="A164" s="16"/>
       <c r="B164" s="16"/>
       <c r="C164" s="16"/>
     </row>
-    <row r="165" ht="12.75" customHeight="1">
+    <row r="165" spans="1:3" ht="12.75" customHeight="1">
       <c r="A165" s="16"/>
       <c r="B165" s="16"/>
       <c r="C165" s="16"/>
     </row>
-    <row r="166" ht="12.75" customHeight="1">
+    <row r="166" spans="1:3" ht="12.75" customHeight="1">
       <c r="A166" s="16"/>
       <c r="B166" s="16"/>
       <c r="C166" s="16"/>
     </row>
-    <row r="167" ht="12.75" customHeight="1">
+    <row r="167" spans="1:3" ht="12.75" customHeight="1">
       <c r="A167" s="16"/>
       <c r="B167" s="16"/>
       <c r="C167" s="16"/>
     </row>
-    <row r="168" ht="12.75" customHeight="1">
+    <row r="168" spans="1:3" ht="12.75" customHeight="1">
       <c r="A168" s="16"/>
       <c r="B168" s="16"/>
       <c r="C168" s="16"/>
     </row>
-    <row r="169" ht="12.75" customHeight="1">
+    <row r="169" spans="1:3" ht="12.75" customHeight="1">
       <c r="A169" s="16"/>
       <c r="B169" s="16"/>
       <c r="C169" s="16"/>
     </row>
-    <row r="170" ht="12.75" customHeight="1">
+    <row r="170" spans="1:3" ht="12.75" customHeight="1">
       <c r="A170" s="16"/>
       <c r="B170" s="16"/>
       <c r="C170" s="16"/>
     </row>
-    <row r="171" ht="12.75" customHeight="1">
+    <row r="171" spans="1:3" ht="12.75" customHeight="1">
       <c r="A171" s="16"/>
       <c r="B171" s="16"/>
       <c r="C171" s="16"/>
     </row>
-    <row r="172" ht="12.75" customHeight="1">
+    <row r="172" spans="1:3" ht="12.75" customHeight="1">
       <c r="A172" s="16"/>
       <c r="B172" s="16"/>
       <c r="C172" s="16"/>
     </row>
-    <row r="173" ht="12.75" customHeight="1">
+    <row r="173" spans="1:3" ht="12.75" customHeight="1">
       <c r="A173" s="16"/>
       <c r="B173" s="16"/>
       <c r="C173" s="16"/>
     </row>
-    <row r="174" ht="12.75" customHeight="1">
+    <row r="174" spans="1:3" ht="12.75" customHeight="1">
       <c r="A174" s="16"/>
       <c r="B174" s="16"/>
       <c r="C174" s="16"/>
     </row>
-    <row r="175" ht="12.75" customHeight="1">
+    <row r="175" spans="1:3" ht="12.75" customHeight="1">
       <c r="A175" s="16"/>
       <c r="B175" s="16"/>
       <c r="C175" s="16"/>
     </row>
-    <row r="176" ht="12.75" customHeight="1">
+    <row r="176" spans="1:3" ht="12.75" customHeight="1">
       <c r="A176" s="16"/>
       <c r="B176" s="16"/>
       <c r="C176" s="16"/>
     </row>
-    <row r="177" ht="12.75" customHeight="1">
+    <row r="177" spans="1:3" ht="12.75" customHeight="1">
       <c r="A177" s="16"/>
       <c r="B177" s="16"/>
       <c r="C177" s="16"/>
     </row>
-    <row r="178" ht="12.75" customHeight="1">
+    <row r="178" spans="1:3" ht="12.75" customHeight="1">
       <c r="A178" s="16"/>
       <c r="B178" s="16"/>
       <c r="C178" s="16"/>
     </row>
-    <row r="179" ht="12.75" customHeight="1">
+    <row r="179" spans="1:3" ht="12.75" customHeight="1">
       <c r="A179" s="16"/>
       <c r="B179" s="16"/>
       <c r="C179" s="16"/>
     </row>
-    <row r="180" ht="12.75" customHeight="1">
+    <row r="180" spans="1:3" ht="12.75" customHeight="1">
       <c r="A180" s="16"/>
       <c r="B180" s="16"/>
       <c r="C180" s="16"/>
     </row>
-    <row r="181" ht="12.75" customHeight="1">
+    <row r="181" spans="1:3" ht="12.75" customHeight="1">
       <c r="A181" s="16"/>
       <c r="B181" s="16"/>
       <c r="C181" s="16"/>
     </row>
-    <row r="182" ht="12.75" customHeight="1">
+    <row r="182" spans="1:3" ht="12.75" customHeight="1">
       <c r="A182" s="16"/>
       <c r="B182" s="16"/>
       <c r="C182" s="16"/>
     </row>
-    <row r="183" ht="12.75" customHeight="1">
+    <row r="183" spans="1:3" ht="12.75" customHeight="1">
       <c r="A183" s="16"/>
       <c r="B183" s="16"/>
       <c r="C183" s="16"/>
     </row>
-    <row r="184" ht="12.75" customHeight="1">
+    <row r="184" spans="1:3" ht="12.75" customHeight="1">
       <c r="A184" s="16"/>
       <c r="B184" s="16"/>
       <c r="C184" s="16"/>
     </row>
-    <row r="185" ht="12.75" customHeight="1">
+    <row r="185" spans="1:3" ht="12.75" customHeight="1">
       <c r="A185" s="16"/>
       <c r="B185" s="16"/>
       <c r="C185" s="16"/>
     </row>
-    <row r="186" ht="12.75" customHeight="1">
+    <row r="186" spans="1:3" ht="12.75" customHeight="1">
       <c r="A186" s="16"/>
       <c r="B186" s="16"/>
       <c r="C186" s="16"/>
     </row>
-    <row r="187" ht="12.75" customHeight="1">
+    <row r="187" spans="1:3" ht="12.75" customHeight="1">
       <c r="A187" s="16"/>
       <c r="B187" s="16"/>
       <c r="C187" s="16"/>
     </row>
-    <row r="188" ht="12.75" customHeight="1">
+    <row r="188" spans="1:3" ht="12.75" customHeight="1">
       <c r="A188" s="16"/>
       <c r="B188" s="16"/>
       <c r="C188" s="16"/>
     </row>
-    <row r="189" ht="12.75" customHeight="1">
+    <row r="189" spans="1:3" ht="12.75" customHeight="1">
       <c r="A189" s="16"/>
       <c r="B189" s="16"/>
       <c r="C189" s="16"/>
     </row>
-    <row r="190" ht="12.75" customHeight="1">
+    <row r="190" spans="1:3" ht="12.75" customHeight="1">
       <c r="A190" s="16"/>
       <c r="B190" s="16"/>
       <c r="C190" s="16"/>
     </row>
-    <row r="191" ht="12.75" customHeight="1">
+    <row r="191" spans="1:3" ht="12.75" customHeight="1">
       <c r="A191" s="16"/>
       <c r="B191" s="16"/>
       <c r="C191" s="16"/>
     </row>
-    <row r="192" ht="12.75" customHeight="1">
+    <row r="192" spans="1:3" ht="12.75" customHeight="1">
       <c r="A192" s="16"/>
       <c r="B192" s="16"/>
       <c r="C192" s="16"/>
     </row>
-    <row r="193" ht="12.75" customHeight="1">
+    <row r="193" spans="1:3" ht="12.75" customHeight="1">
       <c r="A193" s="16"/>
       <c r="B193" s="16"/>
       <c r="C193" s="16"/>
     </row>
-    <row r="194" ht="12.75" customHeight="1">
+    <row r="194" spans="1:3" ht="12.75" customHeight="1">
       <c r="A194" s="16"/>
       <c r="B194" s="16"/>
       <c r="C194" s="16"/>
     </row>
-    <row r="195" ht="12.75" customHeight="1">
+    <row r="195" spans="1:3" ht="12.75" customHeight="1">
       <c r="A195" s="16"/>
       <c r="B195" s="16"/>
       <c r="C195" s="16"/>
     </row>
-    <row r="196" ht="12.75" customHeight="1">
+    <row r="196" spans="1:3" ht="12.75" customHeight="1">
       <c r="A196" s="16"/>
       <c r="B196" s="16"/>
       <c r="C196" s="16"/>
     </row>
-    <row r="197" ht="12.75" customHeight="1">
+    <row r="197" spans="1:3" ht="12.75" customHeight="1">
       <c r="A197" s="16"/>
       <c r="B197" s="16"/>
       <c r="C197" s="16"/>
     </row>
-    <row r="198" ht="12.75" customHeight="1">
+    <row r="198" spans="1:3" ht="12.75" customHeight="1">
       <c r="A198" s="16"/>
       <c r="B198" s="16"/>
       <c r="C198" s="16"/>
     </row>
-    <row r="199" ht="12.75" customHeight="1">
+    <row r="199" spans="1:3" ht="12.75" customHeight="1">
       <c r="A199" s="16"/>
       <c r="B199" s="16"/>
       <c r="C199" s="16"/>
     </row>
-    <row r="200" ht="12.75" customHeight="1">
+    <row r="200" spans="1:3" ht="12.75" customHeight="1">
       <c r="A200" s="16"/>
       <c r="B200" s="16"/>
       <c r="C200" s="16"/>
     </row>
-    <row r="201" ht="12.75" customHeight="1">
+    <row r="201" spans="1:3" ht="12.75" customHeight="1">
       <c r="A201" s="16"/>
       <c r="B201" s="16"/>
       <c r="C201" s="16"/>
     </row>
-    <row r="202" ht="12.75" customHeight="1">
+    <row r="202" spans="1:3" ht="12.75" customHeight="1">
       <c r="A202" s="16"/>
       <c r="B202" s="16"/>
       <c r="C202" s="16"/>
     </row>
-    <row r="203" ht="12.75" customHeight="1">
+    <row r="203" spans="1:3" ht="12.75" customHeight="1">
       <c r="A203" s="16"/>
       <c r="B203" s="16"/>
       <c r="C203" s="16"/>
     </row>
-    <row r="204" ht="12.75" customHeight="1">
+    <row r="204" spans="1:3" ht="12.75" customHeight="1">
       <c r="A204" s="16"/>
       <c r="B204" s="16"/>
       <c r="C204" s="16"/>
     </row>
-    <row r="205" ht="12.75" customHeight="1">
+    <row r="205" spans="1:3" ht="12.75" customHeight="1">
       <c r="A205" s="16"/>
       <c r="B205" s="16"/>
       <c r="C205" s="16"/>
     </row>
-    <row r="206" ht="12.75" customHeight="1">
+    <row r="206" spans="1:3" ht="12.75" customHeight="1">
       <c r="A206" s="16"/>
       <c r="B206" s="16"/>
       <c r="C206" s="16"/>
     </row>
-    <row r="207" ht="12.75" customHeight="1">
+    <row r="207" spans="1:3" ht="12.75" customHeight="1">
       <c r="A207" s="16"/>
       <c r="B207" s="16"/>
       <c r="C207" s="16"/>
     </row>
-    <row r="208" ht="12.75" customHeight="1">
+    <row r="208" spans="1:3" ht="12.75" customHeight="1">
       <c r="A208" s="16"/>
       <c r="B208" s="16"/>
       <c r="C208" s="16"/>
     </row>
-    <row r="209" ht="12.75" customHeight="1">
+    <row r="209" spans="1:3" ht="12.75" customHeight="1">
       <c r="A209" s="16"/>
       <c r="B209" s="16"/>
       <c r="C209" s="16"/>
     </row>
-    <row r="210" ht="12.75" customHeight="1">
+    <row r="210" spans="1:3" ht="12.75" customHeight="1">
       <c r="A210" s="16"/>
       <c r="B210" s="16"/>
       <c r="C210" s="16"/>
     </row>
-    <row r="211" ht="12.75" customHeight="1">
+    <row r="211" spans="1:3" ht="12.75" customHeight="1">
       <c r="A211" s="16"/>
       <c r="B211" s="16"/>
       <c r="C211" s="16"/>
     </row>
-    <row r="212" ht="12.75" customHeight="1">
+    <row r="212" spans="1:3" ht="12.75" customHeight="1">
       <c r="A212" s="16"/>
       <c r="B212" s="16"/>
       <c r="C212" s="16"/>
     </row>
-    <row r="213" ht="12.75" customHeight="1">
+    <row r="213" spans="1:3" ht="12.75" customHeight="1">
       <c r="A213" s="16"/>
       <c r="B213" s="16"/>
       <c r="C213" s="16"/>
     </row>
-    <row r="214" ht="12.75" customHeight="1">
+    <row r="214" spans="1:3" ht="12.75" customHeight="1">
       <c r="A214" s="16"/>
       <c r="B214" s="16"/>
       <c r="C214" s="16"/>
     </row>
-    <row r="215" ht="12.75" customHeight="1">
+    <row r="215" spans="1:3" ht="12.75" customHeight="1">
       <c r="A215" s="16"/>
       <c r="B215" s="16"/>
       <c r="C215" s="16"/>
     </row>
-    <row r="216" ht="12.75" customHeight="1">
+    <row r="216" spans="1:3" ht="12.75" customHeight="1">
       <c r="A216" s="16"/>
       <c r="B216" s="16"/>
       <c r="C216" s="16"/>
     </row>
-    <row r="217" ht="12.75" customHeight="1">
+    <row r="217" spans="1:3" ht="12.75" customHeight="1">
       <c r="A217" s="16"/>
       <c r="B217" s="16"/>
       <c r="C217" s="16"/>
     </row>
-    <row r="218" ht="12.75" customHeight="1">
+    <row r="218" spans="1:3" ht="12.75" customHeight="1">
       <c r="A218" s="16"/>
       <c r="B218" s="16"/>
       <c r="C218" s="16"/>
     </row>
-    <row r="219" ht="12.75" customHeight="1">
+    <row r="219" spans="1:3" ht="12.75" customHeight="1">
       <c r="A219" s="16"/>
       <c r="B219" s="16"/>
       <c r="C219" s="16"/>
     </row>
-    <row r="220" ht="12.75" customHeight="1">
+    <row r="220" spans="1:3" ht="12.75" customHeight="1">
       <c r="A220" s="16"/>
       <c r="B220" s="16"/>
       <c r="C220" s="16"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="221" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="222" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="223" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="224" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="225" ht="15.75" customHeight="1"/>
     <row r="226" ht="15.75" customHeight="1"/>
     <row r="227" ht="15.75" customHeight="1"/>
@@ -30263,52 +30648,51 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.38"/>
-    <col customWidth="1" min="2" max="6" width="7.63"/>
+    <col min="1" max="1" width="15.375" customWidth="1"/>
+    <col min="2" max="6" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:1" ht="12.75" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
+    <row r="2" spans="1:1" ht="12.75" customHeight="1">
       <c r="A2" s="17" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="3" ht="12.75" customHeight="1"/>
-    <row r="4" ht="12.75" customHeight="1"/>
-    <row r="5" ht="12.75" customHeight="1"/>
-    <row r="6" ht="12.75" customHeight="1"/>
-    <row r="7" ht="12.75" customHeight="1"/>
-    <row r="8" ht="12.75" customHeight="1"/>
-    <row r="9" ht="12.75" customHeight="1"/>
-    <row r="10" ht="12.75" customHeight="1"/>
-    <row r="11" ht="12.75" customHeight="1"/>
-    <row r="12" ht="12.75" customHeight="1"/>
-    <row r="13" ht="12.75" customHeight="1"/>
-    <row r="14" ht="12.75" customHeight="1"/>
-    <row r="15" ht="12.75" customHeight="1"/>
-    <row r="16" ht="12.75" customHeight="1"/>
+    <row r="3" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="4" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="5" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="6" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="7" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="8" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="9" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="10" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="11" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="12" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="13" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="14" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="15" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="16" spans="1:1" ht="12.75" customHeight="1"/>
     <row r="17" ht="12.75" customHeight="1"/>
     <row r="18" ht="12.75" customHeight="1"/>
     <row r="19" ht="12.75" customHeight="1"/>
@@ -31294,9 +31678,8 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/st1.xlsm.xlsx
+++ b/st1.xlsm.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ri-ueno\Desktop\pair programming\SQL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yu-ji\Desktop\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7815" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7820" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="問題" sheetId="1" r:id="rId1"/>
@@ -40,6 +40,8 @@
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="MS PGothic"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>管理用項目。処理では利用しないのでテーブル定義からは省略</t>
         </r>
@@ -50,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="464">
   <si>
     <t>NO</t>
   </si>
@@ -1448,7 +1450,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1464,6 +1466,13 @@
     <font>
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="MS PGothic"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -1984,12 +1993,12 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.125" customWidth="1"/>
-    <col min="2" max="2" width="2.5" customWidth="1"/>
-    <col min="3" max="3" width="149.125" customWidth="1"/>
-    <col min="4" max="6" width="7.625" customWidth="1"/>
+    <col min="1" max="1" width="3.08984375" customWidth="1"/>
+    <col min="2" max="2" width="2.453125" customWidth="1"/>
+    <col min="3" max="3" width="149.08984375" customWidth="1"/>
+    <col min="4" max="6" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="12.75" customHeight="1">
@@ -3104,15 +3113,15 @@
   </sheetPr>
   <dimension ref="A1:AI1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="I85" sqref="I85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="7.875" customWidth="1"/>
-    <col min="3" max="3" width="10.125" customWidth="1"/>
-    <col min="4" max="35" width="7.875" customWidth="1"/>
+    <col min="1" max="2" width="7.90625" customWidth="1"/>
+    <col min="3" max="3" width="10.08984375" customWidth="1"/>
+    <col min="4" max="35" width="7.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="12.75" customHeight="1">
@@ -4361,23 +4370,57 @@
         <v>129</v>
       </c>
       <c r="R24" s="3"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="13"/>
-      <c r="U24" s="13"/>
-      <c r="V24" s="13"/>
-      <c r="W24" s="13"/>
-      <c r="X24" s="13"/>
-      <c r="Y24" s="13"/>
-      <c r="Z24" s="13"/>
-      <c r="AA24" s="13"/>
-      <c r="AB24" s="13"/>
-      <c r="AC24" s="13"/>
-      <c r="AD24" s="13"/>
-      <c r="AE24" s="13"/>
-      <c r="AF24" s="13"/>
-      <c r="AG24" s="13"/>
-      <c r="AH24" s="13"/>
-      <c r="AI24" s="13"/>
+      <c r="S24" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="T24" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="U24" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="V24" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="W24" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="X24" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y24" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z24" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA24" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB24" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC24" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD24" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE24" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF24" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG24" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH24" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI24" s="13" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="25" spans="1:35" ht="12.75" customHeight="1">
       <c r="A25" s="3"/>
@@ -4548,11 +4591,21 @@
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
       <c r="I28" s="3"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
+      <c r="J28" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L28" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="M28" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="N28" s="13" t="s">
+        <v>33</v>
+      </c>
       <c r="O28" s="13"/>
       <c r="P28" s="13"/>
       <c r="Q28" s="13"/>
@@ -4595,11 +4648,21 @@
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
+      <c r="J29" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="K29" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="M29" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N29" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="O29" s="13"/>
       <c r="P29" s="13"/>
       <c r="Q29" s="13"/>
@@ -4646,13 +4709,27 @@
       </c>
       <c r="H30" s="12"/>
       <c r="I30" s="3"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
+      <c r="J30" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="M30" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="N30" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="O30" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="P30" s="13" t="s">
+        <v>144</v>
+      </c>
       <c r="Q30" s="13"/>
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
@@ -4697,13 +4774,27 @@
       </c>
       <c r="H31" s="12"/>
       <c r="I31" s="3"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
+      <c r="J31" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="K31" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="L31" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="M31" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="N31" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="O31" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="P31" s="13" t="s">
+        <v>147</v>
+      </c>
       <c r="Q31" s="13"/>
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
@@ -4744,11 +4835,21 @@
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
       <c r="I32" s="3"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
+      <c r="J32" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="K32" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="L32" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="M32" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="N32" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="O32" s="13"/>
       <c r="P32" s="13"/>
       <c r="Q32" s="13"/>
@@ -4795,13 +4896,27 @@
       </c>
       <c r="H33" s="12"/>
       <c r="I33" s="3"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
+      <c r="J33" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="K33" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="L33" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="M33" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="N33" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="O33" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="P33" s="13" t="s">
+        <v>152</v>
+      </c>
       <c r="Q33" s="13"/>
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
@@ -4842,11 +4957,21 @@
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
       <c r="I34" s="3"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
+      <c r="J34" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="K34" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="L34" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="M34" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="N34" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="O34" s="13"/>
       <c r="P34" s="13"/>
       <c r="Q34" s="13"/>
@@ -4891,14 +5016,26 @@
         <v>158</v>
       </c>
       <c r="I35" s="3"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
+      <c r="J35" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="K35" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="L35" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="M35" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="N35" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="O35" s="13"/>
       <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
+      <c r="Q35" s="13" t="s">
+        <v>158</v>
+      </c>
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
@@ -4940,14 +5077,26 @@
         <v>158</v>
       </c>
       <c r="I36" s="3"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
+      <c r="J36" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="K36" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="L36" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="M36" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="N36" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="O36" s="13"/>
       <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
+      <c r="Q36" s="13" t="s">
+        <v>158</v>
+      </c>
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
@@ -4989,14 +5138,26 @@
         <v>95</v>
       </c>
       <c r="I37" s="3"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
+      <c r="J37" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="K37" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="L37" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="M37" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="N37" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="O37" s="13"/>
       <c r="P37" s="13"/>
-      <c r="Q37" s="13"/>
+      <c r="Q37" s="13" t="s">
+        <v>95</v>
+      </c>
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
@@ -5036,11 +5197,21 @@
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
       <c r="I38" s="3"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
+      <c r="J38" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="K38" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="L38" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="M38" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="N38" s="13" t="s">
+        <v>33</v>
+      </c>
       <c r="O38" s="13"/>
       <c r="P38" s="13"/>
       <c r="Q38" s="13"/>
@@ -5196,8 +5367,12 @@
         <v>48</v>
       </c>
       <c r="C42" s="3"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
+      <c r="D42" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>48</v>
+      </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
@@ -5237,8 +5412,12 @@
         <v>85</v>
       </c>
       <c r="C43" s="3"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
+      <c r="D43" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>85</v>
+      </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
@@ -5278,8 +5457,12 @@
         <v>85</v>
       </c>
       <c r="C44" s="3"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
+      <c r="D44" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>85</v>
+      </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -5319,8 +5502,12 @@
         <v>91</v>
       </c>
       <c r="C45" s="3"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
+      <c r="D45" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
@@ -5360,8 +5547,12 @@
         <v>163</v>
       </c>
       <c r="C46" s="3"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
+      <c r="D46" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>163</v>
+      </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
@@ -5401,8 +5592,12 @@
         <v>85</v>
       </c>
       <c r="C47" s="3"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
+      <c r="D47" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>85</v>
+      </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
@@ -5442,8 +5637,12 @@
         <v>175</v>
       </c>
       <c r="C48" s="3"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
+      <c r="D48" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>175</v>
+      </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
@@ -5483,8 +5682,12 @@
         <v>48</v>
       </c>
       <c r="C49" s="3"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
+      <c r="D49" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>48</v>
+      </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
@@ -5524,8 +5727,12 @@
         <v>178</v>
       </c>
       <c r="C50" s="3"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
+      <c r="D50" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>178</v>
+      </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
@@ -5565,8 +5772,12 @@
         <v>124</v>
       </c>
       <c r="C51" s="3"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
+      <c r="D51" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>124</v>
+      </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -5606,8 +5817,12 @@
         <v>117</v>
       </c>
       <c r="C52" s="3"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
+      <c r="D52" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>117</v>
+      </c>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -5647,8 +5862,12 @@
         <v>178</v>
       </c>
       <c r="C53" s="3"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
+      <c r="D53" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>178</v>
+      </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
@@ -5688,8 +5907,12 @@
         <v>183</v>
       </c>
       <c r="C54" s="3"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
+      <c r="D54" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>183</v>
+      </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
@@ -5729,8 +5952,12 @@
         <v>185</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
+      <c r="D55" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>185</v>
+      </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
@@ -5770,8 +5997,12 @@
         <v>159</v>
       </c>
       <c r="C56" s="3"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
+      <c r="D56" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>159</v>
+      </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
@@ -5811,8 +6042,12 @@
         <v>187</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
+      <c r="D57" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>187</v>
+      </c>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
@@ -5852,8 +6087,12 @@
         <v>189</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
+      <c r="D58" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>189</v>
+      </c>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
@@ -5893,8 +6132,12 @@
         <v>163</v>
       </c>
       <c r="C59" s="3"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
+      <c r="D59" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>163</v>
+      </c>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
@@ -5934,8 +6177,12 @@
         <v>45</v>
       </c>
       <c r="C60" s="3"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
+      <c r="D60" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>45</v>
+      </c>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
@@ -5975,8 +6222,12 @@
         <v>192</v>
       </c>
       <c r="C61" s="3"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
+      <c r="D61" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>192</v>
+      </c>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
@@ -6016,8 +6267,12 @@
         <v>193</v>
       </c>
       <c r="C62" s="3"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
+      <c r="D62" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>193</v>
+      </c>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
@@ -6057,8 +6312,12 @@
         <v>48</v>
       </c>
       <c r="C63" s="3"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
+      <c r="D63" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>48</v>
+      </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
@@ -6223,8 +6482,12 @@
         <v>85</v>
       </c>
       <c r="C67" s="3"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
+      <c r="D67" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>85</v>
+      </c>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
@@ -6264,8 +6527,12 @@
         <v>85</v>
       </c>
       <c r="C68" s="3"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
+      <c r="D68" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>85</v>
+      </c>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
@@ -6305,8 +6572,12 @@
         <v>85</v>
       </c>
       <c r="C69" s="3"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
+      <c r="D69" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>85</v>
+      </c>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
@@ -6346,8 +6617,12 @@
         <v>175</v>
       </c>
       <c r="C70" s="3"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
+      <c r="D70" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>175</v>
+      </c>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
@@ -6387,8 +6662,12 @@
         <v>183</v>
       </c>
       <c r="C71" s="3"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="13"/>
+      <c r="D71" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>183</v>
+      </c>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
@@ -6428,8 +6707,12 @@
         <v>192</v>
       </c>
       <c r="C72" s="3"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13"/>
+      <c r="D72" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>192</v>
+      </c>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
@@ -6469,8 +6752,12 @@
         <v>193</v>
       </c>
       <c r="C73" s="3"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
+      <c r="D73" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>193</v>
+      </c>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
@@ -6635,8 +6922,12 @@
         <v>216</v>
       </c>
       <c r="C77" s="3"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
+      <c r="D77" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>216</v>
+      </c>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
@@ -6676,8 +6967,12 @@
         <v>224</v>
       </c>
       <c r="C78" s="3"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="13"/>
+      <c r="D78" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>224</v>
+      </c>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
@@ -6717,8 +7012,12 @@
         <v>231</v>
       </c>
       <c r="C79" s="3"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="13"/>
+      <c r="D79" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>231</v>
+      </c>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
@@ -6758,8 +7057,12 @@
         <v>238</v>
       </c>
       <c r="C80" s="3"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="13"/>
+      <c r="D80" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="E80" s="13" t="s">
+        <v>238</v>
+      </c>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
@@ -6799,8 +7102,12 @@
         <v>250</v>
       </c>
       <c r="C81" s="3"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="13"/>
+      <c r="D81" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>250</v>
+      </c>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
@@ -6840,8 +7147,12 @@
         <v>259</v>
       </c>
       <c r="C82" s="3"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="13"/>
+      <c r="D82" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>259</v>
+      </c>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
@@ -6881,8 +7192,12 @@
         <v>266</v>
       </c>
       <c r="C83" s="3"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="13"/>
+      <c r="D83" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>266</v>
+      </c>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
@@ -6922,8 +7237,12 @@
         <v>268</v>
       </c>
       <c r="C84" s="3"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="13"/>
+      <c r="D84" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>268</v>
+      </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
@@ -6963,8 +7282,12 @@
         <v>270</v>
       </c>
       <c r="C85" s="3"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13"/>
+      <c r="D85" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>270</v>
+      </c>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
@@ -7004,8 +7327,12 @@
         <v>272</v>
       </c>
       <c r="C86" s="3"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="13"/>
+      <c r="D86" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="E86" s="13" t="s">
+        <v>272</v>
+      </c>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
@@ -7045,8 +7372,12 @@
         <v>274</v>
       </c>
       <c r="C87" s="3"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="13"/>
+      <c r="D87" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="E87" s="13" t="s">
+        <v>274</v>
+      </c>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
@@ -7086,8 +7417,12 @@
         <v>276</v>
       </c>
       <c r="C88" s="3"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="13"/>
+      <c r="D88" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>276</v>
+      </c>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
@@ -19574,12 +19909,12 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="3" width="7.875" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="25" width="7.875" customWidth="1"/>
+    <col min="2" max="3" width="7.90625" customWidth="1"/>
+    <col min="4" max="4" width="11.08984375" customWidth="1"/>
+    <col min="5" max="25" width="7.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="12.75" customHeight="1">
@@ -26437,9 +26772,9 @@
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="6" width="7.625" customWidth="1"/>
+    <col min="1" max="6" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -27459,9 +27794,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="6" width="7.625" customWidth="1"/>
+    <col min="1" max="6" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="12.75" customHeight="1">
@@ -28747,12 +29082,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.875" customWidth="1"/>
-    <col min="2" max="2" width="10.375" customWidth="1"/>
-    <col min="3" max="3" width="21.125" customWidth="1"/>
-    <col min="4" max="6" width="7.625" customWidth="1"/>
+    <col min="1" max="1" width="7.90625" customWidth="1"/>
+    <col min="2" max="2" width="10.36328125" customWidth="1"/>
+    <col min="3" max="3" width="21.08984375" customWidth="1"/>
+    <col min="4" max="6" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="12.75" customHeight="1">
@@ -30663,10 +30998,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.375" customWidth="1"/>
-    <col min="2" max="6" width="7.625" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" customWidth="1"/>
+    <col min="2" max="6" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="12.75" customHeight="1">
